--- a/England Championship/England Championship.xlsx
+++ b/England Championship/England Championship.xlsx
@@ -44357,7 +44357,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>6808251</v>
+        <v>6808252</v>
       </c>
       <c r="C493" t="s">
         <v>28</v>
@@ -44369,56 +44369,56 @@
         <v>45269.5</v>
       </c>
       <c r="F493" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G493" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H493">
         <v>0</v>
       </c>
       <c r="I493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J493" t="s">
         <v>61</v>
       </c>
       <c r="K493">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L493">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M493">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N493">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O493">
+        <v>3.2</v>
+      </c>
+      <c r="P493">
         <v>3.6</v>
-      </c>
-      <c r="P493">
-        <v>3.1</v>
       </c>
       <c r="Q493">
         <v>-0.25</v>
       </c>
       <c r="R493">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S493">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="T493">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U493">
+        <v>2</v>
+      </c>
+      <c r="V493">
         <v>1.85</v>
       </c>
-      <c r="V493">
-        <v>2</v>
-      </c>
       <c r="W493">
         <v>-1</v>
       </c>
@@ -44426,19 +44426,19 @@
         <v>-1</v>
       </c>
       <c r="Y493">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Z493">
         <v>-1</v>
       </c>
       <c r="AA493">
-        <v>0.8999999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AB493">
         <v>-1</v>
       </c>
       <c r="AC493">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="494" spans="1:29">
@@ -44446,7 +44446,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>6808252</v>
+        <v>6808251</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
@@ -44458,55 +44458,55 @@
         <v>45269.5</v>
       </c>
       <c r="F494" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G494" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H494">
         <v>0</v>
       </c>
       <c r="I494">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J494" t="s">
         <v>61</v>
       </c>
       <c r="K494">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L494">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M494">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N494">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O494">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P494">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q494">
         <v>-0.25</v>
       </c>
       <c r="R494">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S494">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="T494">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U494">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V494">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W494">
         <v>-1</v>
@@ -44515,19 +44515,19 @@
         <v>-1</v>
       </c>
       <c r="Y494">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Z494">
         <v>-1</v>
       </c>
       <c r="AA494">
-        <v>1.01</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB494">
         <v>-1</v>
       </c>
       <c r="AC494">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:29">
@@ -44535,7 +44535,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>6809003</v>
+        <v>6809002</v>
       </c>
       <c r="C495" t="s">
         <v>28</v>
@@ -44547,76 +44547,76 @@
         <v>45269.5</v>
       </c>
       <c r="F495" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G495" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H495">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J495" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K495">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="L495">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M495">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N495">
-        <v>1.25</v>
+        <v>2.875</v>
       </c>
       <c r="O495">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P495">
-        <v>11</v>
+        <v>2.4</v>
       </c>
       <c r="Q495">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R495">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S495">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T495">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U495">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V495">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W495">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X495">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y495">
         <v>-1</v>
       </c>
       <c r="Z495">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA495">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB495">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC495">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="496" spans="1:29">
@@ -44624,7 +44624,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>6809002</v>
+        <v>6808526</v>
       </c>
       <c r="C496" t="s">
         <v>28</v>
@@ -44636,76 +44636,76 @@
         <v>45269.5</v>
       </c>
       <c r="F496" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G496" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H496">
         <v>1</v>
       </c>
       <c r="I496">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J496" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K496">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L496">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M496">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N496">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="O496">
         <v>3.5</v>
       </c>
       <c r="P496">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q496">
         <v>0.25</v>
       </c>
       <c r="R496">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S496">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T496">
         <v>2.5</v>
       </c>
       <c r="U496">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V496">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W496">
         <v>-1</v>
       </c>
       <c r="X496">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y496">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z496">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA496">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB496">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC496">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="497" spans="1:29">
@@ -44713,7 +44713,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>6808526</v>
+        <v>6808525</v>
       </c>
       <c r="C497" t="s">
         <v>28</v>
@@ -44725,76 +44725,76 @@
         <v>45269.5</v>
       </c>
       <c r="F497" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G497" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I497">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J497" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K497">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L497">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M497">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N497">
         <v>3.2</v>
       </c>
       <c r="O497">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P497">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q497">
         <v>0.25</v>
       </c>
       <c r="R497">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="S497">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="T497">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U497">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V497">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W497">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X497">
         <v>-1</v>
       </c>
       <c r="Y497">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z497">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA497">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB497">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC497">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="498" spans="1:29">
@@ -44802,7 +44802,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>6808525</v>
+        <v>6808524</v>
       </c>
       <c r="C498" t="s">
         <v>28</v>
@@ -44814,76 +44814,76 @@
         <v>45269.5</v>
       </c>
       <c r="F498" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G498" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498">
         <v>0</v>
       </c>
       <c r="J498" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K498">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L498">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M498">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N498">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="O498">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P498">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q498">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R498">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S498">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T498">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U498">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V498">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W498">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X498">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y498">
         <v>-1</v>
       </c>
       <c r="Z498">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA498">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB498">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC498">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="499" spans="1:29">
@@ -44891,7 +44891,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>6808524</v>
+        <v>6808523</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -44903,76 +44903,76 @@
         <v>45269.5</v>
       </c>
       <c r="F499" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G499" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I499">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J499" t="s">
         <v>60</v>
       </c>
       <c r="K499">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L499">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M499">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N499">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="O499">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P499">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q499">
+        <v>0</v>
+      </c>
+      <c r="R499">
+        <v>2.1</v>
+      </c>
+      <c r="S499">
+        <v>1.775</v>
+      </c>
+      <c r="T499">
+        <v>2.25</v>
+      </c>
+      <c r="U499">
+        <v>2.025</v>
+      </c>
+      <c r="V499">
+        <v>1.825</v>
+      </c>
+      <c r="W499">
+        <v>-1</v>
+      </c>
+      <c r="X499">
+        <v>2.2</v>
+      </c>
+      <c r="Y499">
+        <v>-1</v>
+      </c>
+      <c r="Z499">
+        <v>0</v>
+      </c>
+      <c r="AA499">
+        <v>-0</v>
+      </c>
+      <c r="AB499">
         <v>-0.5</v>
       </c>
-      <c r="R499">
-        <v>1.85</v>
-      </c>
-      <c r="S499">
-        <v>2</v>
-      </c>
-      <c r="T499">
-        <v>2.5</v>
-      </c>
-      <c r="U499">
-        <v>2</v>
-      </c>
-      <c r="V499">
-        <v>1.85</v>
-      </c>
-      <c r="W499">
-        <v>-1</v>
-      </c>
-      <c r="X499">
-        <v>2.6</v>
-      </c>
-      <c r="Y499">
-        <v>-1</v>
-      </c>
-      <c r="Z499">
-        <v>-1</v>
-      </c>
-      <c r="AA499">
-        <v>1</v>
-      </c>
-      <c r="AB499">
-        <v>-1</v>
-      </c>
       <c r="AC499">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="500" spans="1:29">
@@ -44980,7 +44980,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>6808523</v>
+        <v>6809003</v>
       </c>
       <c r="C500" t="s">
         <v>28</v>
@@ -44992,76 +44992,76 @@
         <v>45269.5</v>
       </c>
       <c r="F500" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G500" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I500">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J500" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K500">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="L500">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M500">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="N500">
-        <v>2.875</v>
+        <v>1.25</v>
       </c>
       <c r="O500">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P500">
-        <v>2.55</v>
+        <v>11</v>
       </c>
       <c r="Q500">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R500">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S500">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T500">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U500">
+        <v>1.825</v>
+      </c>
+      <c r="V500">
         <v>2.025</v>
       </c>
-      <c r="V500">
-        <v>1.825</v>
-      </c>
       <c r="W500">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X500">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y500">
         <v>-1</v>
       </c>
       <c r="Z500">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA500">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB500">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC500">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="501" spans="1:29">
@@ -45247,7 +45247,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>6808528</v>
+        <v>6808253</v>
       </c>
       <c r="C503" t="s">
         <v>28</v>
@@ -45259,76 +45259,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F503" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G503" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J503" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K503">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L503">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M503">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N503">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O503">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P503">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q503">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R503">
-        <v>1.825</v>
+        <v>2.11</v>
       </c>
       <c r="S503">
-        <v>2.025</v>
+        <v>1.79</v>
       </c>
       <c r="T503">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U503">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V503">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W503">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X503">
         <v>-1</v>
       </c>
       <c r="Y503">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z503">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA503">
-        <v>-1</v>
+        <v>0.79</v>
       </c>
       <c r="AB503">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC503">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504" spans="1:29">
@@ -45336,7 +45336,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>6808253</v>
+        <v>6808528</v>
       </c>
       <c r="C504" t="s">
         <v>28</v>
@@ -45348,76 +45348,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F504" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G504" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H504">
+        <v>2</v>
+      </c>
+      <c r="I504">
         <v>1</v>
       </c>
-      <c r="I504">
-        <v>2</v>
-      </c>
       <c r="J504" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K504">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L504">
+        <v>3.6</v>
+      </c>
+      <c r="M504">
+        <v>3.5</v>
+      </c>
+      <c r="N504">
+        <v>2.05</v>
+      </c>
+      <c r="O504">
+        <v>3.6</v>
+      </c>
+      <c r="P504">
         <v>3.4</v>
       </c>
-      <c r="M504">
-        <v>2.5</v>
-      </c>
-      <c r="N504">
-        <v>2.875</v>
-      </c>
-      <c r="O504">
-        <v>3.4</v>
-      </c>
-      <c r="P504">
-        <v>2.4</v>
-      </c>
       <c r="Q504">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R504">
-        <v>2.11</v>
+        <v>1.825</v>
       </c>
       <c r="S504">
-        <v>1.79</v>
+        <v>2.025</v>
       </c>
       <c r="T504">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U504">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V504">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W504">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X504">
         <v>-1</v>
       </c>
       <c r="Y504">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z504">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA504">
-        <v>0.79</v>
+        <v>-1</v>
       </c>
       <c r="AB504">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC504">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="505" spans="1:29">
@@ -45781,7 +45781,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>6808254</v>
+        <v>6808534</v>
       </c>
       <c r="C509" t="s">
         <v>28</v>
@@ -45793,58 +45793,58 @@
         <v>45273.69791666666</v>
       </c>
       <c r="F509" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G509" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H509">
         <v>3</v>
       </c>
       <c r="I509">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J509" t="s">
         <v>59</v>
       </c>
       <c r="K509">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L509">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M509">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="N509">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O509">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P509">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q509">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R509">
+        <v>1.97</v>
+      </c>
+      <c r="S509">
+        <v>1.93</v>
+      </c>
+      <c r="T509">
+        <v>2.75</v>
+      </c>
+      <c r="U509">
         <v>2.025</v>
       </c>
-      <c r="S509">
+      <c r="V509">
         <v>1.825</v>
       </c>
-      <c r="T509">
-        <v>2.5</v>
-      </c>
-      <c r="U509">
-        <v>1.85</v>
-      </c>
-      <c r="V509">
-        <v>2</v>
-      </c>
       <c r="W509">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X509">
         <v>-1</v>
@@ -45853,13 +45853,13 @@
         <v>-1</v>
       </c>
       <c r="Z509">
+        <v>-0.5</v>
+      </c>
+      <c r="AA509">
+        <v>0.465</v>
+      </c>
+      <c r="AB509">
         <v>1.025</v>
-      </c>
-      <c r="AA509">
-        <v>-1</v>
-      </c>
-      <c r="AB509">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC509">
         <v>-1</v>
@@ -45870,7 +45870,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>6808533</v>
+        <v>6808254</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45882,76 +45882,76 @@
         <v>45273.69791666666</v>
       </c>
       <c r="F510" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G510" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I510">
         <v>1</v>
       </c>
       <c r="J510" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K510">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L510">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M510">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N510">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O510">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P510">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q510">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R510">
-        <v>1.99</v>
+        <v>2.025</v>
       </c>
       <c r="S510">
-        <v>1.91</v>
+        <v>1.825</v>
       </c>
       <c r="T510">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U510">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V510">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W510">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X510">
         <v>-1</v>
       </c>
       <c r="Y510">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z510">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA510">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB510">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC510">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -45959,7 +45959,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>6808534</v>
+        <v>6808533</v>
       </c>
       <c r="C511" t="s">
         <v>28</v>
@@ -45971,76 +45971,76 @@
         <v>45273.69791666666</v>
       </c>
       <c r="F511" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G511" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H511">
+        <v>0</v>
+      </c>
+      <c r="I511">
+        <v>1</v>
+      </c>
+      <c r="J511" t="s">
+        <v>61</v>
+      </c>
+      <c r="K511">
+        <v>2.1</v>
+      </c>
+      <c r="L511">
+        <v>3.4</v>
+      </c>
+      <c r="M511">
+        <v>3.4</v>
+      </c>
+      <c r="N511">
+        <v>1.95</v>
+      </c>
+      <c r="O511">
+        <v>3.6</v>
+      </c>
+      <c r="P511">
+        <v>4</v>
+      </c>
+      <c r="Q511">
+        <v>-0.5</v>
+      </c>
+      <c r="R511">
+        <v>1.99</v>
+      </c>
+      <c r="S511">
+        <v>1.91</v>
+      </c>
+      <c r="T511">
+        <v>2.25</v>
+      </c>
+      <c r="U511">
+        <v>1.925</v>
+      </c>
+      <c r="V511">
+        <v>1.925</v>
+      </c>
+      <c r="W511">
+        <v>-1</v>
+      </c>
+      <c r="X511">
+        <v>-1</v>
+      </c>
+      <c r="Y511">
         <v>3</v>
       </c>
-      <c r="I511">
-        <v>2</v>
-      </c>
-      <c r="J511" t="s">
-        <v>59</v>
-      </c>
-      <c r="K511">
-        <v>1.4</v>
-      </c>
-      <c r="L511">
-        <v>4.5</v>
-      </c>
-      <c r="M511">
-        <v>8</v>
-      </c>
-      <c r="N511">
-        <v>1.4</v>
-      </c>
-      <c r="O511">
-        <v>4.75</v>
-      </c>
-      <c r="P511">
-        <v>7.5</v>
-      </c>
-      <c r="Q511">
-        <v>-1.25</v>
-      </c>
-      <c r="R511">
-        <v>1.97</v>
-      </c>
-      <c r="S511">
-        <v>1.93</v>
-      </c>
-      <c r="T511">
-        <v>2.75</v>
-      </c>
-      <c r="U511">
-        <v>2.025</v>
-      </c>
-      <c r="V511">
-        <v>1.825</v>
-      </c>
-      <c r="W511">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X511">
-        <v>-1</v>
-      </c>
-      <c r="Y511">
-        <v>-1</v>
-      </c>
       <c r="Z511">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA511">
-        <v>0.465</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB511">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC511">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="512" spans="1:29">
@@ -52723,7 +52723,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>6808267</v>
+        <v>6974602</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52735,76 +52735,76 @@
         <v>45311.5</v>
       </c>
       <c r="F587" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G587" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H587">
         <v>1</v>
       </c>
       <c r="I587">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J587" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K587">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L587">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M587">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="N587">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="O587">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P587">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="Q587">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R587">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S587">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T587">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U587">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V587">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W587">
         <v>-1</v>
       </c>
       <c r="X587">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y587">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z587">
         <v>-1</v>
       </c>
       <c r="AA587">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB587">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC587">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="588" spans="1:29">
@@ -52812,7 +52812,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>6974602</v>
+        <v>6808988</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52824,76 +52824,76 @@
         <v>45311.5</v>
       </c>
       <c r="F588" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G588" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I588">
         <v>1</v>
       </c>
       <c r="J588" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K588">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L588">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M588">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N588">
+        <v>2.3</v>
+      </c>
+      <c r="O588">
+        <v>3.4</v>
+      </c>
+      <c r="P588">
+        <v>3</v>
+      </c>
+      <c r="Q588">
+        <v>-0.25</v>
+      </c>
+      <c r="R588">
+        <v>2.05</v>
+      </c>
+      <c r="S588">
+        <v>1.8</v>
+      </c>
+      <c r="T588">
+        <v>2.5</v>
+      </c>
+      <c r="U588">
+        <v>1.9</v>
+      </c>
+      <c r="V588">
+        <v>1.95</v>
+      </c>
+      <c r="W588">
         <v>1.3</v>
       </c>
-      <c r="O588">
-        <v>5.5</v>
-      </c>
-      <c r="P588">
-        <v>9.5</v>
-      </c>
-      <c r="Q588">
-        <v>-1.5</v>
-      </c>
-      <c r="R588">
-        <v>1.925</v>
-      </c>
-      <c r="S588">
-        <v>1.925</v>
-      </c>
-      <c r="T588">
-        <v>2.75</v>
-      </c>
-      <c r="U588">
-        <v>1.925</v>
-      </c>
-      <c r="V588">
-        <v>1.925</v>
-      </c>
-      <c r="W588">
-        <v>-1</v>
-      </c>
       <c r="X588">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y588">
         <v>-1</v>
       </c>
       <c r="Z588">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA588">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB588">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC588">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52901,7 +52901,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>6808988</v>
+        <v>6808590</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52913,19 +52913,19 @@
         <v>45311.5</v>
       </c>
       <c r="F589" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G589" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H589">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I589">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J589" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K589">
         <v>2</v>
@@ -52937,22 +52937,22 @@
         <v>3.75</v>
       </c>
       <c r="N589">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O589">
+        <v>3.6</v>
+      </c>
+      <c r="P589">
         <v>3.4</v>
-      </c>
-      <c r="P589">
-        <v>3</v>
       </c>
       <c r="Q589">
         <v>-0.25</v>
       </c>
       <c r="R589">
+        <v>1.8</v>
+      </c>
+      <c r="S589">
         <v>2.05</v>
-      </c>
-      <c r="S589">
-        <v>1.8</v>
       </c>
       <c r="T589">
         <v>2.5</v>
@@ -52964,19 +52964,19 @@
         <v>1.95</v>
       </c>
       <c r="W589">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X589">
         <v>-1</v>
       </c>
       <c r="Y589">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z589">
+        <v>-1</v>
+      </c>
+      <c r="AA589">
         <v>1.05</v>
-      </c>
-      <c r="AA589">
-        <v>-1</v>
       </c>
       <c r="AB589">
         <v>0.8999999999999999</v>
@@ -52990,7 +52990,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>6808590</v>
+        <v>6808589</v>
       </c>
       <c r="C590" t="s">
         <v>28</v>
@@ -53002,49 +53002,49 @@
         <v>45311.5</v>
       </c>
       <c r="F590" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G590" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I590">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J590" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K590">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L590">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M590">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N590">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="O590">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P590">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q590">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R590">
         <v>1.8</v>
       </c>
       <c r="S590">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T590">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U590">
         <v>1.9</v>
@@ -53053,25 +53053,25 @@
         <v>1.95</v>
       </c>
       <c r="W590">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X590">
         <v>-1</v>
       </c>
       <c r="Y590">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z590">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA590">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB590">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC590">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="591" spans="1:29">
@@ -53079,7 +53079,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>6808589</v>
+        <v>6808588</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53091,10 +53091,10 @@
         <v>45311.5</v>
       </c>
       <c r="F591" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G591" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H591">
         <v>2</v>
@@ -53106,43 +53106,43 @@
         <v>59</v>
       </c>
       <c r="K591">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L591">
         <v>3.3</v>
       </c>
       <c r="M591">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N591">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O591">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P591">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="Q591">
         <v>0</v>
       </c>
       <c r="R591">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="S591">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="T591">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U591">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V591">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W591">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="X591">
         <v>-1</v>
@@ -53151,16 +53151,16 @@
         <v>-1</v>
       </c>
       <c r="Z591">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="AA591">
         <v>-1</v>
       </c>
       <c r="AB591">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC591">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53168,7 +53168,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>6808588</v>
+        <v>6808586</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53180,76 +53180,76 @@
         <v>45311.5</v>
       </c>
       <c r="F592" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G592" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I592">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J592" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K592">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L592">
         <v>3.3</v>
       </c>
       <c r="M592">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N592">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O592">
         <v>3.3</v>
       </c>
       <c r="P592">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q592">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R592">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="S592">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="T592">
         <v>2.25</v>
       </c>
       <c r="U592">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V592">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W592">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X592">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y592">
         <v>-1</v>
       </c>
       <c r="Z592">
-        <v>0.98</v>
+        <v>-0.5</v>
       </c>
       <c r="AA592">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB592">
         <v>-0.5</v>
       </c>
       <c r="AC592">
-        <v>0.5125</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -53257,7 +53257,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>6808586</v>
+        <v>6808585</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53269,10 +53269,10 @@
         <v>45311.5</v>
       </c>
       <c r="F593" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G593" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H593">
         <v>1</v>
@@ -53284,34 +53284,34 @@
         <v>60</v>
       </c>
       <c r="K593">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L593">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M593">
+        <v>3.75</v>
+      </c>
+      <c r="N593">
+        <v>1.85</v>
+      </c>
+      <c r="O593">
+        <v>3.75</v>
+      </c>
+      <c r="P593">
+        <v>4</v>
+      </c>
+      <c r="Q593">
+        <v>-0.5</v>
+      </c>
+      <c r="R593">
+        <v>1.85</v>
+      </c>
+      <c r="S593">
+        <v>2</v>
+      </c>
+      <c r="T593">
         <v>2.75</v>
-      </c>
-      <c r="N593">
-        <v>2.25</v>
-      </c>
-      <c r="O593">
-        <v>3.3</v>
-      </c>
-      <c r="P593">
-        <v>3.3</v>
-      </c>
-      <c r="Q593">
-        <v>-0.25</v>
-      </c>
-      <c r="R593">
-        <v>1.925</v>
-      </c>
-      <c r="S593">
-        <v>1.925</v>
-      </c>
-      <c r="T593">
-        <v>2.25</v>
       </c>
       <c r="U593">
         <v>1.9</v>
@@ -53323,22 +53323,22 @@
         <v>-1</v>
       </c>
       <c r="X593">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y593">
         <v>-1</v>
       </c>
       <c r="Z593">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA593">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB593">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC593">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -53346,7 +53346,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>6808585</v>
+        <v>6808267</v>
       </c>
       <c r="C594" t="s">
         <v>28</v>
@@ -53358,76 +53358,76 @@
         <v>45311.5</v>
       </c>
       <c r="F594" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G594" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H594">
         <v>1</v>
       </c>
       <c r="I594">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J594" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K594">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L594">
         <v>3.4</v>
       </c>
       <c r="M594">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N594">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="O594">
         <v>3.75</v>
       </c>
       <c r="P594">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q594">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R594">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S594">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T594">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U594">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V594">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W594">
         <v>-1</v>
       </c>
       <c r="X594">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y594">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z594">
         <v>-1</v>
       </c>
       <c r="AA594">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB594">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC594">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="595" spans="1:29">
@@ -56372,7 +56372,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>7091996</v>
+        <v>7060917</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56384,58 +56384,58 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F628" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G628" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I628">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J628" t="s">
         <v>59</v>
       </c>
       <c r="K628">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L628">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M628">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N628">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O628">
         <v>3.6</v>
       </c>
       <c r="P628">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q628">
         <v>-0.25</v>
       </c>
       <c r="R628">
+        <v>1.8</v>
+      </c>
+      <c r="S628">
         <v>2.05</v>
-      </c>
-      <c r="S628">
-        <v>1.8</v>
       </c>
       <c r="T628">
         <v>2.75</v>
       </c>
       <c r="U628">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V628">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W628">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="X628">
         <v>-1</v>
@@ -56444,16 +56444,16 @@
         <v>-1</v>
       </c>
       <c r="Z628">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA628">
         <v>-1</v>
       </c>
       <c r="AB628">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC628">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -56461,7 +56461,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>7088781</v>
+        <v>7091996</v>
       </c>
       <c r="C629" t="s">
         <v>28</v>
@@ -56473,76 +56473,76 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F629" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G629" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H629">
+        <v>1</v>
+      </c>
+      <c r="I629">
         <v>0</v>
       </c>
-      <c r="I629">
-        <v>4</v>
-      </c>
       <c r="J629" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K629">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="L629">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M629">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="N629">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="O629">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P629">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q629">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R629">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S629">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T629">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U629">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V629">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W629">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X629">
         <v>-1</v>
       </c>
       <c r="Y629">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z629">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA629">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB629">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC629">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="630" spans="1:29">
@@ -56550,7 +56550,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>7060918</v>
+        <v>7088781</v>
       </c>
       <c r="C630" t="s">
         <v>28</v>
@@ -56562,49 +56562,49 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F630" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G630" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J630" t="s">
         <v>61</v>
       </c>
       <c r="K630">
+        <v>5.5</v>
+      </c>
+      <c r="L630">
         <v>4.333</v>
       </c>
-      <c r="L630">
-        <v>3.5</v>
-      </c>
       <c r="M630">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="N630">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="O630">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P630">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q630">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R630">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S630">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T630">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U630">
         <v>2.025</v>
@@ -56619,13 +56619,13 @@
         <v>-1</v>
       </c>
       <c r="Y630">
-        <v>0.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z630">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA630">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB630">
         <v>1.025</v>
@@ -56639,7 +56639,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>7060917</v>
+        <v>7060918</v>
       </c>
       <c r="C631" t="s">
         <v>28</v>
@@ -56651,73 +56651,73 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F631" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G631" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H631">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I631">
         <v>2</v>
       </c>
       <c r="J631" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K631">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L631">
+        <v>3.5</v>
+      </c>
+      <c r="M631">
+        <v>1.833</v>
+      </c>
+      <c r="N631">
+        <v>5</v>
+      </c>
+      <c r="O631">
         <v>3.4</v>
       </c>
-      <c r="M631">
-        <v>3.4</v>
-      </c>
-      <c r="N631">
-        <v>2.05</v>
-      </c>
-      <c r="O631">
-        <v>3.6</v>
-      </c>
       <c r="P631">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q631">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R631">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S631">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T631">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U631">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V631">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W631">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X631">
         <v>-1</v>
       </c>
       <c r="Y631">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z631">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA631">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB631">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC631">
         <v>-1</v>
@@ -56817,7 +56817,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>7060916</v>
+        <v>7060922</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56829,58 +56829,58 @@
         <v>45335.70833333334</v>
       </c>
       <c r="F633" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G633" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H633">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J633" t="s">
         <v>59</v>
       </c>
       <c r="K633">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="L633">
         <v>3.75</v>
       </c>
       <c r="M633">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="N633">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="O633">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P633">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q633">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R633">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S633">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T633">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U633">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V633">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W633">
-        <v>3.333</v>
+        <v>0.7</v>
       </c>
       <c r="X633">
         <v>-1</v>
@@ -56889,16 +56889,16 @@
         <v>-1</v>
       </c>
       <c r="Z633">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA633">
         <v>-1</v>
       </c>
       <c r="AB633">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC633">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -56906,7 +56906,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>7060922</v>
+        <v>7060916</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56918,58 +56918,58 @@
         <v>45335.70833333334</v>
       </c>
       <c r="F634" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G634" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I634">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J634" t="s">
         <v>59</v>
       </c>
       <c r="K634">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="L634">
         <v>3.75</v>
       </c>
       <c r="M634">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="N634">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="O634">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P634">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q634">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R634">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S634">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T634">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U634">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V634">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W634">
-        <v>0.7</v>
+        <v>3.333</v>
       </c>
       <c r="X634">
         <v>-1</v>
@@ -56978,16 +56978,16 @@
         <v>-1</v>
       </c>
       <c r="Z634">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA634">
         <v>-1</v>
       </c>
       <c r="AB634">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC634">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="635" spans="1:29">
@@ -56995,7 +56995,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>7058953</v>
+        <v>7060921</v>
       </c>
       <c r="C635" t="s">
         <v>28</v>
@@ -57007,73 +57007,73 @@
         <v>45336.69791666666</v>
       </c>
       <c r="F635" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G635" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H635">
         <v>2</v>
       </c>
       <c r="I635">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J635" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K635">
         <v>3.75</v>
       </c>
       <c r="L635">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M635">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N635">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O635">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P635">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q635">
         <v>0.25</v>
       </c>
       <c r="R635">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S635">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T635">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U635">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V635">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W635">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X635">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y635">
         <v>-1</v>
       </c>
       <c r="Z635">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA635">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB635">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC635">
         <v>-1</v>
@@ -57084,7 +57084,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>7080368</v>
+        <v>7060919</v>
       </c>
       <c r="C636" t="s">
         <v>28</v>
@@ -57096,10 +57096,10 @@
         <v>45336.69791666666</v>
       </c>
       <c r="F636" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G636" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H636">
         <v>1</v>
@@ -57111,43 +57111,43 @@
         <v>59</v>
       </c>
       <c r="K636">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L636">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M636">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N636">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="O636">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P636">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q636">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R636">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="S636">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T636">
         <v>2.25</v>
       </c>
       <c r="U636">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V636">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W636">
-        <v>1.15</v>
+        <v>2.4</v>
       </c>
       <c r="X636">
         <v>-1</v>
@@ -57156,7 +57156,7 @@
         <v>-1</v>
       </c>
       <c r="Z636">
-        <v>0.8999999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AA636">
         <v>-1</v>
@@ -57165,7 +57165,7 @@
         <v>-1</v>
       </c>
       <c r="AC636">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="637" spans="1:29">
@@ -57173,7 +57173,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>7060921</v>
+        <v>7058953</v>
       </c>
       <c r="C637" t="s">
         <v>28</v>
@@ -57185,73 +57185,73 @@
         <v>45336.69791666666</v>
       </c>
       <c r="F637" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G637" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H637">
         <v>2</v>
       </c>
       <c r="I637">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J637" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K637">
         <v>3.75</v>
       </c>
       <c r="L637">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M637">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N637">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O637">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P637">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q637">
         <v>0.25</v>
       </c>
       <c r="R637">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S637">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T637">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U637">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V637">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W637">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X637">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y637">
         <v>-1</v>
       </c>
       <c r="Z637">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA637">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB637">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC637">
         <v>-1</v>
@@ -57262,7 +57262,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>7060919</v>
+        <v>7080368</v>
       </c>
       <c r="C638" t="s">
         <v>28</v>
@@ -57274,10 +57274,10 @@
         <v>45336.69791666666</v>
       </c>
       <c r="F638" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G638" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H638">
         <v>1</v>
@@ -57289,43 +57289,43 @@
         <v>59</v>
       </c>
       <c r="K638">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L638">
+        <v>3.5</v>
+      </c>
+      <c r="M638">
+        <v>3.6</v>
+      </c>
+      <c r="N638">
+        <v>2.15</v>
+      </c>
+      <c r="O638">
+        <v>3.3</v>
+      </c>
+      <c r="P638">
         <v>3.4</v>
       </c>
-      <c r="M638">
-        <v>2</v>
-      </c>
-      <c r="N638">
-        <v>3.4</v>
-      </c>
-      <c r="O638">
-        <v>3.25</v>
-      </c>
-      <c r="P638">
-        <v>2.25</v>
-      </c>
       <c r="Q638">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R638">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="S638">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T638">
         <v>2.25</v>
       </c>
       <c r="U638">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V638">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W638">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="X638">
         <v>-1</v>
@@ -57334,7 +57334,7 @@
         <v>-1</v>
       </c>
       <c r="Z638">
-        <v>0.99</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA638">
         <v>-1</v>
@@ -57343,7 +57343,7 @@
         <v>-1</v>
       </c>
       <c r="AC638">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="639" spans="1:29">
@@ -59665,7 +59665,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>7141295</v>
+        <v>7141293</v>
       </c>
       <c r="C665" t="s">
         <v>28</v>
@@ -59677,76 +59677,76 @@
         <v>45346.5</v>
       </c>
       <c r="F665" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G665" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I665">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J665" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K665">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L665">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M665">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N665">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="O665">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P665">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q665">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R665">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S665">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T665">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U665">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V665">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W665">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X665">
         <v>-1</v>
       </c>
       <c r="Y665">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z665">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA665">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB665">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC665">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="666" spans="1:29">
@@ -59843,7 +59843,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>7141293</v>
+        <v>7141295</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59855,76 +59855,76 @@
         <v>45346.5</v>
       </c>
       <c r="F667" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G667" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H667">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J667" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K667">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L667">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M667">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N667">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="O667">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P667">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q667">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R667">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S667">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T667">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U667">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V667">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W667">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X667">
         <v>-1</v>
       </c>
       <c r="Y667">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z667">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA667">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB667">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC667">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="668" spans="1:29">
@@ -59971,19 +59971,19 @@
         <v>-0.25</v>
       </c>
       <c r="R668">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S668">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="T668">
         <v>2.5</v>
       </c>
       <c r="U668">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V668">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W668">
         <v>0</v>
@@ -60045,10 +60045,10 @@
         <v>-0.5</v>
       </c>
       <c r="R669">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="S669">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T669">
         <v>2.25</v>
@@ -60110,28 +60110,28 @@
         <v>6.5</v>
       </c>
       <c r="O670">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P670">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q670">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R670">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="S670">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="T670">
         <v>2.75</v>
       </c>
       <c r="U670">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V670">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W670">
         <v>0</v>
@@ -60193,10 +60193,10 @@
         <v>-1.5</v>
       </c>
       <c r="R671">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S671">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T671">
         <v>2.75</v>
@@ -60267,10 +60267,10 @@
         <v>0.75</v>
       </c>
       <c r="R672">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="S672">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="T672">
         <v>3</v>
@@ -60415,19 +60415,19 @@
         <v>0</v>
       </c>
       <c r="R674">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="S674">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T674">
         <v>2.5</v>
       </c>
       <c r="U674">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V674">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W674">
         <v>0</v>
@@ -60489,10 +60489,10 @@
         <v>0</v>
       </c>
       <c r="R675">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S675">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T675">
         <v>2.25</v>
@@ -60563,10 +60563,10 @@
         <v>0.5</v>
       </c>
       <c r="R676">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="S676">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="T676">
         <v>2.75</v>
@@ -60637,19 +60637,19 @@
         <v>0</v>
       </c>
       <c r="R677">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S677">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T677">
         <v>2.25</v>
       </c>
       <c r="U677">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V677">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W677">
         <v>0</v>
@@ -60773,22 +60773,22 @@
         <v>2.8</v>
       </c>
       <c r="N679">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O679">
         <v>3.25</v>
       </c>
       <c r="P679">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q679">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R679">
-        <v>1.79</v>
+        <v>2.09</v>
       </c>
       <c r="S679">
-        <v>2.11</v>
+        <v>1.81</v>
       </c>
       <c r="T679">
         <v>2.75</v>

--- a/England Championship/England Championship.xlsx
+++ b/England Championship/England Championship.xlsx
@@ -18529,7 +18529,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6808246</v>
+        <v>6808496</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18541,58 +18541,58 @@
         <v>45255.5</v>
       </c>
       <c r="F203" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G203" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>55</v>
       </c>
       <c r="K203">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L203">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M203">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N203">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O203">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P203">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R203">
+        <v>1.8</v>
+      </c>
+      <c r="S203">
+        <v>2.05</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
         <v>1.925</v>
       </c>
-      <c r="S203">
+      <c r="V203">
         <v>1.925</v>
       </c>
-      <c r="T203">
-        <v>2.25</v>
-      </c>
-      <c r="U203">
-        <v>1.975</v>
-      </c>
-      <c r="V203">
-        <v>1.875</v>
-      </c>
       <c r="W203">
-        <v>1.2</v>
+        <v>0.615</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18601,16 +18601,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
+        <v>0.8</v>
+      </c>
+      <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
         <v>0.925</v>
-      </c>
-      <c r="AA203">
-        <v>-1</v>
-      </c>
-      <c r="AB203">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC203">
-        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18618,7 +18618,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6808496</v>
+        <v>6808246</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18630,58 +18630,58 @@
         <v>45255.5</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G204" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
         <v>55</v>
       </c>
       <c r="K204">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N204">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O204">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P204">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S204">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T204">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W204">
-        <v>0.615</v>
+        <v>1.2</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18690,16 +18690,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA204">
         <v>-1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC204">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18885,7 +18885,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6808507</v>
+        <v>6808505</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18897,58 +18897,58 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F207" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G207" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H207">
         <v>4</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
         <v>55</v>
       </c>
       <c r="K207">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="L207">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M207">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N207">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O207">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P207">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R207">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S207">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T207">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U207">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V207">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W207">
-        <v>1.9</v>
+        <v>0.45</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18957,13 +18957,13 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6808505</v>
+        <v>6808504</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,76 +18986,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F208" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G208" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H208">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K208">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="L208">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M208">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N208">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="O208">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P208">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q208">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R208">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S208">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T208">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V208">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W208">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z208">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB208">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6808504</v>
+        <v>6808507</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G209" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H209">
+        <v>4</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209" t="s">
+        <v>55</v>
+      </c>
+      <c r="K209">
+        <v>3.1</v>
+      </c>
+      <c r="L209">
+        <v>3.25</v>
+      </c>
+      <c r="M209">
+        <v>2.3</v>
+      </c>
+      <c r="N209">
+        <v>2.9</v>
+      </c>
+      <c r="O209">
+        <v>3.1</v>
+      </c>
+      <c r="P209">
+        <v>2.6</v>
+      </c>
+      <c r="Q209">
         <v>0</v>
       </c>
-      <c r="I209">
-        <v>1</v>
-      </c>
-      <c r="J209" t="s">
-        <v>53</v>
-      </c>
-      <c r="K209">
-        <v>2.4</v>
-      </c>
-      <c r="L209">
-        <v>3.4</v>
-      </c>
-      <c r="M209">
-        <v>2.8</v>
-      </c>
-      <c r="N209">
-        <v>3.3</v>
-      </c>
-      <c r="O209">
-        <v>3.4</v>
-      </c>
-      <c r="P209">
-        <v>2.15</v>
-      </c>
-      <c r="Q209">
-        <v>0.25</v>
-      </c>
       <c r="R209">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S209">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V209">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA209">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC209">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6808509</v>
+        <v>6809006</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,58 +19342,58 @@
         <v>45259.69791666666</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G212" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
         <v>55</v>
       </c>
       <c r="K212">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L212">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M212">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N212">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O212">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P212">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q212">
         <v>-0.75</v>
       </c>
       <c r="R212">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="S212">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T212">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V212">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W212">
-        <v>0.7</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19402,16 +19402,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.9199999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB212">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6809006</v>
+        <v>6808248</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,76 +19431,76 @@
         <v>45259.69791666666</v>
       </c>
       <c r="F213" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H213">
         <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K213">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="L213">
         <v>4</v>
       </c>
       <c r="M213">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="N213">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="O213">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P213">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R213">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S213">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V213">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6808248</v>
+        <v>6808509</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,76 +19520,76 @@
         <v>45259.69791666666</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G214" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K214">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L214">
+        <v>3.4</v>
+      </c>
+      <c r="M214">
+        <v>3.4</v>
+      </c>
+      <c r="N214">
+        <v>1.7</v>
+      </c>
+      <c r="O214">
         <v>4</v>
       </c>
-      <c r="M214">
-        <v>1.615</v>
-      </c>
-      <c r="N214">
-        <v>5.5</v>
-      </c>
-      <c r="O214">
-        <v>3.8</v>
-      </c>
       <c r="P214">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="Q214">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>2.025</v>
+        <v>1.92</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.98</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U214">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X214">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1.025</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20042,7 +20042,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6808515</v>
+        <v>6808514</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20054,73 +20054,73 @@
         <v>45262.5</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I220">
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K220">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L220">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M220">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N220">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O220">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P220">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q220">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S220">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T220">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
+        <v>1.825</v>
+      </c>
+      <c r="V220">
         <v>2.025</v>
       </c>
-      <c r="V220">
-        <v>1.825</v>
-      </c>
       <c r="W220">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z220">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB220">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC220">
         <v>-1</v>
@@ -20220,7 +20220,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6808514</v>
+        <v>6808515</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20232,73 +20232,73 @@
         <v>45262.5</v>
       </c>
       <c r="F222" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G222" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I222">
         <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K222">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M222">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N222">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O222">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P222">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q222">
+        <v>-0.75</v>
+      </c>
+      <c r="R222">
+        <v>1.8</v>
+      </c>
+      <c r="S222">
+        <v>2.05</v>
+      </c>
+      <c r="T222">
+        <v>3</v>
+      </c>
+      <c r="U222">
+        <v>2.025</v>
+      </c>
+      <c r="V222">
+        <v>1.825</v>
+      </c>
+      <c r="W222">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
+        <v>-1</v>
+      </c>
+      <c r="Z222">
+        <v>0.4</v>
+      </c>
+      <c r="AA222">
         <v>-0.5</v>
       </c>
-      <c r="R222">
-        <v>2.025</v>
-      </c>
-      <c r="S222">
-        <v>1.825</v>
-      </c>
-      <c r="T222">
-        <v>2.25</v>
-      </c>
-      <c r="U222">
-        <v>1.825</v>
-      </c>
-      <c r="V222">
-        <v>2.025</v>
-      </c>
-      <c r="W222">
-        <v>-1</v>
-      </c>
-      <c r="X222">
-        <v>-1</v>
-      </c>
-      <c r="Y222">
-        <v>2.6</v>
-      </c>
-      <c r="Z222">
-        <v>-1</v>
-      </c>
-      <c r="AA222">
-        <v>0.825</v>
-      </c>
       <c r="AB222">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -21288,7 +21288,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6808251</v>
+        <v>6808252</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21300,56 +21300,56 @@
         <v>45269.5</v>
       </c>
       <c r="F234" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G234" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H234">
         <v>0</v>
       </c>
       <c r="I234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
         <v>53</v>
       </c>
       <c r="K234">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L234">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M234">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N234">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O234">
+        <v>3.2</v>
+      </c>
+      <c r="P234">
         <v>3.6</v>
-      </c>
-      <c r="P234">
-        <v>3.1</v>
       </c>
       <c r="Q234">
         <v>-0.25</v>
       </c>
       <c r="R234">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S234">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="T234">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
+        <v>2</v>
+      </c>
+      <c r="V234">
         <v>1.85</v>
       </c>
-      <c r="V234">
-        <v>2</v>
-      </c>
       <c r="W234">
         <v>-1</v>
       </c>
@@ -21357,19 +21357,19 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.8999999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AB234">
         <v>-1</v>
       </c>
       <c r="AC234">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21377,7 +21377,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6809003</v>
+        <v>6808251</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21389,76 +21389,76 @@
         <v>45269.5</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G235" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H235">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K235">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="L235">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M235">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="N235">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O235">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P235">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="Q235">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
+        <v>1.95</v>
+      </c>
+      <c r="S235">
         <v>1.9</v>
       </c>
-      <c r="S235">
-        <v>2</v>
-      </c>
       <c r="T235">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V235">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W235">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z235">
+        <v>-1</v>
+      </c>
+      <c r="AA235">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA235">
-        <v>-1</v>
-      </c>
       <c r="AB235">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21466,7 +21466,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6808252</v>
+        <v>6809003</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21478,76 +21478,76 @@
         <v>45269.5</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G236" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H236">
+        <v>4</v>
+      </c>
+      <c r="I236">
         <v>0</v>
       </c>
-      <c r="I236">
-        <v>1</v>
-      </c>
       <c r="J236" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K236">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L236">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M236">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N236">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O236">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P236">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R236">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S236">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T236">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U236">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V236">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA236">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC236">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6808542</v>
+        <v>6808541</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,56 +23169,56 @@
         <v>45276.5</v>
       </c>
       <c r="F255" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G255" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H255">
         <v>1</v>
       </c>
       <c r="I255">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J255" t="s">
         <v>53</v>
       </c>
       <c r="K255">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L255">
         <v>3.4</v>
       </c>
       <c r="M255">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N255">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="O255">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P255">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q255">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R255">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S255">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T255">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U255">
+        <v>1.825</v>
+      </c>
+      <c r="V255">
         <v>2.025</v>
       </c>
-      <c r="V255">
-        <v>1.825</v>
-      </c>
       <c r="W255">
         <v>-1</v>
       </c>
@@ -23226,19 +23226,19 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>1.15</v>
+        <v>1.75</v>
       </c>
       <c r="Z255">
         <v>-1</v>
       </c>
       <c r="AA255">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB255">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AC255">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6808541</v>
+        <v>6808542</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,56 +23258,56 @@
         <v>45276.5</v>
       </c>
       <c r="F256" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G256" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H256">
         <v>1</v>
       </c>
       <c r="I256">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J256" t="s">
         <v>53</v>
       </c>
       <c r="K256">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L256">
         <v>3.4</v>
       </c>
       <c r="M256">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N256">
+        <v>3.25</v>
+      </c>
+      <c r="O256">
+        <v>3.4</v>
+      </c>
+      <c r="P256">
+        <v>2.15</v>
+      </c>
+      <c r="Q256">
+        <v>0.25</v>
+      </c>
+      <c r="R256">
+        <v>1.975</v>
+      </c>
+      <c r="S256">
+        <v>1.875</v>
+      </c>
+      <c r="T256">
         <v>2.75</v>
       </c>
-      <c r="O256">
-        <v>3</v>
-      </c>
-      <c r="P256">
-        <v>2.75</v>
-      </c>
-      <c r="Q256">
-        <v>0</v>
-      </c>
-      <c r="R256">
-        <v>1.925</v>
-      </c>
-      <c r="S256">
-        <v>1.925</v>
-      </c>
-      <c r="T256">
-        <v>2</v>
-      </c>
       <c r="U256">
+        <v>2.025</v>
+      </c>
+      <c r="V256">
         <v>1.825</v>
       </c>
-      <c r="V256">
-        <v>2.025</v>
-      </c>
       <c r="W256">
         <v>-1</v>
       </c>
@@ -23315,19 +23315,19 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>1.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB256">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
       <c r="AC256">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23335,7 +23335,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6808998</v>
+        <v>6808540</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23347,76 +23347,76 @@
         <v>45276.5</v>
       </c>
       <c r="F257" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G257" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257" t="s">
+        <v>54</v>
+      </c>
+      <c r="K257">
+        <v>1.8</v>
+      </c>
+      <c r="L257">
+        <v>3.5</v>
+      </c>
+      <c r="M257">
         <v>4</v>
       </c>
-      <c r="I257">
-        <v>0</v>
-      </c>
-      <c r="J257" t="s">
-        <v>55</v>
-      </c>
-      <c r="K257">
-        <v>1.615</v>
-      </c>
-      <c r="L257">
-        <v>3.6</v>
-      </c>
-      <c r="M257">
-        <v>5</v>
-      </c>
       <c r="N257">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O257">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P257">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q257">
         <v>-0.75</v>
       </c>
       <c r="R257">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S257">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T257">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U257">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V257">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W257">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X257">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB257">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23424,7 +23424,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6808999</v>
+        <v>6808998</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23436,34 +23436,34 @@
         <v>45276.5</v>
       </c>
       <c r="F258" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G258" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H258">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I258">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J258" t="s">
         <v>55</v>
       </c>
       <c r="K258">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L258">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M258">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N258">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O258">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P258">
         <v>4.75</v>
@@ -23472,22 +23472,22 @@
         <v>-0.75</v>
       </c>
       <c r="R258">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S258">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T258">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U258">
+        <v>2</v>
+      </c>
+      <c r="V258">
         <v>1.85</v>
       </c>
-      <c r="V258">
-        <v>2</v>
-      </c>
       <c r="W258">
-        <v>0.7</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X258">
         <v>-1</v>
@@ -23496,13 +23496,13 @@
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA258">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC258">
         <v>-1</v>
@@ -23513,7 +23513,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6808540</v>
+        <v>6808999</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23525,19 +23525,19 @@
         <v>45276.5</v>
       </c>
       <c r="F259" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G259" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K259">
         <v>1.8</v>
@@ -23552,49 +23552,49 @@
         <v>1.7</v>
       </c>
       <c r="O259">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P259">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q259">
         <v>-0.75</v>
       </c>
       <c r="R259">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S259">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T259">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V259">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W259">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X259">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA259">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB259">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC259">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23602,7 +23602,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6808539</v>
+        <v>6808538</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23614,76 +23614,76 @@
         <v>45276.5</v>
       </c>
       <c r="F260" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G260" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K260">
+        <v>2</v>
+      </c>
+      <c r="L260">
+        <v>3.25</v>
+      </c>
+      <c r="M260">
+        <v>3.5</v>
+      </c>
+      <c r="N260">
         <v>1.727</v>
       </c>
-      <c r="L260">
-        <v>3.4</v>
-      </c>
-      <c r="M260">
-        <v>4.5</v>
-      </c>
-      <c r="N260">
-        <v>1.533</v>
-      </c>
       <c r="O260">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P260">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q260">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R260">
+        <v>1.95</v>
+      </c>
+      <c r="S260">
         <v>1.9</v>
       </c>
-      <c r="S260">
-        <v>1.95</v>
-      </c>
       <c r="T260">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U260">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V260">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X260">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA260">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC260">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23691,7 +23691,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6808538</v>
+        <v>6808537</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23703,13 +23703,13 @@
         <v>45276.5</v>
       </c>
       <c r="F261" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G261" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H261">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I261">
         <v>0</v>
@@ -23718,44 +23718,44 @@
         <v>55</v>
       </c>
       <c r="K261">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L261">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M261">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N261">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="O261">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P261">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q261">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R261">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S261">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T261">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U261">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V261">
+        <v>2</v>
+      </c>
+      <c r="W261">
         <v>1.8</v>
       </c>
-      <c r="W261">
-        <v>0.7270000000000001</v>
-      </c>
       <c r="X261">
         <v>-1</v>
       </c>
@@ -23763,16 +23763,16 @@
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA261">
         <v>-1</v>
       </c>
       <c r="AB261">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23780,7 +23780,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6808537</v>
+        <v>6808256</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23792,58 +23792,58 @@
         <v>45276.5</v>
       </c>
       <c r="F262" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G262" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H262">
+        <v>2</v>
+      </c>
+      <c r="I262">
         <v>1</v>
-      </c>
-      <c r="I262">
-        <v>0</v>
       </c>
       <c r="J262" t="s">
         <v>55</v>
       </c>
       <c r="K262">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L262">
         <v>3.4</v>
       </c>
       <c r="M262">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N262">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O262">
         <v>3.3</v>
       </c>
       <c r="P262">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q262">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S262">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T262">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U262">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V262">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W262">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="X262">
         <v>-1</v>
@@ -23852,16 +23852,16 @@
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA262">
         <v>-1</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC262">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23869,7 +23869,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6808256</v>
+        <v>6808539</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23881,76 +23881,76 @@
         <v>45276.5</v>
       </c>
       <c r="F263" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G263" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263">
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K263">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L263">
         <v>3.4</v>
       </c>
       <c r="M263">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="N263">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O263">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P263">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q263">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R263">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S263">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T263">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U263">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V263">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W263">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB263">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24136,7 +24136,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6808545</v>
+        <v>6808551</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24148,46 +24148,46 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F266" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G266" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J266" t="s">
         <v>55</v>
       </c>
       <c r="K266">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L266">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M266">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N266">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O266">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P266">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q266">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R266">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S266">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T266">
         <v>2.25</v>
@@ -24199,7 +24199,7 @@
         <v>2.025</v>
       </c>
       <c r="W266">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="X266">
         <v>-1</v>
@@ -24208,7 +24208,7 @@
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA266">
         <v>-1</v>
@@ -24225,7 +24225,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6808551</v>
+        <v>6808545</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24237,46 +24237,46 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F267" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G267" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J267" t="s">
         <v>55</v>
       </c>
       <c r="K267">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L267">
+        <v>3.3</v>
+      </c>
+      <c r="M267">
+        <v>2.75</v>
+      </c>
+      <c r="N267">
+        <v>2.75</v>
+      </c>
+      <c r="O267">
         <v>3.4</v>
       </c>
-      <c r="M267">
-        <v>3.4</v>
-      </c>
-      <c r="N267">
-        <v>2</v>
-      </c>
-      <c r="O267">
-        <v>3.6</v>
-      </c>
       <c r="P267">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q267">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R267">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S267">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T267">
         <v>2.25</v>
@@ -24288,7 +24288,7 @@
         <v>2.025</v>
       </c>
       <c r="W267">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="X267">
         <v>-1</v>
@@ -24297,7 +24297,7 @@
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA267">
         <v>-1</v>
@@ -24581,7 +24581,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6808548</v>
+        <v>6808544</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24593,76 +24593,76 @@
         <v>45283.5</v>
       </c>
       <c r="F271" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G271" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271" t="s">
+        <v>53</v>
+      </c>
+      <c r="K271">
+        <v>2.375</v>
+      </c>
+      <c r="L271">
+        <v>3.4</v>
+      </c>
+      <c r="M271">
+        <v>2.875</v>
+      </c>
+      <c r="N271">
+        <v>2.6</v>
+      </c>
+      <c r="O271">
+        <v>3.4</v>
+      </c>
+      <c r="P271">
+        <v>2.625</v>
+      </c>
+      <c r="Q271">
         <v>0</v>
       </c>
-      <c r="J271" t="s">
-        <v>55</v>
-      </c>
-      <c r="K271">
-        <v>1.666</v>
-      </c>
-      <c r="L271">
-        <v>3.75</v>
-      </c>
-      <c r="M271">
-        <v>5</v>
-      </c>
-      <c r="N271">
-        <v>1.571</v>
-      </c>
-      <c r="O271">
-        <v>4</v>
-      </c>
-      <c r="P271">
-        <v>6</v>
-      </c>
-      <c r="Q271">
-        <v>-1</v>
-      </c>
       <c r="R271">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="S271">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T271">
         <v>2.75</v>
       </c>
       <c r="U271">
+        <v>1.975</v>
+      </c>
+      <c r="V271">
         <v>1.875</v>
       </c>
-      <c r="V271">
-        <v>1.975</v>
-      </c>
       <c r="W271">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X271">
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z271">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB271">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC271">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24670,7 +24670,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6808544</v>
+        <v>6808550</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24682,55 +24682,55 @@
         <v>45283.5</v>
       </c>
       <c r="F272" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G272" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J272" t="s">
         <v>53</v>
       </c>
       <c r="K272">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L272">
         <v>3.4</v>
       </c>
       <c r="M272">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N272">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="O272">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P272">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q272">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R272">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S272">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T272">
         <v>2.75</v>
       </c>
       <c r="U272">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V272">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W272">
         <v>-1</v>
@@ -24739,16 +24739,16 @@
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>1.625</v>
+        <v>3.2</v>
       </c>
       <c r="Z272">
         <v>-1</v>
       </c>
       <c r="AA272">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB272">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AC272">
         <v>-0.5</v>
@@ -24759,7 +24759,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6808550</v>
+        <v>6808548</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24771,76 +24771,76 @@
         <v>45283.5</v>
       </c>
       <c r="F273" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G273" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H273">
+        <v>2</v>
+      </c>
+      <c r="I273">
         <v>0</v>
       </c>
-      <c r="I273">
-        <v>3</v>
-      </c>
       <c r="J273" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K273">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L273">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M273">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N273">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="O273">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P273">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q273">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R273">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S273">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="T273">
         <v>2.75</v>
       </c>
       <c r="U273">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V273">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W273">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z273">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA273">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB273">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC273">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -25382,7 +25382,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6808995</v>
+        <v>6808553</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25394,40 +25394,40 @@
         <v>45286.5</v>
       </c>
       <c r="F280" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G280" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I280">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K280">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L280">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M280">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N280">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O280">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P280">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q280">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R280">
         <v>1.925</v>
@@ -25436,34 +25436,34 @@
         <v>1.925</v>
       </c>
       <c r="T280">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U280">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V280">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W280">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X280">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA280">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AC280">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25471,7 +25471,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6808994</v>
+        <v>6808995</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25483,73 +25483,73 @@
         <v>45286.5</v>
       </c>
       <c r="F281" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G281" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H281">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J281" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K281">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L281">
+        <v>3.4</v>
+      </c>
+      <c r="M281">
+        <v>3.4</v>
+      </c>
+      <c r="N281">
+        <v>1.95</v>
+      </c>
+      <c r="O281">
+        <v>3.8</v>
+      </c>
+      <c r="P281">
         <v>4</v>
       </c>
-      <c r="M281">
-        <v>5.5</v>
-      </c>
-      <c r="N281">
-        <v>1.444</v>
-      </c>
-      <c r="O281">
-        <v>5</v>
-      </c>
-      <c r="P281">
-        <v>6.5</v>
-      </c>
       <c r="Q281">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R281">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S281">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T281">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U281">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V281">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W281">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X281">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB281">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC281">
         <v>-1</v>
@@ -25560,7 +25560,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6808559</v>
+        <v>6808994</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25572,13 +25572,13 @@
         <v>45286.5</v>
       </c>
       <c r="F282" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G282" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I282">
         <v>0</v>
@@ -25587,43 +25587,43 @@
         <v>55</v>
       </c>
       <c r="K282">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="L282">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M282">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N282">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="O282">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P282">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q282">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R282">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S282">
         <v>1.95</v>
       </c>
       <c r="T282">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U282">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V282">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W282">
-        <v>0.909</v>
+        <v>0.444</v>
       </c>
       <c r="X282">
         <v>-1</v>
@@ -25632,16 +25632,16 @@
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA282">
         <v>-1</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC282">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25649,7 +25649,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6808259</v>
+        <v>6808559</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25661,13 +25661,13 @@
         <v>45286.5</v>
       </c>
       <c r="F283" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G283" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283">
         <v>0</v>
@@ -25685,34 +25685,34 @@
         <v>4.333</v>
       </c>
       <c r="N283">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O283">
         <v>3.6</v>
       </c>
       <c r="P283">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q283">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R283">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S283">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T283">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U283">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V283">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W283">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X283">
         <v>-1</v>
@@ -25721,16 +25721,16 @@
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA283">
         <v>-1</v>
       </c>
       <c r="AB283">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -26005,7 +26005,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6808553</v>
+        <v>6808259</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26017,13 +26017,13 @@
         <v>45286.5</v>
       </c>
       <c r="F287" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G287" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H287">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287">
         <v>0</v>
@@ -26032,43 +26032,43 @@
         <v>55</v>
       </c>
       <c r="K287">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L287">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M287">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N287">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O287">
         <v>3.6</v>
       </c>
       <c r="P287">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q287">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R287">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S287">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T287">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U287">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V287">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W287">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="X287">
         <v>-1</v>
@@ -26077,16 +26077,16 @@
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA287">
         <v>-1</v>
       </c>
       <c r="AB287">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC287">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26450,7 +26450,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6808261</v>
+        <v>6808561</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26462,76 +26462,76 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F292" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G292" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H292">
         <v>0</v>
       </c>
       <c r="I292">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J292" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K292">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="L292">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M292">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="N292">
+        <v>6</v>
+      </c>
+      <c r="O292">
+        <v>4</v>
+      </c>
+      <c r="P292">
         <v>1.571</v>
       </c>
-      <c r="O292">
-        <v>4.2</v>
-      </c>
-      <c r="P292">
-        <v>5.75</v>
-      </c>
       <c r="Q292">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R292">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="S292">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="T292">
         <v>2.5</v>
       </c>
       <c r="U292">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V292">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W292">
         <v>-1</v>
       </c>
       <c r="X292">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AB292">
         <v>-1</v>
       </c>
       <c r="AC292">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26539,7 +26539,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6808262</v>
+        <v>6808261</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26551,49 +26551,49 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F293" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G293" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H293">
         <v>0</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K293">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L293">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M293">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N293">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O293">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P293">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q293">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R293">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S293">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T293">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U293">
         <v>1.95</v>
@@ -26605,16 +26605,16 @@
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y293">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB293">
         <v>-1</v>
@@ -26628,7 +26628,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6808560</v>
+        <v>6808262</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26640,76 +26640,76 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F294" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G294" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H294">
         <v>0</v>
       </c>
       <c r="I294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K294">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L294">
         <v>3.2</v>
       </c>
       <c r="M294">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N294">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O294">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P294">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q294">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R294">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S294">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T294">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U294">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V294">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W294">
         <v>-1</v>
       </c>
       <c r="X294">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z294">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB294">
         <v>-1</v>
       </c>
       <c r="AC294">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26717,7 +26717,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6808561</v>
+        <v>6808560</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26729,46 +26729,46 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F295" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G295" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H295">
         <v>0</v>
       </c>
       <c r="I295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K295">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="L295">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M295">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="N295">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="O295">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P295">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="Q295">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R295">
-        <v>1.89</v>
+        <v>1.775</v>
       </c>
       <c r="S295">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="T295">
         <v>2.5</v>
@@ -26783,16 +26783,16 @@
         <v>-1</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y295">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA295">
-        <v>1.01</v>
+        <v>-0.5</v>
       </c>
       <c r="AB295">
         <v>-1</v>
@@ -26984,7 +26984,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6808567</v>
+        <v>6808565</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26996,76 +26996,76 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F298" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G298" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H298">
         <v>1</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K298">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L298">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M298">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N298">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O298">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P298">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q298">
         <v>-0.25</v>
       </c>
       <c r="R298">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S298">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T298">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U298">
+        <v>1.875</v>
+      </c>
+      <c r="V298">
         <v>1.975</v>
       </c>
-      <c r="V298">
-        <v>1.875</v>
-      </c>
       <c r="W298">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X298">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA298">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27162,7 +27162,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6808565</v>
+        <v>6808567</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27174,76 +27174,76 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F300" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G300" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H300">
         <v>1</v>
       </c>
       <c r="I300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K300">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L300">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M300">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N300">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O300">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P300">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q300">
         <v>-0.25</v>
       </c>
       <c r="R300">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S300">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T300">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U300">
+        <v>1.975</v>
+      </c>
+      <c r="V300">
         <v>1.875</v>
       </c>
-      <c r="V300">
-        <v>1.975</v>
-      </c>
       <c r="W300">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X300">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB300">
         <v>-1</v>
       </c>
       <c r="AC300">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27429,7 +27429,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6808574</v>
+        <v>6808264</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27441,76 +27441,76 @@
         <v>45292.5</v>
       </c>
       <c r="F303" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G303" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J303" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K303">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L303">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M303">
+        <v>2.2</v>
+      </c>
+      <c r="N303">
         <v>3</v>
       </c>
-      <c r="N303">
-        <v>2.45</v>
-      </c>
       <c r="O303">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P303">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q303">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R303">
-        <v>2.07</v>
+        <v>1.825</v>
       </c>
       <c r="S303">
-        <v>1.83</v>
+        <v>2.025</v>
       </c>
       <c r="T303">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U303">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V303">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W303">
         <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y303">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA303">
-        <v>0.8300000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB303">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27518,7 +27518,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6808264</v>
+        <v>6808569</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27530,76 +27530,76 @@
         <v>45292.5</v>
       </c>
       <c r="F304" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G304" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J304" t="s">
         <v>54</v>
       </c>
       <c r="K304">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="L304">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M304">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="N304">
+        <v>1.5</v>
+      </c>
+      <c r="O304">
+        <v>4.5</v>
+      </c>
+      <c r="P304">
+        <v>6</v>
+      </c>
+      <c r="Q304">
+        <v>-1</v>
+      </c>
+      <c r="R304">
+        <v>1.8</v>
+      </c>
+      <c r="S304">
+        <v>2.05</v>
+      </c>
+      <c r="T304">
         <v>3</v>
       </c>
-      <c r="O304">
-        <v>3.25</v>
-      </c>
-      <c r="P304">
-        <v>2.375</v>
-      </c>
-      <c r="Q304">
-        <v>0.25</v>
-      </c>
-      <c r="R304">
-        <v>1.825</v>
-      </c>
-      <c r="S304">
-        <v>2.025</v>
-      </c>
-      <c r="T304">
-        <v>2.5</v>
-      </c>
       <c r="U304">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V304">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W304">
         <v>-1</v>
       </c>
       <c r="X304">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB304">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC304">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -28230,7 +28230,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6808569</v>
+        <v>6808574</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28242,73 +28242,73 @@
         <v>45292.5</v>
       </c>
       <c r="F312" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G312" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312">
         <v>2</v>
       </c>
       <c r="J312" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K312">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L312">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M312">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N312">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O312">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P312">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="Q312">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R312">
-        <v>1.8</v>
+        <v>2.07</v>
       </c>
       <c r="S312">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="T312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U312">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V312">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W312">
         <v>-1</v>
       </c>
       <c r="X312">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y312">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z312">
         <v>-1</v>
       </c>
       <c r="AA312">
-        <v>1.05</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB312">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC312">
         <v>-1</v>
@@ -30900,7 +30900,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7700508</v>
+        <v>7700507</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30912,40 +30912,40 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F342" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G342" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H342">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J342" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K342">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="L342">
+        <v>3.6</v>
+      </c>
+      <c r="M342">
+        <v>4.333</v>
+      </c>
+      <c r="N342">
+        <v>1.727</v>
+      </c>
+      <c r="O342">
+        <v>3.6</v>
+      </c>
+      <c r="P342">
         <v>5</v>
       </c>
-      <c r="M342">
-        <v>9</v>
-      </c>
-      <c r="N342">
-        <v>1.363</v>
-      </c>
-      <c r="O342">
-        <v>5.25</v>
-      </c>
-      <c r="P342">
-        <v>8</v>
-      </c>
       <c r="Q342">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R342">
         <v>1.975</v>
@@ -30954,31 +30954,31 @@
         <v>1.875</v>
       </c>
       <c r="T342">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U342">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V342">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W342">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X342">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y342">
         <v>-1</v>
       </c>
       <c r="Z342">
+        <v>-1</v>
+      </c>
+      <c r="AA342">
+        <v>0.875</v>
+      </c>
+      <c r="AB342">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA342">
-        <v>-1</v>
-      </c>
-      <c r="AB342">
-        <v>0.925</v>
       </c>
       <c r="AC342">
         <v>-1</v>
@@ -30989,7 +30989,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>7700507</v>
+        <v>7700508</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -31001,40 +31001,40 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F343" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G343" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J343" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K343">
-        <v>1.75</v>
+        <v>1.333</v>
       </c>
       <c r="L343">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M343">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="N343">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="O343">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P343">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q343">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R343">
         <v>1.975</v>
@@ -31043,31 +31043,31 @@
         <v>1.875</v>
       </c>
       <c r="T343">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U343">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V343">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W343">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X343">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y343">
         <v>-1</v>
       </c>
       <c r="Z343">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA343">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB343">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC343">
         <v>-1</v>
@@ -33748,7 +33748,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>7060916</v>
+        <v>7060922</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33760,58 +33760,58 @@
         <v>45335.70833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G374" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H374">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J374" t="s">
         <v>55</v>
       </c>
       <c r="K374">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="L374">
         <v>3.75</v>
       </c>
       <c r="M374">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="N374">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="O374">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P374">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q374">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R374">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S374">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T374">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U374">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V374">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W374">
-        <v>3.333</v>
+        <v>0.7</v>
       </c>
       <c r="X374">
         <v>-1</v>
@@ -33820,16 +33820,16 @@
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA374">
         <v>-1</v>
       </c>
       <c r="AB374">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC374">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33837,7 +33837,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>7060922</v>
+        <v>7060916</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33849,58 +33849,58 @@
         <v>45335.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G375" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J375" t="s">
         <v>55</v>
       </c>
       <c r="K375">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="L375">
         <v>3.75</v>
       </c>
       <c r="M375">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="N375">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="O375">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P375">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q375">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R375">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S375">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T375">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U375">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V375">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W375">
-        <v>0.7</v>
+        <v>3.333</v>
       </c>
       <c r="X375">
         <v>-1</v>
@@ -33909,16 +33909,16 @@
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA375">
         <v>-1</v>
       </c>
       <c r="AB375">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC375">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33926,7 +33926,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>7060921</v>
+        <v>7060919</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33938,16 +33938,16 @@
         <v>45336.69791666666</v>
       </c>
       <c r="F376" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G376" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J376" t="s">
         <v>55</v>
@@ -33962,10 +33962,10 @@
         <v>2</v>
       </c>
       <c r="N376">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O376">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P376">
         <v>2.25</v>
@@ -33974,22 +33974,22 @@
         <v>0.25</v>
       </c>
       <c r="R376">
+        <v>1.99</v>
+      </c>
+      <c r="S376">
+        <v>1.91</v>
+      </c>
+      <c r="T376">
+        <v>2.25</v>
+      </c>
+      <c r="U376">
         <v>1.9</v>
       </c>
-      <c r="S376">
+      <c r="V376">
         <v>1.95</v>
       </c>
-      <c r="T376">
-        <v>2.5</v>
-      </c>
-      <c r="U376">
-        <v>1.925</v>
-      </c>
-      <c r="V376">
-        <v>1.925</v>
-      </c>
       <c r="W376">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="X376">
         <v>-1</v>
@@ -33998,16 +33998,16 @@
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0.8999999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AA376">
         <v>-1</v>
       </c>
       <c r="AB376">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC376">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34015,7 +34015,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7060919</v>
+        <v>7080368</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34027,10 +34027,10 @@
         <v>45336.69791666666</v>
       </c>
       <c r="F377" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G377" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H377">
         <v>1</v>
@@ -34042,43 +34042,43 @@
         <v>55</v>
       </c>
       <c r="K377">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L377">
+        <v>3.5</v>
+      </c>
+      <c r="M377">
+        <v>3.6</v>
+      </c>
+      <c r="N377">
+        <v>2.15</v>
+      </c>
+      <c r="O377">
+        <v>3.3</v>
+      </c>
+      <c r="P377">
         <v>3.4</v>
       </c>
-      <c r="M377">
-        <v>2</v>
-      </c>
-      <c r="N377">
-        <v>3.4</v>
-      </c>
-      <c r="O377">
-        <v>3.25</v>
-      </c>
-      <c r="P377">
-        <v>2.25</v>
-      </c>
       <c r="Q377">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R377">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="S377">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T377">
         <v>2.25</v>
       </c>
       <c r="U377">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V377">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W377">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="X377">
         <v>-1</v>
@@ -34087,7 +34087,7 @@
         <v>-1</v>
       </c>
       <c r="Z377">
-        <v>0.99</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA377">
         <v>-1</v>
@@ -34096,7 +34096,7 @@
         <v>-1</v>
       </c>
       <c r="AC377">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34104,7 +34104,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7080368</v>
+        <v>7060921</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34116,40 +34116,40 @@
         <v>45336.69791666666</v>
       </c>
       <c r="F378" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G378" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H378">
+        <v>2</v>
+      </c>
+      <c r="I378">
         <v>1</v>
-      </c>
-      <c r="I378">
-        <v>0</v>
       </c>
       <c r="J378" t="s">
         <v>55</v>
       </c>
       <c r="K378">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L378">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M378">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N378">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="O378">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P378">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q378">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R378">
         <v>1.9</v>
@@ -34158,16 +34158,16 @@
         <v>1.95</v>
       </c>
       <c r="T378">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U378">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V378">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W378">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="X378">
         <v>-1</v>
@@ -34182,10 +34182,10 @@
         <v>-1</v>
       </c>
       <c r="AB378">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC378">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34638,7 +34638,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7091998</v>
+        <v>7091999</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34650,56 +34650,56 @@
         <v>45339.5</v>
       </c>
       <c r="F384" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G384" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H384">
+        <v>0</v>
+      </c>
+      <c r="I384">
         <v>1</v>
-      </c>
-      <c r="I384">
-        <v>2</v>
       </c>
       <c r="J384" t="s">
         <v>53</v>
       </c>
       <c r="K384">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L384">
         <v>3.4</v>
       </c>
       <c r="M384">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N384">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="O384">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P384">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q384">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R384">
+        <v>1.9</v>
+      </c>
+      <c r="S384">
+        <v>1.95</v>
+      </c>
+      <c r="T384">
+        <v>2.25</v>
+      </c>
+      <c r="U384">
         <v>1.925</v>
       </c>
-      <c r="S384">
+      <c r="V384">
         <v>1.925</v>
       </c>
-      <c r="T384">
-        <v>2.5</v>
-      </c>
-      <c r="U384">
-        <v>2.025</v>
-      </c>
-      <c r="V384">
-        <v>1.825</v>
-      </c>
       <c r="W384">
         <v>-1</v>
       </c>
@@ -34707,19 +34707,19 @@
         <v>-1</v>
       </c>
       <c r="Y384">
-        <v>1.625</v>
+        <v>0.95</v>
       </c>
       <c r="Z384">
         <v>-1</v>
       </c>
       <c r="AA384">
+        <v>0.95</v>
+      </c>
+      <c r="AB384">
+        <v>-1</v>
+      </c>
+      <c r="AC384">
         <v>0.925</v>
-      </c>
-      <c r="AB384">
-        <v>1.025</v>
-      </c>
-      <c r="AC384">
-        <v>-1</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -34727,7 +34727,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7091999</v>
+        <v>7091998</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34739,55 +34739,55 @@
         <v>45339.5</v>
       </c>
       <c r="F385" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G385" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I385">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J385" t="s">
         <v>53</v>
       </c>
       <c r="K385">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L385">
         <v>3.4</v>
       </c>
       <c r="M385">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N385">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="O385">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P385">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="Q385">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R385">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S385">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T385">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U385">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V385">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W385">
         <v>-1</v>
@@ -34796,19 +34796,19 @@
         <v>-1</v>
       </c>
       <c r="Y385">
-        <v>0.95</v>
+        <v>1.625</v>
       </c>
       <c r="Z385">
         <v>-1</v>
       </c>
       <c r="AA385">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB385">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC385">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -36507,7 +36507,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>7141293</v>
+        <v>7141295</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36519,76 +36519,76 @@
         <v>45346.5</v>
       </c>
       <c r="F405" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G405" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H405">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J405" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K405">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L405">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M405">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N405">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="O405">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P405">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q405">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R405">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S405">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T405">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U405">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V405">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W405">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X405">
         <v>-1</v>
       </c>
       <c r="Y405">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z405">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA405">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB405">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC405">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36596,7 +36596,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>7141295</v>
+        <v>7141296</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36608,76 +36608,76 @@
         <v>45346.5</v>
       </c>
       <c r="F406" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G406" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H406">
+        <v>2</v>
+      </c>
+      <c r="I406">
+        <v>1</v>
+      </c>
+      <c r="J406" t="s">
+        <v>55</v>
+      </c>
+      <c r="K406">
+        <v>2.375</v>
+      </c>
+      <c r="L406">
+        <v>3.4</v>
+      </c>
+      <c r="M406">
+        <v>2.875</v>
+      </c>
+      <c r="N406">
+        <v>2.7</v>
+      </c>
+      <c r="O406">
+        <v>3.3</v>
+      </c>
+      <c r="P406">
+        <v>2.7</v>
+      </c>
+      <c r="Q406">
         <v>0</v>
       </c>
-      <c r="I406">
-        <v>2</v>
-      </c>
-      <c r="J406" t="s">
-        <v>53</v>
-      </c>
-      <c r="K406">
-        <v>1.571</v>
-      </c>
-      <c r="L406">
-        <v>4</v>
-      </c>
-      <c r="M406">
-        <v>5.5</v>
-      </c>
-      <c r="N406">
-        <v>1.444</v>
-      </c>
-      <c r="O406">
-        <v>4.75</v>
-      </c>
-      <c r="P406">
-        <v>6.5</v>
-      </c>
-      <c r="Q406">
-        <v>-1.25</v>
-      </c>
       <c r="R406">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S406">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T406">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U406">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V406">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W406">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X406">
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z406">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA406">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC406">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36685,7 +36685,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>7141296</v>
+        <v>7128230</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36697,40 +36697,40 @@
         <v>45346.5</v>
       </c>
       <c r="F407" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G407" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J407" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K407">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L407">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M407">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N407">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O407">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P407">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="Q407">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R407">
         <v>1.925</v>
@@ -36739,34 +36739,34 @@
         <v>1.925</v>
       </c>
       <c r="T407">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U407">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V407">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W407">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X407">
         <v>-1</v>
       </c>
       <c r="Y407">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z407">
+        <v>-1</v>
+      </c>
+      <c r="AA407">
         <v>0.925</v>
       </c>
-      <c r="AA407">
-        <v>-1</v>
-      </c>
       <c r="AB407">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AC407">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36774,7 +36774,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>7128230</v>
+        <v>7141293</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36786,76 +36786,76 @@
         <v>45346.5</v>
       </c>
       <c r="F408" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G408" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H408">
+        <v>3</v>
+      </c>
+      <c r="I408">
         <v>1</v>
       </c>
-      <c r="I408">
-        <v>2</v>
-      </c>
       <c r="J408" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K408">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L408">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M408">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N408">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="O408">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P408">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q408">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R408">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S408">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T408">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U408">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V408">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W408">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z408">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA408">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB408">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC408">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -37486,7 +37486,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>7222372</v>
+        <v>7157943</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37498,19 +37498,19 @@
         <v>45353.5</v>
       </c>
       <c r="F416" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G416" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416">
         <v>0</v>
       </c>
       <c r="J416" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K416">
         <v>2.8</v>
@@ -37522,52 +37522,52 @@
         <v>2.5</v>
       </c>
       <c r="N416">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O416">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P416">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="Q416">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R416">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S416">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T416">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U416">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V416">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W416">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X416">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y416">
         <v>-1</v>
       </c>
       <c r="Z416">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
       <c r="AA416">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB416">
         <v>-1</v>
       </c>
       <c r="AC416">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -37575,7 +37575,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>7157943</v>
+        <v>7157942</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37587,76 +37587,76 @@
         <v>45353.5</v>
       </c>
       <c r="F417" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G417" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H417">
         <v>0</v>
       </c>
       <c r="I417">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J417" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K417">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="L417">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M417">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N417">
+        <v>4</v>
+      </c>
+      <c r="O417">
+        <v>3.8</v>
+      </c>
+      <c r="P417">
+        <v>1.8</v>
+      </c>
+      <c r="Q417">
+        <v>0.5</v>
+      </c>
+      <c r="R417">
+        <v>2.06</v>
+      </c>
+      <c r="S417">
+        <v>1.84</v>
+      </c>
+      <c r="T417">
         <v>3</v>
       </c>
-      <c r="O417">
-        <v>3.2</v>
-      </c>
-      <c r="P417">
-        <v>2.45</v>
-      </c>
-      <c r="Q417">
-        <v>0.25</v>
-      </c>
-      <c r="R417">
-        <v>1.775</v>
-      </c>
-      <c r="S417">
-        <v>2.1</v>
-      </c>
-      <c r="T417">
-        <v>2.25</v>
-      </c>
       <c r="U417">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V417">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W417">
         <v>-1</v>
       </c>
       <c r="X417">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y417">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z417">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA417">
-        <v>-0.5</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB417">
         <v>-1</v>
       </c>
       <c r="AC417">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="418" spans="1:29">
@@ -37664,7 +37664,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>7157942</v>
+        <v>7222372</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37676,76 +37676,76 @@
         <v>45353.5</v>
       </c>
       <c r="F418" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G418" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H418">
+        <v>2</v>
+      </c>
+      <c r="I418">
         <v>0</v>
       </c>
-      <c r="I418">
-        <v>2</v>
-      </c>
       <c r="J418" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K418">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="L418">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M418">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N418">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O418">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P418">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q418">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R418">
-        <v>2.06</v>
+        <v>2.025</v>
       </c>
       <c r="S418">
-        <v>1.84</v>
+        <v>1.825</v>
       </c>
       <c r="T418">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U418">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V418">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W418">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X418">
         <v>-1</v>
       </c>
       <c r="Y418">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z418">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA418">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB418">
         <v>-1</v>
       </c>
       <c r="AC418">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -38109,7 +38109,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7222374</v>
+        <v>7219376</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38121,76 +38121,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F423" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G423" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I423">
         <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K423">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="L423">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M423">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="N423">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="O423">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P423">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q423">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R423">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S423">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T423">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U423">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V423">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W423">
         <v>-1</v>
       </c>
       <c r="X423">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y423">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z423">
         <v>-1</v>
       </c>
       <c r="AA423">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB423">
         <v>-1</v>
       </c>
       <c r="AC423">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38198,7 +38198,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7219376</v>
+        <v>7222374</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,76 +38210,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F424" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G424" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424">
         <v>1</v>
       </c>
       <c r="J424" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K424">
+        <v>4.5</v>
+      </c>
+      <c r="L424">
+        <v>3.75</v>
+      </c>
+      <c r="M424">
+        <v>1.75</v>
+      </c>
+      <c r="N424">
+        <v>4.2</v>
+      </c>
+      <c r="O424">
+        <v>3.8</v>
+      </c>
+      <c r="P424">
         <v>1.8</v>
       </c>
-      <c r="L424">
-        <v>3.6</v>
-      </c>
-      <c r="M424">
-        <v>4.333</v>
-      </c>
-      <c r="N424">
-        <v>1.65</v>
-      </c>
-      <c r="O424">
-        <v>4</v>
-      </c>
-      <c r="P424">
-        <v>5.25</v>
-      </c>
       <c r="Q424">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R424">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S424">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T424">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U424">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V424">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W424">
         <v>-1</v>
       </c>
       <c r="X424">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y424">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z424">
         <v>-1</v>
       </c>
       <c r="AA424">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB424">
         <v>-1</v>
       </c>
       <c r="AC424">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38554,7 +38554,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>7222378</v>
+        <v>7235957</v>
       </c>
       <c r="C428" t="s">
         <v>28</v>
@@ -38566,76 +38566,76 @@
         <v>45357.69791666666</v>
       </c>
       <c r="F428" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G428" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I428">
         <v>1</v>
       </c>
       <c r="J428" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K428">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L428">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M428">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N428">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O428">
         <v>3.4</v>
       </c>
       <c r="P428">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q428">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R428">
-        <v>1.875</v>
+        <v>1.84</v>
       </c>
       <c r="S428">
-        <v>1.975</v>
+        <v>2.06</v>
       </c>
       <c r="T428">
         <v>2.5</v>
       </c>
       <c r="U428">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V428">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W428">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X428">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y428">
         <v>-1</v>
       </c>
       <c r="Z428">
-        <v>-0.5</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA428">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB428">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC428">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="429" spans="1:29">
@@ -38643,7 +38643,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>7235957</v>
+        <v>7222378</v>
       </c>
       <c r="C429" t="s">
         <v>28</v>
@@ -38655,76 +38655,76 @@
         <v>45357.69791666666</v>
       </c>
       <c r="F429" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G429" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H429">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I429">
         <v>1</v>
       </c>
       <c r="J429" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K429">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L429">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M429">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N429">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O429">
         <v>3.4</v>
       </c>
       <c r="P429">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q429">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R429">
-        <v>1.84</v>
+        <v>1.875</v>
       </c>
       <c r="S429">
-        <v>2.06</v>
+        <v>1.975</v>
       </c>
       <c r="T429">
         <v>2.5</v>
       </c>
       <c r="U429">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V429">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W429">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X429">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y429">
         <v>-1</v>
       </c>
       <c r="Z429">
-        <v>0.8400000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA429">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB429">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC429">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:29">
@@ -40156,7 +40156,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>7252103</v>
+        <v>7270108</v>
       </c>
       <c r="C446" t="s">
         <v>28</v>
@@ -40168,73 +40168,73 @@
         <v>45367.5</v>
       </c>
       <c r="F446" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G446" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H446">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I446">
+        <v>3</v>
+      </c>
+      <c r="J446" t="s">
+        <v>53</v>
+      </c>
+      <c r="K446">
+        <v>2.5</v>
+      </c>
+      <c r="L446">
+        <v>3.3</v>
+      </c>
+      <c r="M446">
+        <v>2.75</v>
+      </c>
+      <c r="N446">
+        <v>2.625</v>
+      </c>
+      <c r="O446">
+        <v>3.2</v>
+      </c>
+      <c r="P446">
+        <v>2.75</v>
+      </c>
+      <c r="Q446">
         <v>0</v>
       </c>
-      <c r="J446" t="s">
-        <v>55</v>
-      </c>
-      <c r="K446">
-        <v>1.5</v>
-      </c>
-      <c r="L446">
-        <v>4.1</v>
-      </c>
-      <c r="M446">
-        <v>6.5</v>
-      </c>
-      <c r="N446">
-        <v>1.6</v>
-      </c>
-      <c r="O446">
-        <v>4.2</v>
-      </c>
-      <c r="P446">
-        <v>5.5</v>
-      </c>
-      <c r="Q446">
-        <v>-1</v>
-      </c>
       <c r="R446">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="S446">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="T446">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U446">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V446">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W446">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X446">
         <v>-1</v>
       </c>
       <c r="Y446">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z446">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA446">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB446">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC446">
         <v>-1</v>
@@ -40245,7 +40245,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>7252102</v>
+        <v>7265115</v>
       </c>
       <c r="C447" t="s">
         <v>28</v>
@@ -40257,76 +40257,76 @@
         <v>45367.5</v>
       </c>
       <c r="F447" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G447" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447">
         <v>0</v>
       </c>
       <c r="J447" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K447">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L447">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M447">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N447">
         <v>1.8</v>
       </c>
       <c r="O447">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P447">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q447">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R447">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S447">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T447">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U447">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V447">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W447">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X447">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y447">
         <v>-1</v>
       </c>
       <c r="Z447">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA447">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB447">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC447">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="448" spans="1:29">
@@ -40334,7 +40334,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>7252100</v>
+        <v>7252103</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40346,76 +40346,76 @@
         <v>45367.5</v>
       </c>
       <c r="F448" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G448" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I448">
         <v>0</v>
       </c>
       <c r="J448" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K448">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L448">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="M448">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="N448">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="O448">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P448">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="Q448">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R448">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S448">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T448">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U448">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V448">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W448">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X448">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y448">
         <v>-1</v>
       </c>
       <c r="Z448">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA448">
         <v>-1</v>
       </c>
       <c r="AB448">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC448">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -40423,7 +40423,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>7252095</v>
+        <v>7252102</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40435,76 +40435,76 @@
         <v>45367.5</v>
       </c>
       <c r="F449" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G449" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H449">
+        <v>2</v>
+      </c>
+      <c r="I449">
         <v>0</v>
       </c>
-      <c r="I449">
-        <v>1</v>
-      </c>
       <c r="J449" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K449">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L449">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M449">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N449">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O449">
         <v>3.3</v>
       </c>
       <c r="P449">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q449">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R449">
-        <v>1.99</v>
+        <v>1.825</v>
       </c>
       <c r="S449">
-        <v>1.91</v>
+        <v>2.025</v>
       </c>
       <c r="T449">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U449">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V449">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W449">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X449">
         <v>-1</v>
       </c>
       <c r="Y449">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z449">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA449">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB449">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC449">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="450" spans="1:29">
@@ -40512,7 +40512,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>7248060</v>
+        <v>7252100</v>
       </c>
       <c r="C450" t="s">
         <v>28</v>
@@ -40524,76 +40524,76 @@
         <v>45367.5</v>
       </c>
       <c r="F450" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G450" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H450">
         <v>0</v>
       </c>
       <c r="I450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J450" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K450">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L450">
         <v>3.25</v>
       </c>
       <c r="M450">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="N450">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="O450">
         <v>3.25</v>
       </c>
       <c r="P450">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="Q450">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R450">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S450">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T450">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U450">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V450">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W450">
         <v>-1</v>
       </c>
       <c r="X450">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y450">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z450">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA450">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB450">
         <v>-1</v>
       </c>
       <c r="AC450">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="451" spans="1:29">
@@ -40601,7 +40601,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>7248059</v>
+        <v>7252095</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -40613,76 +40613,76 @@
         <v>45367.5</v>
       </c>
       <c r="F451" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G451" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H451">
         <v>0</v>
       </c>
       <c r="I451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J451" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K451">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L451">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M451">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N451">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O451">
+        <v>3.3</v>
+      </c>
+      <c r="P451">
         <v>3.2</v>
       </c>
-      <c r="P451">
-        <v>2.55</v>
-      </c>
       <c r="Q451">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R451">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="S451">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T451">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U451">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V451">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W451">
         <v>-1</v>
       </c>
       <c r="X451">
+        <v>-1</v>
+      </c>
+      <c r="Y451">
         <v>2.2</v>
       </c>
-      <c r="Y451">
-        <v>-1</v>
-      </c>
       <c r="Z451">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA451">
-        <v>-0</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB451">
         <v>-1</v>
       </c>
       <c r="AC451">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="452" spans="1:29">
@@ -40690,7 +40690,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>7265115</v>
+        <v>7248060</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40702,76 +40702,76 @@
         <v>45367.5</v>
       </c>
       <c r="F452" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G452" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H452">
         <v>0</v>
       </c>
       <c r="I452">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J452" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K452">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L452">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M452">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N452">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O452">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P452">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q452">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R452">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S452">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T452">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U452">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V452">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W452">
         <v>-1</v>
       </c>
       <c r="X452">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y452">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z452">
         <v>-1</v>
       </c>
       <c r="AA452">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB452">
         <v>-1</v>
       </c>
       <c r="AC452">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -40779,7 +40779,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>7270108</v>
+        <v>7248059</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40791,76 +40791,76 @@
         <v>45367.5</v>
       </c>
       <c r="F453" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G453" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H453">
         <v>0</v>
       </c>
       <c r="I453">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J453" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K453">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L453">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M453">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N453">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="O453">
         <v>3.2</v>
       </c>
       <c r="P453">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q453">
         <v>0</v>
       </c>
       <c r="R453">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="S453">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="T453">
         <v>2.25</v>
       </c>
       <c r="U453">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V453">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W453">
         <v>-1</v>
       </c>
       <c r="X453">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y453">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z453">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA453">
-        <v>1.01</v>
+        <v>-0</v>
       </c>
       <c r="AB453">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC453">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="454" spans="1:29">
@@ -41224,7 +41224,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>7278084</v>
+        <v>7280746</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41236,76 +41236,76 @@
         <v>45380.5</v>
       </c>
       <c r="F458" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G458" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I458">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J458" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K458">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L458">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M458">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N458">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O458">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P458">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q458">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R458">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S458">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T458">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="U458">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V458">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W458">
         <v>-1</v>
       </c>
       <c r="X458">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y458">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z458">
         <v>-1</v>
       </c>
       <c r="AA458">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB458">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC458">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="459" spans="1:29">
@@ -41313,7 +41313,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>7280746</v>
+        <v>7281205</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41325,76 +41325,76 @@
         <v>45380.5</v>
       </c>
       <c r="F459" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G459" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H459">
         <v>1</v>
       </c>
       <c r="I459">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J459" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K459">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="L459">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M459">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N459">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="O459">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P459">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q459">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R459">
+        <v>1.93</v>
+      </c>
+      <c r="S459">
+        <v>1.97</v>
+      </c>
+      <c r="T459">
+        <v>2.5</v>
+      </c>
+      <c r="U459">
         <v>1.825</v>
       </c>
-      <c r="S459">
+      <c r="V459">
         <v>2.025</v>
       </c>
-      <c r="T459">
-        <v>3.5</v>
-      </c>
-      <c r="U459">
-        <v>1.975</v>
-      </c>
-      <c r="V459">
-        <v>1.875</v>
-      </c>
       <c r="W459">
         <v>-1</v>
       </c>
       <c r="X459">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y459">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z459">
         <v>-1</v>
       </c>
       <c r="AA459">
-        <v>1.025</v>
+        <v>0.97</v>
       </c>
       <c r="AB459">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC459">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460" spans="1:29">
@@ -41402,7 +41402,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>7281205</v>
+        <v>7281210</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41414,73 +41414,73 @@
         <v>45380.5</v>
       </c>
       <c r="F460" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G460" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H460">
+        <v>2</v>
+      </c>
+      <c r="I460">
         <v>1</v>
       </c>
-      <c r="I460">
-        <v>3</v>
-      </c>
       <c r="J460" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K460">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L460">
         <v>3.5</v>
       </c>
       <c r="M460">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N460">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O460">
         <v>3.5</v>
       </c>
       <c r="P460">
+        <v>3.8</v>
+      </c>
+      <c r="Q460">
+        <v>-0.5</v>
+      </c>
+      <c r="R460">
+        <v>1.975</v>
+      </c>
+      <c r="S460">
+        <v>1.875</v>
+      </c>
+      <c r="T460">
         <v>2.25</v>
       </c>
-      <c r="Q460">
-        <v>0.25</v>
-      </c>
-      <c r="R460">
-        <v>1.93</v>
-      </c>
-      <c r="S460">
-        <v>1.97</v>
-      </c>
-      <c r="T460">
-        <v>2.5</v>
-      </c>
       <c r="U460">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V460">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W460">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X460">
         <v>-1</v>
       </c>
       <c r="Y460">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z460">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA460">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB460">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC460">
         <v>-1</v>
@@ -41491,7 +41491,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>7281210</v>
+        <v>7281209</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41503,58 +41503,58 @@
         <v>45380.5</v>
       </c>
       <c r="F461" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G461" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J461" t="s">
         <v>55</v>
       </c>
       <c r="K461">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L461">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M461">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="N461">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O461">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P461">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q461">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R461">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S461">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T461">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U461">
+        <v>2.05</v>
+      </c>
+      <c r="V461">
         <v>1.8</v>
       </c>
-      <c r="V461">
-        <v>2.05</v>
-      </c>
       <c r="W461">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="X461">
         <v>-1</v>
@@ -41563,13 +41563,13 @@
         <v>-1</v>
       </c>
       <c r="Z461">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA461">
         <v>-1</v>
       </c>
       <c r="AB461">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AC461">
         <v>-1</v>
@@ -41580,7 +41580,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>7281209</v>
+        <v>7278084</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41592,76 +41592,76 @@
         <v>45380.5</v>
       </c>
       <c r="F462" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G462" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H462">
+        <v>0</v>
+      </c>
+      <c r="I462">
+        <v>2</v>
+      </c>
+      <c r="J462" t="s">
+        <v>53</v>
+      </c>
+      <c r="K462">
+        <v>2.5</v>
+      </c>
+      <c r="L462">
+        <v>3.3</v>
+      </c>
+      <c r="M462">
+        <v>2.75</v>
+      </c>
+      <c r="N462">
+        <v>2.55</v>
+      </c>
+      <c r="O462">
         <v>3</v>
       </c>
-      <c r="I462">
+      <c r="P462">
+        <v>3</v>
+      </c>
+      <c r="Q462">
         <v>0</v>
       </c>
-      <c r="J462" t="s">
-        <v>55</v>
-      </c>
-      <c r="K462">
-        <v>1.5</v>
-      </c>
-      <c r="L462">
-        <v>4.333</v>
-      </c>
-      <c r="M462">
-        <v>6</v>
-      </c>
-      <c r="N462">
-        <v>1.5</v>
-      </c>
-      <c r="O462">
-        <v>4.2</v>
-      </c>
-      <c r="P462">
-        <v>7</v>
-      </c>
-      <c r="Q462">
-        <v>-1</v>
-      </c>
       <c r="R462">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S462">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T462">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U462">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V462">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W462">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X462">
         <v>-1</v>
       </c>
       <c r="Y462">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z462">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA462">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB462">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC462">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -42114,7 +42114,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>7293678</v>
+        <v>7293676</v>
       </c>
       <c r="C468" t="s">
         <v>28</v>
@@ -42126,13 +42126,13 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F468" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G468" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468">
         <v>0</v>
@@ -42141,43 +42141,43 @@
         <v>55</v>
       </c>
       <c r="K468">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L468">
         <v>3.4</v>
       </c>
       <c r="M468">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N468">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O468">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P468">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q468">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R468">
-        <v>2.03</v>
+        <v>1.825</v>
       </c>
       <c r="S468">
-        <v>1.87</v>
+        <v>2.025</v>
       </c>
       <c r="T468">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U468">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V468">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W468">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="X468">
         <v>-1</v>
@@ -42186,7 +42186,7 @@
         <v>-1</v>
       </c>
       <c r="Z468">
-        <v>1.03</v>
+        <v>0.825</v>
       </c>
       <c r="AA468">
         <v>-1</v>
@@ -42195,7 +42195,7 @@
         <v>-1</v>
       </c>
       <c r="AC468">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:29">
@@ -42203,7 +42203,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>7293682</v>
+        <v>7293678</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42215,49 +42215,49 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F469" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G469" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H469">
         <v>2</v>
       </c>
       <c r="I469">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J469" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K469">
+        <v>1.909</v>
+      </c>
+      <c r="L469">
+        <v>3.4</v>
+      </c>
+      <c r="M469">
+        <v>4</v>
+      </c>
+      <c r="N469">
         <v>1.8</v>
       </c>
-      <c r="L469">
-        <v>3.5</v>
-      </c>
-      <c r="M469">
-        <v>4.5</v>
-      </c>
-      <c r="N469">
-        <v>1.909</v>
-      </c>
       <c r="O469">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P469">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q469">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R469">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S469">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T469">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U469">
         <v>1.825</v>
@@ -42266,25 +42266,25 @@
         <v>2.025</v>
       </c>
       <c r="W469">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X469">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y469">
         <v>-1</v>
       </c>
       <c r="Z469">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AA469">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB469">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC469">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="470" spans="1:29">
@@ -42292,7 +42292,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>7293679</v>
+        <v>7293682</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42304,76 +42304,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F470" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G470" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J470" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K470">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L470">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M470">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="N470">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O470">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P470">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q470">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R470">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S470">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T470">
+        <v>2.25</v>
+      </c>
+      <c r="U470">
+        <v>1.825</v>
+      </c>
+      <c r="V470">
+        <v>2.025</v>
+      </c>
+      <c r="W470">
+        <v>-1</v>
+      </c>
+      <c r="X470">
         <v>2.5</v>
       </c>
-      <c r="U470">
-        <v>2.025</v>
-      </c>
-      <c r="V470">
-        <v>1.825</v>
-      </c>
-      <c r="W470">
-        <v>-1</v>
-      </c>
-      <c r="X470">
-        <v>-1</v>
-      </c>
       <c r="Y470">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z470">
         <v>-1</v>
       </c>
       <c r="AA470">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB470">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC470">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471" spans="1:29">
@@ -42381,7 +42381,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>7297548</v>
+        <v>7293679</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42393,10 +42393,10 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F471" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G471" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H471">
         <v>0</v>
@@ -42408,40 +42408,40 @@
         <v>53</v>
       </c>
       <c r="K471">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="L471">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M471">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N471">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="O471">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P471">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q471">
         <v>0</v>
       </c>
       <c r="R471">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S471">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T471">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U471">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V471">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W471">
         <v>-1</v>
@@ -42450,19 +42450,19 @@
         <v>-1</v>
       </c>
       <c r="Y471">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="Z471">
         <v>-1</v>
       </c>
       <c r="AA471">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB471">
         <v>-1</v>
       </c>
       <c r="AC471">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="472" spans="1:29">
@@ -42470,7 +42470,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>7293680</v>
+        <v>7297548</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42482,76 +42482,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F472" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G472" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472">
         <v>1</v>
       </c>
       <c r="J472" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K472">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L472">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M472">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N472">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="O472">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P472">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="Q472">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R472">
-        <v>2.03</v>
+        <v>1.8</v>
       </c>
       <c r="S472">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="T472">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U472">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V472">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W472">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X472">
         <v>-1</v>
       </c>
       <c r="Y472">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z472">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AA472">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB472">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC472">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:29">
@@ -42559,7 +42559,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>7293681</v>
+        <v>7293680</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42571,76 +42571,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F473" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G473" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I473">
         <v>1</v>
       </c>
       <c r="J473" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K473">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L473">
         <v>3.4</v>
       </c>
       <c r="M473">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="N473">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="O473">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P473">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q473">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R473">
+        <v>2.03</v>
+      </c>
+      <c r="S473">
+        <v>1.87</v>
+      </c>
+      <c r="T473">
+        <v>2</v>
+      </c>
+      <c r="U473">
+        <v>1.825</v>
+      </c>
+      <c r="V473">
         <v>2.025</v>
       </c>
-      <c r="S473">
-        <v>1.825</v>
-      </c>
-      <c r="T473">
-        <v>2.5</v>
-      </c>
-      <c r="U473">
-        <v>2.025</v>
-      </c>
-      <c r="V473">
-        <v>1.825</v>
-      </c>
       <c r="W473">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X473">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y473">
         <v>-1</v>
       </c>
       <c r="Z473">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AA473">
+        <v>-1</v>
+      </c>
+      <c r="AB473">
         <v>0.825</v>
       </c>
-      <c r="AB473">
-        <v>-1</v>
-      </c>
       <c r="AC473">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474" spans="1:29">
@@ -42648,7 +42648,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>7297547</v>
+        <v>7293681</v>
       </c>
       <c r="C474" t="s">
         <v>28</v>
@@ -42660,46 +42660,46 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F474" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G474" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H474">
         <v>1</v>
       </c>
       <c r="I474">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J474" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K474">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L474">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M474">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N474">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O474">
         <v>3.4</v>
       </c>
       <c r="P474">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q474">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R474">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S474">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T474">
         <v>2.5</v>
@@ -42714,22 +42714,22 @@
         <v>-1</v>
       </c>
       <c r="X474">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y474">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z474">
         <v>-1</v>
       </c>
       <c r="AA474">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB474">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC474">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="475" spans="1:29">
@@ -42737,7 +42737,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>7293687</v>
+        <v>7297547</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42749,49 +42749,49 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F475" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G475" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H475">
         <v>1</v>
       </c>
       <c r="I475">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J475" t="s">
         <v>53</v>
       </c>
       <c r="K475">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L475">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M475">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N475">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O475">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P475">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q475">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R475">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="S475">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="T475">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U475">
         <v>2.025</v>
@@ -42806,19 +42806,19 @@
         <v>-1</v>
       </c>
       <c r="Y475">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z475">
         <v>-1</v>
       </c>
       <c r="AA475">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB475">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AC475">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="476" spans="1:29">
@@ -42826,7 +42826,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>7293676</v>
+        <v>7293687</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42838,76 +42838,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F476" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G476" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H476">
         <v>1</v>
       </c>
       <c r="I476">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J476" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K476">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L476">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M476">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N476">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="O476">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P476">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q476">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R476">
+        <v>2.09</v>
+      </c>
+      <c r="S476">
+        <v>1.81</v>
+      </c>
+      <c r="T476">
+        <v>2.75</v>
+      </c>
+      <c r="U476">
+        <v>2.025</v>
+      </c>
+      <c r="V476">
         <v>1.825</v>
       </c>
-      <c r="S476">
-        <v>2.025</v>
-      </c>
-      <c r="T476">
-        <v>2.25</v>
-      </c>
-      <c r="U476">
-        <v>1.85</v>
-      </c>
-      <c r="V476">
-        <v>2</v>
-      </c>
       <c r="W476">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X476">
         <v>-1</v>
       </c>
       <c r="Y476">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z476">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA476">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB476">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC476">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="477" spans="1:29">
@@ -43120,31 +43120,31 @@
         <v>2</v>
       </c>
       <c r="N479">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O479">
         <v>3.5</v>
       </c>
       <c r="P479">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q479">
         <v>0.5</v>
       </c>
       <c r="R479">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S479">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="T479">
         <v>2.5</v>
       </c>
       <c r="U479">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V479">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W479">
         <v>0</v>
@@ -43194,10 +43194,10 @@
         <v>2.625</v>
       </c>
       <c r="N480">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O480">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P480">
         <v>2.45</v>
@@ -43206,19 +43206,19 @@
         <v>0</v>
       </c>
       <c r="R480">
+        <v>2.03</v>
+      </c>
+      <c r="S480">
+        <v>1.87</v>
+      </c>
+      <c r="T480">
+        <v>2.75</v>
+      </c>
+      <c r="U480">
+        <v>1.8</v>
+      </c>
+      <c r="V480">
         <v>2.05</v>
-      </c>
-      <c r="S480">
-        <v>1.85</v>
-      </c>
-      <c r="T480">
-        <v>3</v>
-      </c>
-      <c r="U480">
-        <v>2.025</v>
-      </c>
-      <c r="V480">
-        <v>1.825</v>
       </c>
       <c r="W480">
         <v>0</v>
@@ -43241,7 +43241,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>7309583</v>
+        <v>7309582</v>
       </c>
       <c r="C481" t="s">
         <v>28</v>
@@ -43253,46 +43253,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F481" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G481" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K481">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L481">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M481">
         <v>3.5</v>
       </c>
       <c r="N481">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O481">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P481">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q481">
         <v>-0.25</v>
       </c>
       <c r="R481">
-        <v>1.86</v>
+        <v>2.09</v>
       </c>
       <c r="S481">
-        <v>2.04</v>
+        <v>1.81</v>
       </c>
       <c r="T481">
         <v>2.25</v>
       </c>
       <c r="U481">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V481">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W481">
         <v>0</v>
@@ -43315,7 +43315,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>7309582</v>
+        <v>7309580</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43327,46 +43327,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F482" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G482" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K482">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L482">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M482">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N482">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O482">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P482">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q482">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R482">
-        <v>2.09</v>
+        <v>1.86</v>
       </c>
       <c r="S482">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="T482">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U482">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V482">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W482">
         <v>0</v>
@@ -43389,7 +43389,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>7309580</v>
+        <v>7309579</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43401,46 +43401,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F483" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G483" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="K483">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L483">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M483">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="N483">
+        <v>3.8</v>
+      </c>
+      <c r="O483">
+        <v>4</v>
+      </c>
+      <c r="P483">
         <v>1.85</v>
       </c>
-      <c r="O483">
-        <v>3.6</v>
-      </c>
-      <c r="P483">
-        <v>4.2</v>
-      </c>
       <c r="Q483">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R483">
+        <v>2.04</v>
+      </c>
+      <c r="S483">
         <v>1.86</v>
       </c>
-      <c r="S483">
-        <v>2.04</v>
-      </c>
       <c r="T483">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U483">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V483">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W483">
         <v>0</v>
@@ -43463,7 +43463,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>7309579</v>
+        <v>7309573</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43475,46 +43475,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F484" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G484" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K484">
-        <v>4</v>
+        <v>1.952</v>
       </c>
       <c r="L484">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M484">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="N484">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O484">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P484">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="Q484">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R484">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S484">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="T484">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U484">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V484">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W484">
         <v>0</v>
@@ -43537,7 +43537,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>7309573</v>
+        <v>7309571</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43549,46 +43549,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F485" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G485" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="K485">
-        <v>1.952</v>
+        <v>2.1</v>
       </c>
       <c r="L485">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M485">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N485">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O485">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P485">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q485">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R485">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="S485">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="T485">
         <v>2.25</v>
       </c>
       <c r="U485">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V485">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W485">
         <v>0</v>
@@ -43611,7 +43611,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>7309571</v>
+        <v>7309570</v>
       </c>
       <c r="C486" t="s">
         <v>28</v>
@@ -43623,46 +43623,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F486" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G486" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K486">
+        <v>3.3</v>
+      </c>
+      <c r="L486">
+        <v>3.5</v>
+      </c>
+      <c r="M486">
         <v>2.1</v>
       </c>
-      <c r="L486">
-        <v>3.1</v>
-      </c>
-      <c r="M486">
-        <v>3.75</v>
-      </c>
       <c r="N486">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O486">
+        <v>3.8</v>
+      </c>
+      <c r="P486">
+        <v>1.95</v>
+      </c>
+      <c r="Q486">
+        <v>0.5</v>
+      </c>
+      <c r="R486">
+        <v>1.93</v>
+      </c>
+      <c r="S486">
+        <v>1.97</v>
+      </c>
+      <c r="T486">
         <v>3</v>
       </c>
-      <c r="P486">
-        <v>3.1</v>
-      </c>
-      <c r="Q486">
-        <v>-0.25</v>
-      </c>
-      <c r="R486">
-        <v>2.11</v>
-      </c>
-      <c r="S486">
-        <v>1.79</v>
-      </c>
-      <c r="T486">
-        <v>2.25</v>
-      </c>
       <c r="U486">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V486">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W486">
         <v>0</v>
@@ -43685,7 +43685,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>7309570</v>
+        <v>7309583</v>
       </c>
       <c r="C487" t="s">
         <v>28</v>
@@ -43697,46 +43697,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F487" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G487" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K487">
+        <v>2.1</v>
+      </c>
+      <c r="L487">
         <v>3.3</v>
       </c>
-      <c r="L487">
+      <c r="M487">
         <v>3.5</v>
       </c>
-      <c r="M487">
-        <v>2.1</v>
-      </c>
       <c r="N487">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="O487">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P487">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="Q487">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R487">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="S487">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="T487">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U487">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V487">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W487">
         <v>0</v>
@@ -43786,22 +43786,22 @@
         <v>2.25</v>
       </c>
       <c r="N488">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O488">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P488">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q488">
         <v>0.25</v>
       </c>
       <c r="R488">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S488">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="T488">
         <v>2.25</v>
@@ -43833,7 +43833,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>7306043</v>
+        <v>7306246</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43845,46 +43845,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F489" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G489" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K489">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="L489">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M489">
-        <v>8</v>
+        <v>2.625</v>
       </c>
       <c r="N489">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="O489">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P489">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q489">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R489">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S489">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T489">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U489">
+        <v>1.975</v>
+      </c>
+      <c r="V489">
         <v>1.875</v>
-      </c>
-      <c r="V489">
-        <v>1.975</v>
       </c>
       <c r="W489">
         <v>0</v>
@@ -43907,7 +43907,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>7306246</v>
+        <v>7306043</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -43919,46 +43919,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F490" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G490" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K490">
-        <v>2.75</v>
+        <v>1.333</v>
       </c>
       <c r="L490">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M490">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="N490">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O490">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P490">
-        <v>2.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q490">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R490">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S490">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T490">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U490">
+        <v>1.875</v>
+      </c>
+      <c r="V490">
         <v>1.975</v>
-      </c>
-      <c r="V490">
-        <v>1.875</v>
       </c>
       <c r="W490">
         <v>0</v>

--- a/England Championship/England Championship.xlsx
+++ b/England Championship/England Championship.xlsx
@@ -100,37 +100,37 @@
     <t>7466735</t>
   </si>
   <si>
-    <t>7466734</t>
+    <t>7466393</t>
   </si>
   <si>
-    <t>7466393</t>
+    <t>7463494</t>
+  </si>
+  <si>
+    <t>7463495</t>
+  </si>
+  <si>
+    <t>7465999</t>
+  </si>
+  <si>
+    <t>7466000</t>
+  </si>
+  <si>
+    <t>7466388</t>
+  </si>
+  <si>
+    <t>7466389</t>
+  </si>
+  <si>
+    <t>7466390</t>
   </si>
   <si>
     <t>7466391</t>
   </si>
   <si>
-    <t>7466390</t>
-  </si>
-  <si>
-    <t>7466389</t>
-  </si>
-  <si>
     <t>7466392</t>
   </si>
   <si>
-    <t>7466388</t>
-  </si>
-  <si>
-    <t>7466000</t>
-  </si>
-  <si>
-    <t>7465999</t>
-  </si>
-  <si>
-    <t>7463495</t>
-  </si>
-  <si>
-    <t>7463494</t>
+    <t>7466734</t>
   </si>
   <si>
     <t>England Championship</t>
@@ -7464,7 +7464,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6808417</v>
+        <v>6808421</v>
       </c>
       <c r="C81" t="s">
         <v>39</v>
@@ -7473,10 +7473,10 @@
         <v>45189.65625</v>
       </c>
       <c r="E81" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -7488,58 +7488,58 @@
         <v>66</v>
       </c>
       <c r="J81">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="K81">
         <v>3.25</v>
       </c>
       <c r="L81">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O81">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q81">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R81">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
         <v>2.25</v>
       </c>
       <c r="T81">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V81">
         <v>-1</v>
       </c>
       <c r="W81">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AA81">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB81">
         <v>-1</v>
@@ -7550,7 +7550,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6808416</v>
+        <v>6808419</v>
       </c>
       <c r="C82" t="s">
         <v>39</v>
@@ -7559,73 +7559,73 @@
         <v>45189.65625</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F82" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J82">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="K82">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L82">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M82">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="N82">
         <v>3.6</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="P82">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q82">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R82">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T82">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V82">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z82">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB82">
         <v>-1</v>
@@ -7636,7 +7636,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6808419</v>
+        <v>6808416</v>
       </c>
       <c r="C83" t="s">
         <v>39</v>
@@ -7645,73 +7645,73 @@
         <v>45189.65625</v>
       </c>
       <c r="E83" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
         <v>3</v>
       </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
       <c r="I83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J83">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="K83">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L83">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M83">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="N83">
         <v>3.6</v>
       </c>
       <c r="O83">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="P83">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q83">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T83">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U83">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA83">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB83">
         <v>-1</v>
@@ -7722,7 +7722,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6808421</v>
+        <v>6808417</v>
       </c>
       <c r="C84" t="s">
         <v>39</v>
@@ -7731,10 +7731,10 @@
         <v>45189.65625</v>
       </c>
       <c r="E84" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F84" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7746,58 +7746,58 @@
         <v>66</v>
       </c>
       <c r="J84">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="K84">
         <v>3.25</v>
       </c>
       <c r="L84">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M84">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O84">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="P84">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q84">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S84">
         <v>2.25</v>
       </c>
       <c r="T84">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U84">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V84">
         <v>-1</v>
       </c>
       <c r="W84">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
+        <v>0.3875</v>
+      </c>
+      <c r="Z84">
         <v>-0.5</v>
       </c>
-      <c r="Z84">
-        <v>0.4625</v>
-      </c>
       <c r="AA84">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB84">
         <v>-1</v>
@@ -10646,7 +10646,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6808441</v>
+        <v>6808442</v>
       </c>
       <c r="C118" t="s">
         <v>39</v>
@@ -10655,13 +10655,13 @@
         <v>45203.65625</v>
       </c>
       <c r="E118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F118" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10670,43 +10670,43 @@
         <v>65</v>
       </c>
       <c r="J118">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="K118">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="L118">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M118">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="N118">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O118">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="P118">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q118">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S118">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T118">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -10715,16 +10715,16 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10732,7 +10732,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6808442</v>
+        <v>6808445</v>
       </c>
       <c r="C119" t="s">
         <v>39</v>
@@ -10741,58 +10741,58 @@
         <v>45203.65625</v>
       </c>
       <c r="E119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F119" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="s">
         <v>65</v>
       </c>
       <c r="J119">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="K119">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L119">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="M119">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="O119">
-        <v>7.5</v>
+        <v>2.45</v>
       </c>
       <c r="P119">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q119">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S119">
         <v>2.5</v>
       </c>
       <c r="T119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -10801,13 +10801,13 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB119">
         <v>-1</v>
@@ -10818,7 +10818,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6808445</v>
+        <v>6808441</v>
       </c>
       <c r="C120" t="s">
         <v>39</v>
@@ -10827,58 +10827,58 @@
         <v>45203.65625</v>
       </c>
       <c r="E120" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="s">
         <v>65</v>
       </c>
       <c r="J120">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="K120">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="L120">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="M120">
+        <v>1.333</v>
+      </c>
+      <c r="N120">
+        <v>5.25</v>
+      </c>
+      <c r="O120">
+        <v>10</v>
+      </c>
+      <c r="P120">
+        <v>-1.5</v>
+      </c>
+      <c r="Q120">
+        <v>1.875</v>
+      </c>
+      <c r="R120">
+        <v>1.975</v>
+      </c>
+      <c r="S120">
         <v>3</v>
       </c>
-      <c r="N120">
-        <v>3.2</v>
-      </c>
-      <c r="O120">
-        <v>2.45</v>
-      </c>
-      <c r="P120">
-        <v>0.25</v>
-      </c>
-      <c r="Q120">
-        <v>1.775</v>
-      </c>
-      <c r="R120">
-        <v>2.1</v>
-      </c>
-      <c r="S120">
-        <v>2.5</v>
-      </c>
       <c r="T120">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>0.333</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -10887,16 +10887,16 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -13312,7 +13312,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6808463</v>
+        <v>6808467</v>
       </c>
       <c r="C149" t="s">
         <v>39</v>
@@ -13321,13 +13321,13 @@
         <v>45223.66666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F149" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13336,43 +13336,43 @@
         <v>65</v>
       </c>
       <c r="J149">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="K149">
         <v>4</v>
       </c>
       <c r="L149">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M149">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="N149">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O149">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="P149">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q149">
+        <v>1.875</v>
+      </c>
+      <c r="R149">
+        <v>1.975</v>
+      </c>
+      <c r="S149">
+        <v>2.25</v>
+      </c>
+      <c r="T149">
         <v>1.925</v>
       </c>
-      <c r="R149">
+      <c r="U149">
         <v>1.925</v>
       </c>
-      <c r="S149">
-        <v>3</v>
-      </c>
-      <c r="T149">
-        <v>2.05</v>
-      </c>
-      <c r="U149">
-        <v>1.8</v>
-      </c>
       <c r="V149">
-        <v>0.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13381,16 +13381,16 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13398,7 +13398,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6808467</v>
+        <v>6808463</v>
       </c>
       <c r="C150" t="s">
         <v>39</v>
@@ -13407,13 +13407,13 @@
         <v>45223.66666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F150" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13422,43 +13422,43 @@
         <v>65</v>
       </c>
       <c r="J150">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="K150">
         <v>4</v>
       </c>
       <c r="L150">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M150">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="N150">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O150">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P150">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q150">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R150">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S150">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T150">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U150">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V150">
-        <v>0.6659999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13467,16 +13467,16 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13484,7 +13484,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6808239</v>
+        <v>6808468</v>
       </c>
       <c r="C151" t="s">
         <v>39</v>
@@ -13493,76 +13493,76 @@
         <v>45224.65625</v>
       </c>
       <c r="E151" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F151" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="s">
         <v>64</v>
       </c>
       <c r="J151">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="K151">
         <v>3.4</v>
       </c>
       <c r="L151">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="M151">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N151">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O151">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="P151">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q151">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S151">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T151">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U151">
+        <v>2.025</v>
+      </c>
+      <c r="V151">
+        <v>-1</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
         <v>1.9</v>
       </c>
-      <c r="V151">
-        <v>-1</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.875</v>
+        <v>1.1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB151">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -13570,7 +13570,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6808468</v>
+        <v>6808239</v>
       </c>
       <c r="C152" t="s">
         <v>39</v>
@@ -13579,55 +13579,55 @@
         <v>45224.65625</v>
       </c>
       <c r="E152" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F152" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="s">
         <v>64</v>
       </c>
       <c r="J152">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="K152">
         <v>3.4</v>
       </c>
       <c r="L152">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="M152">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N152">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O152">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="P152">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q152">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R152">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T152">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U152">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
         <v>-1</v>
@@ -13636,19 +13636,19 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>1.9</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13656,7 +13656,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6808469</v>
+        <v>6809016</v>
       </c>
       <c r="C153" t="s">
         <v>39</v>
@@ -13665,76 +13665,76 @@
         <v>45224.65625</v>
       </c>
       <c r="E153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F153" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G153">
         <v>2</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J153">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K153">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L153">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M153">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N153">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O153">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="P153">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q153">
+        <v>1.875</v>
+      </c>
+      <c r="R153">
         <v>1.975</v>
-      </c>
-      <c r="R153">
-        <v>1.875</v>
       </c>
       <c r="S153">
         <v>2.5</v>
       </c>
       <c r="T153">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
+        <v>0.4375</v>
+      </c>
+      <c r="Z153">
+        <v>-0.5</v>
+      </c>
+      <c r="AA153">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z153">
-        <v>-1</v>
-      </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
       <c r="AB153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13742,7 +13742,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6809016</v>
+        <v>6809017</v>
       </c>
       <c r="C154" t="s">
         <v>39</v>
@@ -13751,73 +13751,73 @@
         <v>45224.65625</v>
       </c>
       <c r="E154" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F154" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J154">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="K154">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L154">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="M154">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N154">
         <v>3.25</v>
       </c>
       <c r="O154">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="P154">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q154">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R154">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
         <v>2.5</v>
       </c>
       <c r="T154">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U154">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W154">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="Z154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB154">
         <v>-1</v>
@@ -13828,7 +13828,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6809017</v>
+        <v>6808469</v>
       </c>
       <c r="C155" t="s">
         <v>39</v>
@@ -13837,13 +13837,13 @@
         <v>45224.65625</v>
       </c>
       <c r="E155" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -13852,43 +13852,43 @@
         <v>65</v>
       </c>
       <c r="J155">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="K155">
         <v>3.4</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="M155">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="N155">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O155">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="P155">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q155">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R155">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S155">
         <v>2.5</v>
       </c>
       <c r="T155">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="W155">
         <v>-1</v>
@@ -13897,16 +13897,16 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -21310,7 +21310,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6808528</v>
+        <v>6808529</v>
       </c>
       <c r="C242" t="s">
         <v>39</v>
@@ -21319,76 +21319,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E242" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F242" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I242" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J242">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K242">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L242">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="M242">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="N242">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O242">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="P242">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q242">
+        <v>1.93</v>
+      </c>
+      <c r="R242">
+        <v>1.97</v>
+      </c>
+      <c r="S242">
+        <v>2</v>
+      </c>
+      <c r="T242">
         <v>1.825</v>
       </c>
-      <c r="R242">
+      <c r="U242">
         <v>2.025</v>
       </c>
-      <c r="S242">
-        <v>2.75</v>
-      </c>
-      <c r="T242">
-        <v>1.975</v>
-      </c>
-      <c r="U242">
-        <v>1.875</v>
-      </c>
       <c r="V242">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y242">
+        <v>-1</v>
+      </c>
+      <c r="Z242">
+        <v>0.97</v>
+      </c>
+      <c r="AA242">
         <v>0.825</v>
       </c>
-      <c r="Z242">
-        <v>-1</v>
-      </c>
-      <c r="AA242">
-        <v>0.4875</v>
-      </c>
       <c r="AB242">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:28">
@@ -21396,7 +21396,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6808529</v>
+        <v>6808531</v>
       </c>
       <c r="C243" t="s">
         <v>39</v>
@@ -21405,76 +21405,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E243" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F243" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G243">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I243" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J243">
+        <v>2.1</v>
+      </c>
+      <c r="K243">
+        <v>3.4</v>
+      </c>
+      <c r="L243">
+        <v>3.4</v>
+      </c>
+      <c r="M243">
+        <v>2.05</v>
+      </c>
+      <c r="N243">
+        <v>3.5</v>
+      </c>
+      <c r="O243">
+        <v>3.6</v>
+      </c>
+      <c r="P243">
+        <v>-0.25</v>
+      </c>
+      <c r="Q243">
+        <v>1.8</v>
+      </c>
+      <c r="R243">
+        <v>2.05</v>
+      </c>
+      <c r="S243">
         <v>2.5</v>
       </c>
-      <c r="K243">
-        <v>3.25</v>
-      </c>
-      <c r="L243">
-        <v>2.8</v>
-      </c>
-      <c r="M243">
-        <v>2.7</v>
-      </c>
-      <c r="N243">
-        <v>3.1</v>
-      </c>
-      <c r="O243">
-        <v>2.7</v>
-      </c>
-      <c r="P243">
-        <v>0</v>
-      </c>
-      <c r="Q243">
-        <v>1.93</v>
-      </c>
-      <c r="R243">
-        <v>1.97</v>
-      </c>
-      <c r="S243">
-        <v>2</v>
-      </c>
       <c r="T243">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U243">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V243">
         <v>-1</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X243">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z243">
-        <v>0.97</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA243">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="244" spans="1:28">
@@ -21482,7 +21482,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6808531</v>
+        <v>6808530</v>
       </c>
       <c r="C244" t="s">
         <v>39</v>
@@ -21491,49 +21491,49 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E244" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F244" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J244">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="K244">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L244">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="M244">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="N244">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O244">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="P244">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q244">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R244">
         <v>2.05</v>
       </c>
       <c r="S244">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T244">
         <v>1.925</v>
@@ -21545,22 +21545,22 @@
         <v>-1</v>
       </c>
       <c r="W244">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y244">
+        <v>-1</v>
+      </c>
+      <c r="Z244">
+        <v>1.05</v>
+      </c>
+      <c r="AA244">
         <v>-0.5</v>
       </c>
-      <c r="Z244">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AA244">
-        <v>-1</v>
-      </c>
       <c r="AB244">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="245" spans="1:28">
@@ -21654,7 +21654,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6808530</v>
+        <v>6808528</v>
       </c>
       <c r="C246" t="s">
         <v>39</v>
@@ -21663,76 +21663,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E246" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F246" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J246">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K246">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L246">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="M246">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="N246">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O246">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="P246">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q246">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R246">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S246">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T246">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U246">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V246">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z246">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA246">
+        <v>0.4875</v>
+      </c>
+      <c r="AB246">
         <v>-0.5</v>
-      </c>
-      <c r="AB246">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="247" spans="1:28">
@@ -36704,7 +36704,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7219375</v>
+        <v>7222377</v>
       </c>
       <c r="C421" t="s">
         <v>39</v>
@@ -36713,13 +36713,13 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E421" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F421" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G421">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H421">
         <v>0</v>
@@ -36728,43 +36728,43 @@
         <v>65</v>
       </c>
       <c r="J421">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="K421">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L421">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="M421">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="N421">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="O421">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P421">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q421">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R421">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S421">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T421">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U421">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V421">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="W421">
         <v>-1</v>
@@ -36773,16 +36773,16 @@
         <v>-1</v>
       </c>
       <c r="Y421">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="Z421">
         <v>-1</v>
       </c>
       <c r="AA421">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB421">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="422" spans="1:28">
@@ -36790,7 +36790,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7219376</v>
+        <v>7222374</v>
       </c>
       <c r="C422" t="s">
         <v>39</v>
@@ -36799,76 +36799,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E422" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F422" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H422">
         <v>1</v>
       </c>
       <c r="I422" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J422">
+        <v>4.5</v>
+      </c>
+      <c r="K422">
+        <v>3.75</v>
+      </c>
+      <c r="L422">
+        <v>1.75</v>
+      </c>
+      <c r="M422">
+        <v>4.2</v>
+      </c>
+      <c r="N422">
+        <v>3.8</v>
+      </c>
+      <c r="O422">
         <v>1.8</v>
       </c>
-      <c r="K422">
-        <v>3.6</v>
-      </c>
-      <c r="L422">
-        <v>4.333</v>
-      </c>
-      <c r="M422">
-        <v>1.65</v>
-      </c>
-      <c r="N422">
-        <v>4</v>
-      </c>
-      <c r="O422">
-        <v>5.25</v>
-      </c>
       <c r="P422">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q422">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R422">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S422">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T422">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U422">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V422">
         <v>-1</v>
       </c>
       <c r="W422">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X422">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA422">
         <v>-1</v>
       </c>
       <c r="AB422">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:28">
@@ -36876,7 +36876,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7222374</v>
+        <v>7219376</v>
       </c>
       <c r="C423" t="s">
         <v>39</v>
@@ -36885,76 +36885,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E423" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F423" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H423">
         <v>1</v>
       </c>
       <c r="I423" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J423">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="K423">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L423">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="M423">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="N423">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O423">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="P423">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q423">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R423">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S423">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T423">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U423">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V423">
         <v>-1</v>
       </c>
       <c r="W423">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X423">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y423">
         <v>-1</v>
       </c>
       <c r="Z423">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA423">
         <v>-1</v>
       </c>
       <c r="AB423">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="424" spans="1:28">
@@ -36962,7 +36962,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7222377</v>
+        <v>7219375</v>
       </c>
       <c r="C424" t="s">
         <v>39</v>
@@ -36971,13 +36971,13 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E424" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F424" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G424">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H424">
         <v>0</v>
@@ -36986,43 +36986,43 @@
         <v>65</v>
       </c>
       <c r="J424">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="K424">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L424">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="M424">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="N424">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="O424">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P424">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q424">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R424">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S424">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T424">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U424">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V424">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="W424">
         <v>-1</v>
@@ -37031,16 +37031,16 @@
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="Z424">
         <v>-1</v>
       </c>
       <c r="AA424">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB424">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:28">
@@ -37908,7 +37908,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>7235962</v>
+        <v>7235961</v>
       </c>
       <c r="C435" t="s">
         <v>39</v>
@@ -37917,13 +37917,13 @@
         <v>45360.5</v>
       </c>
       <c r="E435" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F435" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G435">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H435">
         <v>2</v>
@@ -37932,40 +37932,40 @@
         <v>64</v>
       </c>
       <c r="J435">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="K435">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L435">
+        <v>2.8</v>
+      </c>
+      <c r="M435">
         <v>2.5</v>
       </c>
-      <c r="M435">
-        <v>2.2</v>
-      </c>
       <c r="N435">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O435">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P435">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q435">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R435">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S435">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T435">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U435">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V435">
         <v>-1</v>
@@ -37974,19 +37974,19 @@
         <v>-1</v>
       </c>
       <c r="X435">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y435">
         <v>-1</v>
       </c>
       <c r="Z435">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AA435">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB435">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="436" spans="1:28">
@@ -37994,7 +37994,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>7235961</v>
+        <v>7235962</v>
       </c>
       <c r="C436" t="s">
         <v>39</v>
@@ -38003,13 +38003,13 @@
         <v>45360.5</v>
       </c>
       <c r="E436" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F436" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H436">
         <v>2</v>
@@ -38018,61 +38018,61 @@
         <v>64</v>
       </c>
       <c r="J436">
+        <v>2.7</v>
+      </c>
+      <c r="K436">
+        <v>3.4</v>
+      </c>
+      <c r="L436">
         <v>2.5</v>
       </c>
-      <c r="K436">
-        <v>3.25</v>
-      </c>
-      <c r="L436">
-        <v>2.8</v>
-      </c>
       <c r="M436">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N436">
+        <v>3.6</v>
+      </c>
+      <c r="O436">
         <v>3.1</v>
       </c>
-      <c r="O436">
-        <v>3</v>
-      </c>
       <c r="P436">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q436">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R436">
+        <v>1.9</v>
+      </c>
+      <c r="S436">
+        <v>2.25</v>
+      </c>
+      <c r="T436">
+        <v>1.825</v>
+      </c>
+      <c r="U436">
+        <v>2.025</v>
+      </c>
+      <c r="V436">
+        <v>-1</v>
+      </c>
+      <c r="W436">
+        <v>-1</v>
+      </c>
+      <c r="X436">
         <v>2.1</v>
       </c>
-      <c r="S436">
-        <v>2</v>
-      </c>
-      <c r="T436">
-        <v>1.8</v>
-      </c>
-      <c r="U436">
-        <v>2.05</v>
-      </c>
-      <c r="V436">
-        <v>-1</v>
-      </c>
-      <c r="W436">
-        <v>-1</v>
-      </c>
-      <c r="X436">
-        <v>2</v>
-      </c>
       <c r="Y436">
         <v>-1</v>
       </c>
       <c r="Z436">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA436">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB436">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="437" spans="1:28">
@@ -46508,7 +46508,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>7434338</v>
+        <v>7434337</v>
       </c>
       <c r="C535" t="s">
         <v>39</v>
@@ -46517,76 +46517,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E535" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="F535" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G535">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J535">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="K535">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="L535">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="M535">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="N535">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O535">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="P535">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q535">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R535">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S535">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T535">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U535">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V535">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W535">
         <v>-1</v>
       </c>
       <c r="X535">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y535">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z535">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA535">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB535">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="536" spans="1:28">
@@ -46594,7 +46594,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>7434336</v>
+        <v>7434338</v>
       </c>
       <c r="C536" t="s">
         <v>39</v>
@@ -46603,76 +46603,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E536" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F536" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G536">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J536">
+        <v>1.444</v>
+      </c>
+      <c r="K536">
+        <v>5.25</v>
+      </c>
+      <c r="L536">
+        <v>5.5</v>
+      </c>
+      <c r="M536">
         <v>1.727</v>
       </c>
-      <c r="K536">
-        <v>3.75</v>
-      </c>
-      <c r="L536">
+      <c r="N536">
         <v>4.5</v>
       </c>
-      <c r="M536">
-        <v>1.666</v>
-      </c>
-      <c r="N536">
-        <v>4.2</v>
-      </c>
       <c r="O536">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P536">
         <v>-0.75</v>
       </c>
       <c r="Q536">
-        <v>1.87</v>
+        <v>1.925</v>
       </c>
       <c r="R536">
-        <v>2.03</v>
+        <v>1.925</v>
       </c>
       <c r="S536">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T536">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U536">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V536">
         <v>-1</v>
       </c>
       <c r="W536">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X536">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y536">
         <v>-1</v>
       </c>
       <c r="Z536">
-        <v>1.03</v>
+        <v>0.925</v>
       </c>
       <c r="AA536">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB536">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="537" spans="1:28">
@@ -46680,7 +46680,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>7434337</v>
+        <v>7434336</v>
       </c>
       <c r="C537" t="s">
         <v>39</v>
@@ -46689,73 +46689,73 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E537" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F537" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G537">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J537">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="K537">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L537">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="M537">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="N537">
+        <v>4.2</v>
+      </c>
+      <c r="O537">
+        <v>4.75</v>
+      </c>
+      <c r="P537">
+        <v>-0.75</v>
+      </c>
+      <c r="Q537">
+        <v>1.87</v>
+      </c>
+      <c r="R537">
+        <v>2.03</v>
+      </c>
+      <c r="S537">
+        <v>2.75</v>
+      </c>
+      <c r="T537">
+        <v>1.8</v>
+      </c>
+      <c r="U537">
+        <v>2.05</v>
+      </c>
+      <c r="V537">
+        <v>-1</v>
+      </c>
+      <c r="W537">
         <v>3.2</v>
       </c>
-      <c r="O537">
-        <v>2.55</v>
-      </c>
-      <c r="P537">
-        <v>0</v>
-      </c>
-      <c r="Q537">
-        <v>2.025</v>
-      </c>
-      <c r="R537">
-        <v>1.825</v>
-      </c>
-      <c r="S537">
-        <v>2.25</v>
-      </c>
-      <c r="T537">
-        <v>2.05</v>
-      </c>
-      <c r="U537">
-        <v>1.8</v>
-      </c>
-      <c r="V537">
-        <v>1.8</v>
-      </c>
-      <c r="W537">
-        <v>-1</v>
-      </c>
       <c r="X537">
         <v>-1</v>
       </c>
       <c r="Y537">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z537">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AA537">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB537">
         <v>-1</v>
@@ -47048,31 +47048,31 @@
         <v>4</v>
       </c>
       <c r="M541">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="N541">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O541">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P541">
         <v>-0.75</v>
       </c>
       <c r="Q541">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="R541">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="S541">
         <v>3</v>
       </c>
       <c r="T541">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U541">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V541">
         <v>0</v>
@@ -47098,46 +47098,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E542" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F542" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J542">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="K542">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="L542">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="M542">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="N542">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="O542">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P542">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q542">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="R542">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S542">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T542">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U542">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V542">
         <v>0</v>
@@ -47163,46 +47163,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E543" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F543" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J543">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="K543">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L543">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M543">
+        <v>1.666</v>
+      </c>
+      <c r="N543">
+        <v>3.75</v>
+      </c>
+      <c r="O543">
+        <v>5.5</v>
+      </c>
+      <c r="P543">
+        <v>-0.75</v>
+      </c>
+      <c r="Q543">
+        <v>1.85</v>
+      </c>
+      <c r="R543">
         <v>2.05</v>
       </c>
-      <c r="N543">
-        <v>3.4</v>
-      </c>
-      <c r="O543">
-        <v>3.6</v>
-      </c>
-      <c r="P543">
-        <v>-0.5</v>
-      </c>
-      <c r="Q543">
-        <v>2.07</v>
-      </c>
-      <c r="R543">
-        <v>1.83</v>
-      </c>
       <c r="S543">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T543">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U543">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V543">
         <v>0</v>
@@ -47228,46 +47228,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E544" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F544" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J544">
+        <v>1.666</v>
+      </c>
+      <c r="K544">
         <v>3.75</v>
       </c>
-      <c r="K544">
-        <v>3.4</v>
-      </c>
       <c r="L544">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M544">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="N544">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O544">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="P544">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q544">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="R544">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="S544">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T544">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U544">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V544">
         <v>0</v>
@@ -47293,46 +47293,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E545" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F545" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J545">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="K545">
         <v>3.6</v>
       </c>
       <c r="L545">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M545">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N545">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O545">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="P545">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q545">
-        <v>1.83</v>
+        <v>2.09</v>
       </c>
       <c r="R545">
-        <v>2.07</v>
+        <v>1.81</v>
       </c>
       <c r="S545">
         <v>2.75</v>
       </c>
       <c r="T545">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U545">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V545">
         <v>0</v>
@@ -47358,46 +47358,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E546" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F546" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="J546">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="K546">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L546">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="M546">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="N546">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O546">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="P546">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q546">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R546">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S546">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T546">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U546">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V546">
         <v>0</v>
@@ -47423,46 +47423,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E547" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F547" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="J547">
-        <v>2.1</v>
+        <v>1.952</v>
       </c>
       <c r="K547">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L547">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M547">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N547">
         <v>3.4</v>
       </c>
       <c r="O547">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P547">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q547">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="R547">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S547">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T547">
+        <v>1.95</v>
+      </c>
+      <c r="U547">
         <v>1.9</v>
-      </c>
-      <c r="U547">
-        <v>1.95</v>
       </c>
       <c r="V547">
         <v>0</v>
@@ -47488,46 +47488,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E548" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F548" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J548">
-        <v>1.952</v>
+        <v>1.727</v>
       </c>
       <c r="K548">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L548">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M548">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N548">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O548">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P548">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q548">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="R548">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S548">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T548">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U548">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V548">
         <v>0</v>
@@ -47553,46 +47553,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E549" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F549" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="J549">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="K549">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L549">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="M549">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N549">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O549">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="P549">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q549">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R549">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S549">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T549">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U549">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V549">
         <v>0</v>
@@ -47618,46 +47618,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E550" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F550" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J550">
+        <v>3.75</v>
+      </c>
+      <c r="K550">
+        <v>3.4</v>
+      </c>
+      <c r="L550">
+        <v>2</v>
+      </c>
+      <c r="M550">
+        <v>3.4</v>
+      </c>
+      <c r="N550">
+        <v>3.4</v>
+      </c>
+      <c r="O550">
         <v>2.2</v>
       </c>
-      <c r="K550">
-        <v>3.6</v>
-      </c>
-      <c r="L550">
-        <v>3</v>
-      </c>
-      <c r="M550">
-        <v>2.3</v>
-      </c>
-      <c r="N550">
-        <v>3.6</v>
-      </c>
-      <c r="O550">
-        <v>2.8</v>
-      </c>
       <c r="P550">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q550">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="R550">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S550">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T550">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U550">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V550">
         <v>0</v>
@@ -47683,46 +47683,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E551" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F551" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J551">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="K551">
+        <v>3.25</v>
+      </c>
+      <c r="L551">
+        <v>3.5</v>
+      </c>
+      <c r="M551">
+        <v>2.05</v>
+      </c>
+      <c r="N551">
+        <v>3.4</v>
+      </c>
+      <c r="O551">
         <v>3.75</v>
       </c>
-      <c r="L551">
-        <v>5</v>
-      </c>
-      <c r="M551">
-        <v>1.45</v>
-      </c>
-      <c r="N551">
-        <v>4.2</v>
-      </c>
-      <c r="O551">
-        <v>7</v>
-      </c>
       <c r="P551">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q551">
-        <v>1.81</v>
+        <v>2.07</v>
       </c>
       <c r="R551">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="S551">
         <v>2.5</v>
       </c>
       <c r="T551">
+        <v>1.9</v>
+      </c>
+      <c r="U551">
         <v>1.95</v>
-      </c>
-      <c r="U551">
-        <v>1.9</v>
       </c>
       <c r="V551">
         <v>0</v>
@@ -47748,46 +47748,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E552" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F552" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J552">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="K552">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="L552">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="M552">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="N552">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="O552">
-        <v>5.25</v>
+        <v>12</v>
       </c>
       <c r="P552">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q552">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R552">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S552">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T552">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U552">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V552">
         <v>0</v>

--- a/England Championship/England Championship.xlsx
+++ b/England Championship/England Championship.xlsx
@@ -100,9 +100,6 @@
     <t>7466735</t>
   </si>
   <si>
-    <t>7466393</t>
-  </si>
-  <si>
     <t>7463494</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>7466392</t>
+  </si>
+  <si>
+    <t>7466393</t>
   </si>
   <si>
     <t>7466734</t>
@@ -7464,7 +7464,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6808421</v>
+        <v>6808417</v>
       </c>
       <c r="C81" t="s">
         <v>39</v>
@@ -7473,10 +7473,10 @@
         <v>45189.65625</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F81" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -7488,58 +7488,58 @@
         <v>66</v>
       </c>
       <c r="J81">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="K81">
         <v>3.25</v>
       </c>
       <c r="L81">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M81">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N81">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="P81">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q81">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S81">
         <v>2.25</v>
       </c>
       <c r="T81">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U81">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V81">
         <v>-1</v>
       </c>
       <c r="W81">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
+        <v>0.3875</v>
+      </c>
+      <c r="Z81">
         <v>-0.5</v>
       </c>
-      <c r="Z81">
-        <v>0.4625</v>
-      </c>
       <c r="AA81">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB81">
         <v>-1</v>
@@ -7550,7 +7550,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6808419</v>
+        <v>6808416</v>
       </c>
       <c r="C82" t="s">
         <v>39</v>
@@ -7559,73 +7559,73 @@
         <v>45189.65625</v>
       </c>
       <c r="E82" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
         <v>3</v>
       </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
       <c r="I82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J82">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="K82">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L82">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M82">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="N82">
         <v>3.6</v>
       </c>
       <c r="O82">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="P82">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q82">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S82">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T82">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U82">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA82">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB82">
         <v>-1</v>
@@ -7636,7 +7636,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6808416</v>
+        <v>6808419</v>
       </c>
       <c r="C83" t="s">
         <v>39</v>
@@ -7645,73 +7645,73 @@
         <v>45189.65625</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F83" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J83">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="K83">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L83">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M83">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="N83">
         <v>3.6</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="P83">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T83">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z83">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB83">
         <v>-1</v>
@@ -7722,7 +7722,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6808417</v>
+        <v>6808421</v>
       </c>
       <c r="C84" t="s">
         <v>39</v>
@@ -7731,10 +7731,10 @@
         <v>45189.65625</v>
       </c>
       <c r="E84" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7746,58 +7746,58 @@
         <v>66</v>
       </c>
       <c r="J84">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="K84">
         <v>3.25</v>
       </c>
       <c r="L84">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N84">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O84">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="P84">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q84">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R84">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
         <v>2.25</v>
       </c>
       <c r="T84">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V84">
         <v>-1</v>
       </c>
       <c r="W84">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z84">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AA84">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB84">
         <v>-1</v>
@@ -10646,7 +10646,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6808442</v>
+        <v>6808441</v>
       </c>
       <c r="C118" t="s">
         <v>39</v>
@@ -10655,13 +10655,13 @@
         <v>45203.65625</v>
       </c>
       <c r="E118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F118" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10670,43 +10670,43 @@
         <v>65</v>
       </c>
       <c r="J118">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="L118">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M118">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="N118">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="O118">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="P118">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q118">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T118">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -10715,16 +10715,16 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA118">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10732,7 +10732,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6808445</v>
+        <v>6808442</v>
       </c>
       <c r="C119" t="s">
         <v>39</v>
@@ -10741,58 +10741,58 @@
         <v>45203.65625</v>
       </c>
       <c r="E119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="s">
         <v>65</v>
       </c>
       <c r="J119">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="K119">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L119">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N119">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="O119">
-        <v>2.45</v>
+        <v>7.5</v>
       </c>
       <c r="P119">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q119">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R119">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S119">
         <v>2.5</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -10801,13 +10801,13 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB119">
         <v>-1</v>
@@ -10818,7 +10818,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6808441</v>
+        <v>6808445</v>
       </c>
       <c r="C120" t="s">
         <v>39</v>
@@ -10827,58 +10827,58 @@
         <v>45203.65625</v>
       </c>
       <c r="E120" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F120" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="s">
         <v>65</v>
       </c>
       <c r="J120">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="K120">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="L120">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="M120">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="N120">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="O120">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="P120">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q120">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S120">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
         <v>1.85</v>
       </c>
-      <c r="U120">
-        <v>2</v>
-      </c>
       <c r="V120">
-        <v>0.333</v>
+        <v>2</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -10887,16 +10887,16 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -13312,7 +13312,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6808467</v>
+        <v>6808463</v>
       </c>
       <c r="C149" t="s">
         <v>39</v>
@@ -13321,13 +13321,13 @@
         <v>45223.66666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F149" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13336,43 +13336,43 @@
         <v>65</v>
       </c>
       <c r="J149">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="K149">
         <v>4</v>
       </c>
       <c r="L149">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M149">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="N149">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O149">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P149">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q149">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S149">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T149">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V149">
-        <v>0.6659999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13381,16 +13381,16 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13398,7 +13398,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6808463</v>
+        <v>6808467</v>
       </c>
       <c r="C150" t="s">
         <v>39</v>
@@ -13407,13 +13407,13 @@
         <v>45223.66666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F150" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13422,43 +13422,43 @@
         <v>65</v>
       </c>
       <c r="J150">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="K150">
         <v>4</v>
       </c>
       <c r="L150">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M150">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="N150">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O150">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="P150">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q150">
+        <v>1.875</v>
+      </c>
+      <c r="R150">
+        <v>1.975</v>
+      </c>
+      <c r="S150">
+        <v>2.25</v>
+      </c>
+      <c r="T150">
         <v>1.925</v>
       </c>
-      <c r="R150">
+      <c r="U150">
         <v>1.925</v>
       </c>
-      <c r="S150">
-        <v>3</v>
-      </c>
-      <c r="T150">
-        <v>2.05</v>
-      </c>
-      <c r="U150">
-        <v>1.8</v>
-      </c>
       <c r="V150">
-        <v>0.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13467,16 +13467,16 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13484,7 +13484,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6808468</v>
+        <v>6808239</v>
       </c>
       <c r="C151" t="s">
         <v>39</v>
@@ -13493,55 +13493,55 @@
         <v>45224.65625</v>
       </c>
       <c r="E151" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F151" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="s">
         <v>64</v>
       </c>
       <c r="J151">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="K151">
         <v>3.4</v>
       </c>
       <c r="L151">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="M151">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N151">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O151">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="P151">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q151">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R151">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T151">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U151">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
         <v>-1</v>
@@ -13550,19 +13550,19 @@
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>1.9</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
       <c r="AA151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -13570,7 +13570,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6808239</v>
+        <v>6808468</v>
       </c>
       <c r="C152" t="s">
         <v>39</v>
@@ -13579,76 +13579,76 @@
         <v>45224.65625</v>
       </c>
       <c r="E152" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F152" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="s">
         <v>64</v>
       </c>
       <c r="J152">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="K152">
         <v>3.4</v>
       </c>
       <c r="L152">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="M152">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N152">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O152">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="P152">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q152">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R152">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S152">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T152">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U152">
+        <v>2.025</v>
+      </c>
+      <c r="V152">
+        <v>-1</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
         <v>1.9</v>
       </c>
-      <c r="V152">
-        <v>-1</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.875</v>
+        <v>1.1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB152">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13656,7 +13656,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6809016</v>
+        <v>6808469</v>
       </c>
       <c r="C153" t="s">
         <v>39</v>
@@ -13665,76 +13665,76 @@
         <v>45224.65625</v>
       </c>
       <c r="E153" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F153" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G153">
         <v>2</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J153">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K153">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L153">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M153">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N153">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O153">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="P153">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q153">
+        <v>1.975</v>
+      </c>
+      <c r="R153">
         <v>1.875</v>
-      </c>
-      <c r="R153">
-        <v>1.975</v>
       </c>
       <c r="S153">
         <v>2.5</v>
       </c>
       <c r="T153">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="W153">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13742,7 +13742,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6809017</v>
+        <v>6809016</v>
       </c>
       <c r="C154" t="s">
         <v>39</v>
@@ -13751,73 +13751,73 @@
         <v>45224.65625</v>
       </c>
       <c r="E154" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J154">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="K154">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L154">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="M154">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N154">
         <v>3.25</v>
       </c>
       <c r="O154">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="P154">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q154">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
         <v>2.5</v>
       </c>
       <c r="T154">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V154">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA154">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB154">
         <v>-1</v>
@@ -13828,7 +13828,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6808469</v>
+        <v>6809017</v>
       </c>
       <c r="C155" t="s">
         <v>39</v>
@@ -13837,13 +13837,13 @@
         <v>45224.65625</v>
       </c>
       <c r="E155" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F155" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -13852,43 +13852,43 @@
         <v>65</v>
       </c>
       <c r="J155">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="K155">
         <v>3.4</v>
       </c>
       <c r="L155">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="M155">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="N155">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O155">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="P155">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q155">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R155">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S155">
         <v>2.5</v>
       </c>
       <c r="T155">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V155">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="W155">
         <v>-1</v>
@@ -13897,16 +13897,16 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -21310,7 +21310,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6808529</v>
+        <v>6808528</v>
       </c>
       <c r="C242" t="s">
         <v>39</v>
@@ -21319,76 +21319,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E242" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F242" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J242">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K242">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L242">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="M242">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="N242">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O242">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="P242">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q242">
-        <v>1.93</v>
+        <v>1.825</v>
       </c>
       <c r="R242">
-        <v>1.97</v>
+        <v>2.025</v>
       </c>
       <c r="S242">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T242">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U242">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V242">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z242">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="243" spans="1:28">
@@ -21396,7 +21396,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6808531</v>
+        <v>6808529</v>
       </c>
       <c r="C243" t="s">
         <v>39</v>
@@ -21405,76 +21405,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E243" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F243" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G243">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I243" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J243">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K243">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L243">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M243">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="N243">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O243">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P243">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q243">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="R243">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="S243">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T243">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U243">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V243">
         <v>-1</v>
       </c>
       <c r="W243">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y243">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.5249999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB243">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:28">
@@ -21482,7 +21482,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6808530</v>
+        <v>6808531</v>
       </c>
       <c r="C244" t="s">
         <v>39</v>
@@ -21491,49 +21491,49 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E244" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F244" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J244">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="K244">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L244">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="M244">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="N244">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O244">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="P244">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q244">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R244">
         <v>2.05</v>
       </c>
       <c r="S244">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T244">
         <v>1.925</v>
@@ -21545,22 +21545,22 @@
         <v>-1</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X244">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z244">
-        <v>1.05</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA244">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="245" spans="1:28">
@@ -21654,7 +21654,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6808528</v>
+        <v>6808530</v>
       </c>
       <c r="C246" t="s">
         <v>39</v>
@@ -21663,76 +21663,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E246" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F246" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J246">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K246">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L246">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="M246">
+        <v>5.75</v>
+      </c>
+      <c r="N246">
+        <v>3.8</v>
+      </c>
+      <c r="O246">
+        <v>1.615</v>
+      </c>
+      <c r="P246">
+        <v>1</v>
+      </c>
+      <c r="Q246">
+        <v>1.75</v>
+      </c>
+      <c r="R246">
         <v>2.05</v>
       </c>
-      <c r="N246">
-        <v>3.6</v>
-      </c>
-      <c r="O246">
-        <v>3.4</v>
-      </c>
-      <c r="P246">
-        <v>-0.25</v>
-      </c>
-      <c r="Q246">
-        <v>1.825</v>
-      </c>
-      <c r="R246">
-        <v>2.025</v>
-      </c>
       <c r="S246">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T246">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U246">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V246">
+        <v>-1</v>
+      </c>
+      <c r="W246">
+        <v>-1</v>
+      </c>
+      <c r="X246">
+        <v>0.615</v>
+      </c>
+      <c r="Y246">
+        <v>-1</v>
+      </c>
+      <c r="Z246">
         <v>1.05</v>
       </c>
-      <c r="W246">
-        <v>-1</v>
-      </c>
-      <c r="X246">
-        <v>-1</v>
-      </c>
-      <c r="Y246">
-        <v>0.825</v>
-      </c>
-      <c r="Z246">
-        <v>-1</v>
-      </c>
       <c r="AA246">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB246">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="247" spans="1:28">
@@ -36704,7 +36704,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7222377</v>
+        <v>7219375</v>
       </c>
       <c r="C421" t="s">
         <v>39</v>
@@ -36713,13 +36713,13 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E421" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F421" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G421">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H421">
         <v>0</v>
@@ -36728,43 +36728,43 @@
         <v>65</v>
       </c>
       <c r="J421">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="K421">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L421">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="M421">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="N421">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="O421">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P421">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q421">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R421">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S421">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T421">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U421">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V421">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="W421">
         <v>-1</v>
@@ -36773,16 +36773,16 @@
         <v>-1</v>
       </c>
       <c r="Y421">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="Z421">
         <v>-1</v>
       </c>
       <c r="AA421">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB421">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422" spans="1:28">
@@ -36790,7 +36790,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7222374</v>
+        <v>7219376</v>
       </c>
       <c r="C422" t="s">
         <v>39</v>
@@ -36799,76 +36799,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E422" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F422" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H422">
         <v>1</v>
       </c>
       <c r="I422" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J422">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="K422">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L422">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="M422">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="N422">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O422">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="P422">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q422">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R422">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S422">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T422">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U422">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V422">
         <v>-1</v>
       </c>
       <c r="W422">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X422">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA422">
         <v>-1</v>
       </c>
       <c r="AB422">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="423" spans="1:28">
@@ -36876,7 +36876,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7219376</v>
+        <v>7222374</v>
       </c>
       <c r="C423" t="s">
         <v>39</v>
@@ -36885,76 +36885,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E423" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F423" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H423">
         <v>1</v>
       </c>
       <c r="I423" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J423">
+        <v>4.5</v>
+      </c>
+      <c r="K423">
+        <v>3.75</v>
+      </c>
+      <c r="L423">
+        <v>1.75</v>
+      </c>
+      <c r="M423">
+        <v>4.2</v>
+      </c>
+      <c r="N423">
+        <v>3.8</v>
+      </c>
+      <c r="O423">
         <v>1.8</v>
       </c>
-      <c r="K423">
-        <v>3.6</v>
-      </c>
-      <c r="L423">
-        <v>4.333</v>
-      </c>
-      <c r="M423">
-        <v>1.65</v>
-      </c>
-      <c r="N423">
-        <v>4</v>
-      </c>
-      <c r="O423">
-        <v>5.25</v>
-      </c>
       <c r="P423">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q423">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R423">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S423">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T423">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U423">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V423">
         <v>-1</v>
       </c>
       <c r="W423">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X423">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y423">
         <v>-1</v>
       </c>
       <c r="Z423">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA423">
         <v>-1</v>
       </c>
       <c r="AB423">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:28">
@@ -36962,7 +36962,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7219375</v>
+        <v>7222377</v>
       </c>
       <c r="C424" t="s">
         <v>39</v>
@@ -36971,13 +36971,13 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E424" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F424" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G424">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H424">
         <v>0</v>
@@ -36986,43 +36986,43 @@
         <v>65</v>
       </c>
       <c r="J424">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="K424">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L424">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="M424">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="N424">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="O424">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P424">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q424">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R424">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S424">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T424">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U424">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V424">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="W424">
         <v>-1</v>
@@ -37031,16 +37031,16 @@
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="Z424">
         <v>-1</v>
       </c>
       <c r="AA424">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB424">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="425" spans="1:28">
@@ -37908,7 +37908,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>7235961</v>
+        <v>7235962</v>
       </c>
       <c r="C435" t="s">
         <v>39</v>
@@ -37917,13 +37917,13 @@
         <v>45360.5</v>
       </c>
       <c r="E435" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F435" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H435">
         <v>2</v>
@@ -37932,61 +37932,61 @@
         <v>64</v>
       </c>
       <c r="J435">
+        <v>2.7</v>
+      </c>
+      <c r="K435">
+        <v>3.4</v>
+      </c>
+      <c r="L435">
         <v>2.5</v>
       </c>
-      <c r="K435">
-        <v>3.25</v>
-      </c>
-      <c r="L435">
-        <v>2.8</v>
-      </c>
       <c r="M435">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N435">
+        <v>3.6</v>
+      </c>
+      <c r="O435">
         <v>3.1</v>
       </c>
-      <c r="O435">
-        <v>3</v>
-      </c>
       <c r="P435">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q435">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R435">
+        <v>1.9</v>
+      </c>
+      <c r="S435">
+        <v>2.25</v>
+      </c>
+      <c r="T435">
+        <v>1.825</v>
+      </c>
+      <c r="U435">
+        <v>2.025</v>
+      </c>
+      <c r="V435">
+        <v>-1</v>
+      </c>
+      <c r="W435">
+        <v>-1</v>
+      </c>
+      <c r="X435">
         <v>2.1</v>
       </c>
-      <c r="S435">
-        <v>2</v>
-      </c>
-      <c r="T435">
-        <v>1.8</v>
-      </c>
-      <c r="U435">
-        <v>2.05</v>
-      </c>
-      <c r="V435">
-        <v>-1</v>
-      </c>
-      <c r="W435">
-        <v>-1</v>
-      </c>
-      <c r="X435">
-        <v>2</v>
-      </c>
       <c r="Y435">
         <v>-1</v>
       </c>
       <c r="Z435">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA435">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB435">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="436" spans="1:28">
@@ -37994,7 +37994,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>7235962</v>
+        <v>7235961</v>
       </c>
       <c r="C436" t="s">
         <v>39</v>
@@ -38003,13 +38003,13 @@
         <v>45360.5</v>
       </c>
       <c r="E436" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F436" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H436">
         <v>2</v>
@@ -38018,40 +38018,40 @@
         <v>64</v>
       </c>
       <c r="J436">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="K436">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L436">
+        <v>2.8</v>
+      </c>
+      <c r="M436">
         <v>2.5</v>
       </c>
-      <c r="M436">
-        <v>2.2</v>
-      </c>
       <c r="N436">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O436">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P436">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q436">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R436">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S436">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T436">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U436">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V436">
         <v>-1</v>
@@ -38060,19 +38060,19 @@
         <v>-1</v>
       </c>
       <c r="X436">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y436">
         <v>-1</v>
       </c>
       <c r="Z436">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AA436">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB436">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437" spans="1:28">
@@ -41004,7 +41004,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>7293680</v>
+        <v>7293681</v>
       </c>
       <c r="C471" t="s">
         <v>39</v>
@@ -41013,76 +41013,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E471" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F471" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G471">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H471">
         <v>1</v>
       </c>
       <c r="I471" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J471">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K471">
         <v>3.4</v>
       </c>
       <c r="L471">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="M471">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="N471">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O471">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="P471">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q471">
-        <v>2.03</v>
+        <v>2.025</v>
       </c>
       <c r="R471">
-        <v>1.87</v>
+        <v>1.825</v>
       </c>
       <c r="S471">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T471">
+        <v>2.025</v>
+      </c>
+      <c r="U471">
         <v>1.825</v>
       </c>
-      <c r="U471">
-        <v>2.025</v>
-      </c>
       <c r="V471">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="W471">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X471">
         <v>-1</v>
       </c>
       <c r="Y471">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="Z471">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA471">
+        <v>-1</v>
+      </c>
+      <c r="AB471">
         <v>0.825</v>
-      </c>
-      <c r="AB471">
-        <v>-1</v>
       </c>
     </row>
     <row r="472" spans="1:28">
@@ -41090,7 +41090,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>7293681</v>
+        <v>7293680</v>
       </c>
       <c r="C472" t="s">
         <v>39</v>
@@ -41099,76 +41099,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E472" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F472" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G472">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H472">
         <v>1</v>
       </c>
       <c r="I472" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J472">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K472">
         <v>3.4</v>
       </c>
       <c r="L472">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="M472">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="N472">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O472">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="P472">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q472">
+        <v>2.03</v>
+      </c>
+      <c r="R472">
+        <v>1.87</v>
+      </c>
+      <c r="S472">
+        <v>2</v>
+      </c>
+      <c r="T472">
+        <v>1.825</v>
+      </c>
+      <c r="U472">
         <v>2.025</v>
       </c>
-      <c r="R472">
-        <v>1.825</v>
-      </c>
-      <c r="S472">
-        <v>2.5</v>
-      </c>
-      <c r="T472">
-        <v>2.025</v>
-      </c>
-      <c r="U472">
-        <v>1.825</v>
-      </c>
       <c r="V472">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="W472">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X472">
         <v>-1</v>
       </c>
       <c r="Y472">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="Z472">
+        <v>-1</v>
+      </c>
+      <c r="AA472">
         <v>0.825</v>
       </c>
-      <c r="AA472">
-        <v>-1</v>
-      </c>
       <c r="AB472">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="473" spans="1:28">
@@ -42810,7 +42810,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>7375573</v>
+        <v>7375574</v>
       </c>
       <c r="C492" t="s">
         <v>39</v>
@@ -42819,73 +42819,73 @@
         <v>45391.65625</v>
       </c>
       <c r="E492" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F492" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G492">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I492" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J492">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="K492">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L492">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="M492">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="N492">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O492">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="P492">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q492">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="R492">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="S492">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T492">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U492">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V492">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W492">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X492">
         <v>-1</v>
       </c>
       <c r="Y492">
-        <v>0.8300000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="Z492">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA492">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB492">
         <v>-1</v>
@@ -42896,7 +42896,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>7375574</v>
+        <v>7375572</v>
       </c>
       <c r="C493" t="s">
         <v>39</v>
@@ -42905,76 +42905,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E493" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F493" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="s">
         <v>66</v>
       </c>
       <c r="J493">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K493">
         <v>3.3</v>
       </c>
       <c r="L493">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M493">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N493">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O493">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="P493">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q493">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="R493">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S493">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T493">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U493">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V493">
         <v>-1</v>
       </c>
       <c r="W493">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="X493">
         <v>-1</v>
       </c>
       <c r="Y493">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="Z493">
+        <v>0</v>
+      </c>
+      <c r="AA493">
         <v>-0.5</v>
       </c>
-      <c r="AA493">
-        <v>1.025</v>
-      </c>
       <c r="AB493">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="494" spans="1:28">
@@ -43068,7 +43068,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>7375572</v>
+        <v>7375573</v>
       </c>
       <c r="C495" t="s">
         <v>39</v>
@@ -43077,76 +43077,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E495" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F495" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G495">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H495">
         <v>1</v>
       </c>
       <c r="I495" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J495">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="K495">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L495">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="M495">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N495">
         <v>3.1</v>
       </c>
       <c r="O495">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P495">
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="R495">
-        <v>1.775</v>
+        <v>2.07</v>
       </c>
       <c r="S495">
         <v>2.25</v>
       </c>
       <c r="T495">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U495">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V495">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W495">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X495">
         <v>-1</v>
       </c>
       <c r="Y495">
-        <v>0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Z495">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA495">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB495">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="496" spans="1:28">
@@ -43498,7 +43498,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>7375580</v>
+        <v>7375578</v>
       </c>
       <c r="C500" t="s">
         <v>39</v>
@@ -43507,73 +43507,73 @@
         <v>45392.66666666666</v>
       </c>
       <c r="E500" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F500" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G500">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J500">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="K500">
+        <v>3.4</v>
+      </c>
+      <c r="L500">
         <v>3.25</v>
       </c>
-      <c r="L500">
-        <v>3</v>
-      </c>
       <c r="M500">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="N500">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O500">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P500">
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R500">
         <v>2.05</v>
       </c>
       <c r="S500">
+        <v>2.75</v>
+      </c>
+      <c r="T500">
+        <v>2.025</v>
+      </c>
+      <c r="U500">
+        <v>1.825</v>
+      </c>
+      <c r="V500">
+        <v>-1</v>
+      </c>
+      <c r="W500">
         <v>2.5</v>
       </c>
-      <c r="T500">
-        <v>1.85</v>
-      </c>
-      <c r="U500">
-        <v>2</v>
-      </c>
-      <c r="V500">
-        <v>1.55</v>
-      </c>
-      <c r="W500">
-        <v>-1</v>
-      </c>
       <c r="X500">
         <v>-1</v>
       </c>
       <c r="Y500">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z500">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA500">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB500">
         <v>-1</v>
@@ -43670,7 +43670,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>7375578</v>
+        <v>7375580</v>
       </c>
       <c r="C502" t="s">
         <v>39</v>
@@ -43679,73 +43679,73 @@
         <v>45392.66666666666</v>
       </c>
       <c r="E502" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F502" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G502">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J502">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="K502">
+        <v>3.25</v>
+      </c>
+      <c r="L502">
+        <v>3</v>
+      </c>
+      <c r="M502">
+        <v>2.55</v>
+      </c>
+      <c r="N502">
         <v>3.4</v>
       </c>
-      <c r="L502">
-        <v>3.25</v>
-      </c>
-      <c r="M502">
-        <v>2.4</v>
-      </c>
-      <c r="N502">
-        <v>3.5</v>
-      </c>
       <c r="O502">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P502">
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R502">
         <v>2.05</v>
       </c>
       <c r="S502">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T502">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U502">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V502">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W502">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X502">
         <v>-1</v>
       </c>
       <c r="Y502">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z502">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA502">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB502">
         <v>-1</v>
@@ -44358,7 +44358,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>7390186</v>
+        <v>7386115</v>
       </c>
       <c r="C510" t="s">
         <v>39</v>
@@ -44367,49 +44367,49 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E510" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F510" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G510">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I510" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J510">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="K510">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L510">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="M510">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="N510">
         <v>3.6</v>
       </c>
       <c r="O510">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="P510">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q510">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R510">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S510">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T510">
         <v>1.875</v>
@@ -44418,25 +44418,25 @@
         <v>1.975</v>
       </c>
       <c r="V510">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="W510">
         <v>-1</v>
       </c>
       <c r="X510">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y510">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z510">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA510">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB510">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="511" spans="1:28">
@@ -44444,7 +44444,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>7401203</v>
+        <v>7390186</v>
       </c>
       <c r="C511" t="s">
         <v>39</v>
@@ -44453,76 +44453,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E511" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F511" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G511">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J511">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="K511">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L511">
-        <v>3.9</v>
+        <v>2.25</v>
       </c>
       <c r="M511">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N511">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O511">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="P511">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q511">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R511">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S511">
         <v>2.75</v>
       </c>
       <c r="T511">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U511">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V511">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="W511">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X511">
         <v>-1</v>
       </c>
       <c r="Y511">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z511">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA511">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB511">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="512" spans="1:28">
@@ -44530,7 +44530,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>7386115</v>
+        <v>7401203</v>
       </c>
       <c r="C512" t="s">
         <v>39</v>
@@ -44539,40 +44539,40 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E512" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F512" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G512">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H512">
         <v>1</v>
       </c>
       <c r="I512" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J512">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="K512">
         <v>3.75</v>
       </c>
       <c r="L512">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M512">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="N512">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O512">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P512">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q512">
         <v>2.025</v>
@@ -44581,22 +44581,22 @@
         <v>1.825</v>
       </c>
       <c r="S512">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T512">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U512">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V512">
         <v>-1</v>
       </c>
       <c r="W512">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X512">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y512">
         <v>-1</v>
@@ -44608,7 +44608,7 @@
         <v>-1</v>
       </c>
       <c r="AB512">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:28">
@@ -46508,7 +46508,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>7434337</v>
+        <v>7434338</v>
       </c>
       <c r="C535" t="s">
         <v>39</v>
@@ -46517,76 +46517,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E535" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F535" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G535">
+        <v>0</v>
+      </c>
+      <c r="H535">
+        <v>1</v>
+      </c>
+      <c r="I535" t="s">
+        <v>64</v>
+      </c>
+      <c r="J535">
+        <v>1.444</v>
+      </c>
+      <c r="K535">
+        <v>5.25</v>
+      </c>
+      <c r="L535">
+        <v>5.5</v>
+      </c>
+      <c r="M535">
+        <v>1.727</v>
+      </c>
+      <c r="N535">
+        <v>4.5</v>
+      </c>
+      <c r="O535">
+        <v>4</v>
+      </c>
+      <c r="P535">
+        <v>-0.75</v>
+      </c>
+      <c r="Q535">
+        <v>1.925</v>
+      </c>
+      <c r="R535">
+        <v>1.925</v>
+      </c>
+      <c r="S535">
+        <v>3.25</v>
+      </c>
+      <c r="T535">
+        <v>2</v>
+      </c>
+      <c r="U535">
+        <v>1.85</v>
+      </c>
+      <c r="V535">
+        <v>-1</v>
+      </c>
+      <c r="W535">
+        <v>-1</v>
+      </c>
+      <c r="X535">
         <v>3</v>
       </c>
-      <c r="H535">
-        <v>0</v>
-      </c>
-      <c r="I535" t="s">
-        <v>65</v>
-      </c>
-      <c r="J535">
-        <v>3</v>
-      </c>
-      <c r="K535">
-        <v>3.25</v>
-      </c>
-      <c r="L535">
-        <v>2.375</v>
-      </c>
-      <c r="M535">
-        <v>2.8</v>
-      </c>
-      <c r="N535">
-        <v>3.2</v>
-      </c>
-      <c r="O535">
-        <v>2.55</v>
-      </c>
-      <c r="P535">
-        <v>0</v>
-      </c>
-      <c r="Q535">
-        <v>2.025</v>
-      </c>
-      <c r="R535">
-        <v>1.825</v>
-      </c>
-      <c r="S535">
-        <v>2.25</v>
-      </c>
-      <c r="T535">
-        <v>2.05</v>
-      </c>
-      <c r="U535">
-        <v>1.8</v>
-      </c>
-      <c r="V535">
-        <v>1.8</v>
-      </c>
-      <c r="W535">
-        <v>-1</v>
-      </c>
-      <c r="X535">
-        <v>-1</v>
-      </c>
       <c r="Y535">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z535">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA535">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB535">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="536" spans="1:28">
@@ -46594,7 +46594,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>7434338</v>
+        <v>7434336</v>
       </c>
       <c r="C536" t="s">
         <v>39</v>
@@ -46603,76 +46603,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E536" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F536" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G536">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I536" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J536">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="K536">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="L536">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M536">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="N536">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O536">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P536">
         <v>-0.75</v>
       </c>
       <c r="Q536">
-        <v>1.925</v>
+        <v>1.87</v>
       </c>
       <c r="R536">
-        <v>1.925</v>
+        <v>2.03</v>
       </c>
       <c r="S536">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T536">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U536">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V536">
         <v>-1</v>
       </c>
       <c r="W536">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X536">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y536">
         <v>-1</v>
       </c>
       <c r="Z536">
-        <v>0.925</v>
+        <v>1.03</v>
       </c>
       <c r="AA536">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB536">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537" spans="1:28">
@@ -46680,7 +46680,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>7434336</v>
+        <v>7434337</v>
       </c>
       <c r="C537" t="s">
         <v>39</v>
@@ -46689,73 +46689,73 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E537" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F537" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G537">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J537">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="K537">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L537">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="M537">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="N537">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="O537">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="P537">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q537">
-        <v>1.87</v>
+        <v>2.025</v>
       </c>
       <c r="R537">
-        <v>2.03</v>
+        <v>1.825</v>
       </c>
       <c r="S537">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T537">
+        <v>2.05</v>
+      </c>
+      <c r="U537">
         <v>1.8</v>
       </c>
-      <c r="U537">
-        <v>2.05</v>
-      </c>
       <c r="V537">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W537">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X537">
         <v>-1</v>
       </c>
       <c r="Y537">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z537">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AA537">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB537">
         <v>-1</v>
@@ -47048,13 +47048,13 @@
         <v>4</v>
       </c>
       <c r="M541">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="N541">
         <v>4</v>
       </c>
       <c r="O541">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P541">
         <v>-0.75</v>
@@ -47069,10 +47069,10 @@
         <v>3</v>
       </c>
       <c r="T541">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U541">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V541">
         <v>0</v>
@@ -47098,46 +47098,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E542" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F542" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J542">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="K542">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L542">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M542">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="N542">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O542">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P542">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q542">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="R542">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S542">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T542">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U542">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V542">
         <v>0</v>
@@ -47163,46 +47163,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E543" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F543" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J543">
         <v>1.666</v>
       </c>
       <c r="K543">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L543">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M543">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="N543">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O543">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="P543">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q543">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="R543">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S543">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T543">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U543">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V543">
         <v>0</v>
@@ -47228,46 +47228,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E544" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F544" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J544">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="K544">
+        <v>3.6</v>
+      </c>
+      <c r="L544">
+        <v>3</v>
+      </c>
+      <c r="M544">
+        <v>2.375</v>
+      </c>
+      <c r="N544">
         <v>3.75</v>
       </c>
-      <c r="L544">
-        <v>5</v>
-      </c>
-      <c r="M544">
-        <v>1.45</v>
-      </c>
-      <c r="N544">
-        <v>4.2</v>
-      </c>
       <c r="O544">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="P544">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q544">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="R544">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="S544">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T544">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U544">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V544">
         <v>0</v>
@@ -47293,46 +47293,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E545" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F545" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J545">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="K545">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L545">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="M545">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N545">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O545">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="P545">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q545">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="R545">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="S545">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T545">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U545">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V545">
         <v>0</v>
@@ -47358,46 +47358,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E546" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F546" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="J546">
-        <v>2.7</v>
+        <v>1.952</v>
       </c>
       <c r="K546">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L546">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="M546">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="N546">
         <v>3.4</v>
       </c>
       <c r="O546">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="P546">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q546">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="R546">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="S546">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T546">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U546">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V546">
         <v>0</v>
@@ -47423,46 +47423,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E547" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F547" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J547">
-        <v>1.952</v>
+        <v>1.727</v>
       </c>
       <c r="K547">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L547">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M547">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="N547">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O547">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P547">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q547">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="R547">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S547">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T547">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U547">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V547">
         <v>0</v>
@@ -47488,46 +47488,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E548" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F548" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J548">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="K548">
         <v>3.6</v>
       </c>
       <c r="L548">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="M548">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="N548">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="O548">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="P548">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q548">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R548">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S548">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T548">
+        <v>1.825</v>
+      </c>
+      <c r="U548">
         <v>2.025</v>
-      </c>
-      <c r="U548">
-        <v>1.825</v>
       </c>
       <c r="V548">
         <v>0</v>
@@ -47553,46 +47553,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E549" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F549" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J549">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K549">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L549">
         <v>2</v>
       </c>
       <c r="M549">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N549">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O549">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="P549">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q549">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="R549">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S549">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T549">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U549">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V549">
         <v>0</v>
@@ -47618,46 +47618,46 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E550" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F550" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J550">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="K550">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L550">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="M550">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="N550">
         <v>3.4</v>
       </c>
       <c r="O550">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="P550">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q550">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="R550">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S550">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T550">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U550">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V550">
         <v>0</v>
@@ -47683,28 +47683,28 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E551" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F551" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J551">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K551">
         <v>3.25</v>
       </c>
       <c r="L551">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M551">
         <v>2.05</v>
       </c>
       <c r="N551">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O551">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P551">
         <v>-0.5</v>
@@ -47719,10 +47719,10 @@
         <v>2.5</v>
       </c>
       <c r="T551">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U551">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V551">
         <v>0</v>
@@ -47775,19 +47775,19 @@
         <v>-1.75</v>
       </c>
       <c r="Q552">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R552">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S552">
         <v>3.25</v>
       </c>
       <c r="T552">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U552">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V552">
         <v>0</v>

--- a/England Championship/England Championship.xlsx
+++ b/England Championship/England Championship.xlsx
@@ -48148,19 +48148,19 @@
         <v>0.25</v>
       </c>
       <c r="Q554">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="R554">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S554">
         <v>2.5</v>
       </c>
       <c r="T554">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U554">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V554">
         <v>0</v>
@@ -48201,7 +48201,7 @@
         <v>2.3</v>
       </c>
       <c r="M555">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N555">
         <v>3.2</v>
@@ -48213,19 +48213,19 @@
         <v>0</v>
       </c>
       <c r="Q555">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="R555">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S555">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T555">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U555">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V555">
         <v>0</v>

--- a/England Championship/England Championship.xlsx
+++ b/England Championship/England Championship.xlsx
@@ -124,13 +124,13 @@
     <t>Plymouth</t>
   </si>
   <si>
-    <t>Bristol City</t>
+    <t>Watford</t>
   </si>
   <si>
     <t>Stoke</t>
   </si>
   <si>
-    <t>Watford</t>
+    <t>Bristol City</t>
   </si>
   <si>
     <t>Leicester</t>
@@ -148,13 +148,13 @@
     <t>Southampton</t>
   </si>
   <si>
+    <t>Hull</t>
+  </si>
+  <si>
     <t>West Brom</t>
   </si>
   <si>
     <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Hull</t>
   </si>
   <si>
     <t>Cardiff</t>
@@ -842,7 +842,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1026,7 +1026,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1198,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6806669</v>
+        <v>6806673</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1210,79 +1210,79 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L8">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="M8">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O8">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="P8">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q8">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="R8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S8">
-        <v>1.83</v>
+        <v>2.09</v>
       </c>
       <c r="T8">
-        <v>2.07</v>
+        <v>1.81</v>
       </c>
       <c r="U8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y8">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>1.09</v>
       </c>
       <c r="AB8">
-        <v>0.5349999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD8">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1382,7 +1382,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6806673</v>
+        <v>6806669</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1394,79 +1394,79 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L10">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N10">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="P10">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q10">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="R10">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S10">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="T10">
-        <v>1.81</v>
+        <v>2.07</v>
       </c>
       <c r="U10">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W10">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="X10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>1.09</v>
+        <v>-0.5</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.5349999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD10">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1670,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1934,7 +1934,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6808378</v>
+        <v>6808219</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1946,10 +1946,10 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1958,31 +1958,31 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
         <v>56</v>
       </c>
       <c r="L16">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="M16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N16">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O16">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="P16">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q16">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S16">
         <v>2.05</v>
@@ -1991,16 +1991,16 @@
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W16">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X16">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
@@ -2015,7 +2015,7 @@
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AD16">
         <v>-1</v>
@@ -2026,7 +2026,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6808220</v>
+        <v>6808378</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2038,13 +2038,13 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2056,19 +2056,19 @@
         <v>56</v>
       </c>
       <c r="L17">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="M17">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N17">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O17">
         <v>2.05</v>
       </c>
       <c r="P17">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q17">
         <v>3.6</v>
@@ -2077,19 +2077,19 @@
         <v>-0.5</v>
       </c>
       <c r="S17">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="T17">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U17">
         <v>2.5</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X17">
         <v>1.05</v>
@@ -2101,16 +2101,16 @@
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2118,7 +2118,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6808219</v>
+        <v>6808220</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2130,19 +2130,19 @@
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
         <v>56</v>
@@ -2151,31 +2151,31 @@
         <v>2.1</v>
       </c>
       <c r="M18">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N18">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O18">
+        <v>2.05</v>
+      </c>
+      <c r="P18">
+        <v>3.6</v>
+      </c>
+      <c r="Q18">
+        <v>3.6</v>
+      </c>
+      <c r="R18">
+        <v>-0.5</v>
+      </c>
+      <c r="S18">
+        <v>2.09</v>
+      </c>
+      <c r="T18">
+        <v>1.81</v>
+      </c>
+      <c r="U18">
         <v>2.5</v>
-      </c>
-      <c r="P18">
-        <v>3.2</v>
-      </c>
-      <c r="Q18">
-        <v>3</v>
-      </c>
-      <c r="R18">
-        <v>-0.25</v>
-      </c>
-      <c r="S18">
-        <v>2.05</v>
-      </c>
-      <c r="T18">
-        <v>1.8</v>
-      </c>
-      <c r="U18">
-        <v>2.25</v>
       </c>
       <c r="V18">
         <v>1.925</v>
@@ -2184,7 +2184,7 @@
         <v>1.925</v>
       </c>
       <c r="X18">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="Y18">
         <v>-1</v>
@@ -2193,16 +2193,16 @@
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
+        <v>-1</v>
+      </c>
+      <c r="AD18">
         <v>0.925</v>
-      </c>
-      <c r="AD18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2406,7 +2406,7 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>45150.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
         <v>35</v>
@@ -2866,7 +2866,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -3142,7 +3142,7 @@
         <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
         <v>51</v>
@@ -3326,7 +3326,7 @@
         <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3602,7 +3602,7 @@
         <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3967,10 +3967,10 @@
         <v>45163.64583333334</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -4243,7 +4243,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
         <v>33</v>
@@ -4887,7 +4887,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F48" t="s">
         <v>40</v>
@@ -4979,7 +4979,7 @@
         <v>45165.33333333334</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
         <v>34</v>
@@ -5166,7 +5166,7 @@
         <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5350,7 +5350,7 @@
         <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5442,7 +5442,7 @@
         <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -5623,7 +5623,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F56" t="s">
         <v>47</v>
@@ -5899,7 +5899,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
         <v>50</v>
@@ -6175,7 +6175,7 @@
         <v>45184.65625</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -6362,7 +6362,7 @@
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6543,10 +6543,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
         <v>51</v>
@@ -7466,7 +7466,7 @@
         <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>45188.65625</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
         <v>35</v>
@@ -7831,10 +7831,10 @@
         <v>45189.65625</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -8015,7 +8015,7 @@
         <v>45189.65625</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
         <v>40</v>
@@ -8475,7 +8475,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
         <v>49</v>
@@ -8662,7 +8662,7 @@
         <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8754,7 +8754,7 @@
         <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8935,7 +8935,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F92" t="s">
         <v>34</v>
@@ -9214,7 +9214,7 @@
         <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9950,7 +9950,7 @@
         <v>48</v>
       </c>
       <c r="F103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -10039,7 +10039,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
         <v>37</v>
@@ -10134,7 +10134,7 @@
         <v>50</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -10223,7 +10223,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
         <v>35</v>
@@ -10315,7 +10315,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
         <v>33</v>
@@ -10591,10 +10591,10 @@
         <v>45202.65625</v>
       </c>
       <c r="E110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G110">
         <v>3</v>
@@ -10959,7 +10959,7 @@
         <v>45202.66666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
         <v>30</v>
@@ -11330,7 +11330,7 @@
         <v>41</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -11606,7 +11606,7 @@
         <v>52</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -11698,7 +11698,7 @@
         <v>51</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -11882,7 +11882,7 @@
         <v>47</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -12066,7 +12066,7 @@
         <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -12342,7 +12342,7 @@
         <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -12615,7 +12615,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F132" t="s">
         <v>48</v>
@@ -12983,7 +12983,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
         <v>30</v>
@@ -13075,7 +13075,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F137" t="s">
         <v>35</v>
@@ -13167,7 +13167,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F138" t="s">
         <v>43</v>
@@ -13351,7 +13351,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F140" t="s">
         <v>42</v>
@@ -13814,7 +13814,7 @@
         <v>31</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -14179,7 +14179,7 @@
         <v>45223.66666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F149" t="s">
         <v>53</v>
@@ -14455,10 +14455,10 @@
         <v>45224.65625</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -14550,7 +14550,7 @@
         <v>51</v>
       </c>
       <c r="F153" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -15191,7 +15191,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E160" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F160" t="s">
         <v>48</v>
@@ -15467,7 +15467,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F163" t="s">
         <v>49</v>
@@ -15559,7 +15559,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F164" t="s">
         <v>35</v>
@@ -15654,7 +15654,7 @@
         <v>47</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -15930,7 +15930,7 @@
         <v>42</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>50</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -16295,7 +16295,7 @@
         <v>45234.5</v>
       </c>
       <c r="E172" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F172" t="s">
         <v>30</v>
@@ -16571,10 +16571,10 @@
         <v>45234.5</v>
       </c>
       <c r="E175" t="s">
+        <v>45</v>
+      </c>
+      <c r="F175" t="s">
         <v>44</v>
-      </c>
-      <c r="F175" t="s">
-        <v>46</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -16942,7 +16942,7 @@
         <v>51</v>
       </c>
       <c r="F179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -17126,7 +17126,7 @@
         <v>52</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -17491,7 +17491,7 @@
         <v>45241.5</v>
       </c>
       <c r="E185" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F185" t="s">
         <v>52</v>
@@ -17767,7 +17767,7 @@
         <v>45241.5</v>
       </c>
       <c r="E188" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F188" t="s">
         <v>50</v>
@@ -17859,7 +17859,7 @@
         <v>45241.5</v>
       </c>
       <c r="E189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F189" t="s">
         <v>31</v>
@@ -18138,7 +18138,7 @@
         <v>53</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -18230,7 +18230,7 @@
         <v>43</v>
       </c>
       <c r="F193" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -18874,7 +18874,7 @@
         <v>31</v>
       </c>
       <c r="F200" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -18963,7 +18963,7 @@
         <v>45255.5</v>
       </c>
       <c r="E201" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F201" t="s">
         <v>33</v>
@@ -19058,7 +19058,7 @@
         <v>39</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G202">
         <v>2</v>
@@ -19331,10 +19331,10 @@
         <v>45255.60416666666</v>
       </c>
       <c r="E205" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F205" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -19610,7 +19610,7 @@
         <v>47</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -19699,7 +19699,7 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E209" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F209" t="s">
         <v>52</v>
@@ -19883,7 +19883,7 @@
         <v>45258.70833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F211" t="s">
         <v>32</v>
@@ -19966,7 +19966,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6808248</v>
+        <v>6808511</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -19975,82 +19975,82 @@
         <v>45259.69791666666</v>
       </c>
       <c r="E212" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G212">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212">
         <v>1</v>
       </c>
       <c r="K212" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L212">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="M212">
         <v>4</v>
       </c>
       <c r="N212">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="O212">
+        <v>1.5</v>
+      </c>
+      <c r="P212">
+        <v>4.333</v>
+      </c>
+      <c r="Q212">
+        <v>6.5</v>
+      </c>
+      <c r="R212">
+        <v>-1</v>
+      </c>
+      <c r="S212">
+        <v>1.88</v>
+      </c>
+      <c r="T212">
+        <v>2.02</v>
+      </c>
+      <c r="U212">
+        <v>2.75</v>
+      </c>
+      <c r="V212">
+        <v>2.025</v>
+      </c>
+      <c r="W212">
+        <v>1.825</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
         <v>5.5</v>
       </c>
-      <c r="P212">
-        <v>3.8</v>
-      </c>
-      <c r="Q212">
-        <v>1.615</v>
-      </c>
-      <c r="R212">
-        <v>0.75</v>
-      </c>
-      <c r="S212">
-        <v>2.025</v>
-      </c>
-      <c r="T212">
-        <v>1.825</v>
-      </c>
-      <c r="U212">
-        <v>2.5</v>
-      </c>
-      <c r="V212">
-        <v>2.05</v>
-      </c>
-      <c r="W212">
-        <v>1.8</v>
-      </c>
-      <c r="X212">
-        <v>-1</v>
-      </c>
-      <c r="Y212">
-        <v>2.8</v>
-      </c>
-      <c r="Z212">
-        <v>-1</v>
-      </c>
       <c r="AA212">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AD212">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20058,7 +20058,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6808511</v>
+        <v>6808510</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20067,55 +20067,55 @@
         <v>45259.69791666666</v>
       </c>
       <c r="E213" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F213" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J213">
         <v>1</v>
       </c>
       <c r="K213" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L213">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="M213">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N213">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="O213">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="P213">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q213">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="R213">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="S213">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="U213">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V213">
         <v>2.025</v>
@@ -20124,25 +20124,25 @@
         <v>1.825</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB213">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AD213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20150,7 +20150,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6808510</v>
+        <v>6808248</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -20159,82 +20159,82 @@
         <v>45259.69791666666</v>
       </c>
       <c r="E214" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J214">
         <v>1</v>
       </c>
       <c r="K214" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L214">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="M214">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="O214">
-        <v>1.333</v>
+        <v>5.5</v>
       </c>
       <c r="P214">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q214">
-        <v>8.5</v>
+        <v>1.615</v>
       </c>
       <c r="R214">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T214">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U214">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V214">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W214">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X214">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -20254,7 +20254,7 @@
         <v>43</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -20435,7 +20435,7 @@
         <v>45259.70833333334</v>
       </c>
       <c r="E217" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F217" t="s">
         <v>49</v>
@@ -20619,7 +20619,7 @@
         <v>45262.39583333334</v>
       </c>
       <c r="E219" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F219" t="s">
         <v>39</v>
@@ -20987,7 +20987,7 @@
         <v>45262.5</v>
       </c>
       <c r="E223" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F223" t="s">
         <v>42</v>
@@ -21355,10 +21355,10 @@
         <v>45262.5</v>
       </c>
       <c r="E227" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F227" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -21539,7 +21539,7 @@
         <v>45263.4375</v>
       </c>
       <c r="E229" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F229" t="s">
         <v>32</v>
@@ -21818,7 +21818,7 @@
         <v>41</v>
       </c>
       <c r="F232" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -21910,7 +21910,7 @@
         <v>53</v>
       </c>
       <c r="F233" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -22183,7 +22183,7 @@
         <v>45269.5</v>
       </c>
       <c r="E236" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F236" t="s">
         <v>43</v>
@@ -22370,7 +22370,7 @@
         <v>50</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -22462,7 +22462,7 @@
         <v>33</v>
       </c>
       <c r="F239" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -22738,7 +22738,7 @@
         <v>34</v>
       </c>
       <c r="F242" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G242">
         <v>2</v>
@@ -22827,10 +22827,10 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E243" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F243" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -23014,7 +23014,7 @@
         <v>52</v>
       </c>
       <c r="F245" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>33</v>
       </c>
       <c r="F253" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -23839,7 +23839,7 @@
         <v>45276.39583333334</v>
       </c>
       <c r="E254" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F254" t="s">
         <v>32</v>
@@ -24023,7 +24023,7 @@
         <v>45276.5</v>
       </c>
       <c r="E256" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F256" t="s">
         <v>41</v>
@@ -24115,7 +24115,7 @@
         <v>45276.5</v>
       </c>
       <c r="E257" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F257" t="s">
         <v>47</v>
@@ -24302,7 +24302,7 @@
         <v>48</v>
       </c>
       <c r="F259" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -24759,7 +24759,7 @@
         <v>45277.375</v>
       </c>
       <c r="E264" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F264" t="s">
         <v>37</v>
@@ -25035,10 +25035,10 @@
         <v>45282.69791666666</v>
       </c>
       <c r="E267" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F267" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G267">
         <v>3</v>
@@ -25130,7 +25130,7 @@
         <v>40</v>
       </c>
       <c r="F268" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G268">
         <v>4</v>
@@ -25682,7 +25682,7 @@
         <v>34</v>
       </c>
       <c r="F274" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -25958,7 +25958,7 @@
         <v>33</v>
       </c>
       <c r="F277" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -26323,7 +26323,7 @@
         <v>45286.5</v>
       </c>
       <c r="E281" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F281" t="s">
         <v>32</v>
@@ -26507,10 +26507,10 @@
         <v>45286.5</v>
       </c>
       <c r="E283" t="s">
+        <v>36</v>
+      </c>
+      <c r="F283" t="s">
         <v>38</v>
-      </c>
-      <c r="F283" t="s">
-        <v>36</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -26875,7 +26875,7 @@
         <v>45286.5</v>
       </c>
       <c r="E287" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F287" t="s">
         <v>41</v>
@@ -27059,7 +27059,7 @@
         <v>45286.69791666666</v>
       </c>
       <c r="E289" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F289" t="s">
         <v>39</v>
@@ -27243,7 +27243,7 @@
         <v>45289.69791666666</v>
       </c>
       <c r="E291" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F291" t="s">
         <v>34</v>
@@ -27611,7 +27611,7 @@
         <v>45289.69791666666</v>
       </c>
       <c r="E295" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F295" t="s">
         <v>37</v>
@@ -27798,7 +27798,7 @@
         <v>51</v>
       </c>
       <c r="F297" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -27887,7 +27887,7 @@
         <v>45289.69791666666</v>
       </c>
       <c r="E298" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F298" t="s">
         <v>53</v>
@@ -28163,7 +28163,7 @@
         <v>45289.71875</v>
       </c>
       <c r="E301" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F301" t="s">
         <v>40</v>
@@ -28338,7 +28338,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6808572</v>
+        <v>6808571</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -28347,19 +28347,19 @@
         <v>45292.5</v>
       </c>
       <c r="E303" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F303" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G303">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J303">
         <v>0</v>
@@ -28368,43 +28368,43 @@
         <v>56</v>
       </c>
       <c r="L303">
-        <v>1.2</v>
+        <v>1.222</v>
       </c>
       <c r="M303">
         <v>7</v>
       </c>
       <c r="N303">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="O303">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="P303">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="Q303">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="R303">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S303">
+        <v>2</v>
+      </c>
+      <c r="T303">
         <v>1.85</v>
       </c>
-      <c r="T303">
-        <v>2.05</v>
-      </c>
       <c r="U303">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V303">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W303">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X303">
-        <v>0.25</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y303">
         <v>-1</v>
@@ -28413,16 +28413,16 @@
         <v>-1</v>
       </c>
       <c r="AA303">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB303">
         <v>-1</v>
       </c>
       <c r="AC303">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AD303">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="304" spans="1:30">
@@ -28430,7 +28430,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6808571</v>
+        <v>6808572</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28439,19 +28439,19 @@
         <v>45292.5</v>
       </c>
       <c r="E304" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F304" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G304">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J304">
         <v>0</v>
@@ -28460,43 +28460,43 @@
         <v>56</v>
       </c>
       <c r="L304">
-        <v>1.222</v>
+        <v>1.2</v>
       </c>
       <c r="M304">
         <v>7</v>
       </c>
       <c r="N304">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="O304">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="P304">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q304">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="R304">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S304">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T304">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="U304">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V304">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W304">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X304">
-        <v>0.2849999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Y304">
         <v>-1</v>
@@ -28505,16 +28505,16 @@
         <v>-1</v>
       </c>
       <c r="AA304">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB304">
         <v>-1</v>
       </c>
       <c r="AC304">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AD304">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:30">
@@ -28626,7 +28626,7 @@
         <v>35</v>
       </c>
       <c r="F306" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G306">
         <v>3</v>
@@ -28810,7 +28810,7 @@
         <v>31</v>
       </c>
       <c r="F308" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G308">
         <v>1</v>
@@ -28890,7 +28890,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6808264</v>
+        <v>6808573</v>
       </c>
       <c r="C309" t="s">
         <v>29</v>
@@ -28899,82 +28899,82 @@
         <v>45292.5</v>
       </c>
       <c r="E309" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F309" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K309" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L309">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="M309">
+        <v>3.6</v>
+      </c>
+      <c r="N309">
+        <v>3.6</v>
+      </c>
+      <c r="O309">
+        <v>2.05</v>
+      </c>
+      <c r="P309">
+        <v>3.6</v>
+      </c>
+      <c r="Q309">
         <v>3.4</v>
       </c>
-      <c r="N309">
-        <v>2.2</v>
-      </c>
-      <c r="O309">
-        <v>3</v>
-      </c>
-      <c r="P309">
-        <v>3.25</v>
-      </c>
-      <c r="Q309">
-        <v>2.375</v>
-      </c>
       <c r="R309">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S309">
-        <v>1.825</v>
+        <v>2.08</v>
       </c>
       <c r="T309">
-        <v>2.025</v>
+        <v>1.82</v>
       </c>
       <c r="U309">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V309">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W309">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X309">
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA309">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
-        <v>-0.5</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC309">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD309">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:30">
@@ -28982,7 +28982,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6808573</v>
+        <v>6808264</v>
       </c>
       <c r="C310" t="s">
         <v>29</v>
@@ -28991,82 +28991,82 @@
         <v>45292.5</v>
       </c>
       <c r="E310" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F310" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310" t="s">
+        <v>55</v>
+      </c>
+      <c r="L310">
+        <v>3.25</v>
+      </c>
+      <c r="M310">
+        <v>3.4</v>
+      </c>
+      <c r="N310">
+        <v>2.2</v>
+      </c>
+      <c r="O310">
         <v>3</v>
       </c>
-      <c r="I310">
-        <v>1</v>
-      </c>
-      <c r="J310">
-        <v>1</v>
-      </c>
-      <c r="K310" t="s">
-        <v>54</v>
-      </c>
-      <c r="L310">
-        <v>1.95</v>
-      </c>
-      <c r="M310">
-        <v>3.6</v>
-      </c>
-      <c r="N310">
-        <v>3.6</v>
-      </c>
-      <c r="O310">
-        <v>2.05</v>
-      </c>
       <c r="P310">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q310">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="R310">
+        <v>0.25</v>
+      </c>
+      <c r="S310">
+        <v>1.825</v>
+      </c>
+      <c r="T310">
+        <v>2.025</v>
+      </c>
+      <c r="U310">
+        <v>2.5</v>
+      </c>
+      <c r="V310">
+        <v>2.025</v>
+      </c>
+      <c r="W310">
+        <v>1.825</v>
+      </c>
+      <c r="X310">
+        <v>-1</v>
+      </c>
+      <c r="Y310">
+        <v>2.25</v>
+      </c>
+      <c r="Z310">
+        <v>-1</v>
+      </c>
+      <c r="AA310">
+        <v>0.4125</v>
+      </c>
+      <c r="AB310">
         <v>-0.5</v>
       </c>
-      <c r="S310">
-        <v>2.08</v>
-      </c>
-      <c r="T310">
-        <v>1.82</v>
-      </c>
-      <c r="U310">
-        <v>2.75</v>
-      </c>
-      <c r="V310">
-        <v>1.95</v>
-      </c>
-      <c r="W310">
-        <v>1.9</v>
-      </c>
-      <c r="X310">
-        <v>-1</v>
-      </c>
-      <c r="Y310">
-        <v>-1</v>
-      </c>
-      <c r="Z310">
-        <v>2.4</v>
-      </c>
-      <c r="AA310">
-        <v>-1</v>
-      </c>
-      <c r="AB310">
-        <v>0.8200000000000001</v>
-      </c>
       <c r="AC310">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD310">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="311" spans="1:30">
@@ -29175,7 +29175,7 @@
         <v>45292.5</v>
       </c>
       <c r="E312" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F312" t="s">
         <v>49</v>
@@ -29270,7 +29270,7 @@
         <v>30</v>
       </c>
       <c r="F313" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G313">
         <v>3</v>
@@ -29359,7 +29359,7 @@
         <v>45303.70833333334</v>
       </c>
       <c r="E314" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F314" t="s">
         <v>32</v>
@@ -29546,7 +29546,7 @@
         <v>48</v>
       </c>
       <c r="F316" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G316">
         <v>2</v>
@@ -30095,7 +30095,7 @@
         <v>45304.5</v>
       </c>
       <c r="E322" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F322" t="s">
         <v>34</v>
@@ -30279,7 +30279,7 @@
         <v>45304.60416666666</v>
       </c>
       <c r="E324" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F324" t="s">
         <v>41</v>
@@ -30374,7 +30374,7 @@
         <v>53</v>
       </c>
       <c r="F325" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G325">
         <v>1</v>
@@ -30466,7 +30466,7 @@
         <v>41</v>
       </c>
       <c r="F326" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -30647,10 +30647,10 @@
         <v>45311.5</v>
       </c>
       <c r="E328" t="s">
+        <v>38</v>
+      </c>
+      <c r="F328" t="s">
         <v>36</v>
-      </c>
-      <c r="F328" t="s">
-        <v>38</v>
       </c>
       <c r="G328">
         <v>1</v>
@@ -31110,7 +31110,7 @@
         <v>32</v>
       </c>
       <c r="F333" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G333">
         <v>2</v>
@@ -31190,7 +31190,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6808267</v>
+        <v>6808585</v>
       </c>
       <c r="C334" t="s">
         <v>29</v>
@@ -31199,82 +31199,82 @@
         <v>45311.5</v>
       </c>
       <c r="E334" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F334" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G334">
         <v>1</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334">
         <v>1</v>
       </c>
       <c r="K334" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L334">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M334">
         <v>3.4</v>
       </c>
       <c r="N334">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O334">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="P334">
         <v>3.75</v>
       </c>
       <c r="Q334">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R334">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S334">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T334">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U334">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V334">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W334">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z334">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
         <v>-1</v>
       </c>
       <c r="AB334">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC334">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD334">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="335" spans="1:30">
@@ -31282,7 +31282,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6808585</v>
+        <v>6808267</v>
       </c>
       <c r="C335" t="s">
         <v>29</v>
@@ -31291,82 +31291,82 @@
         <v>45311.5</v>
       </c>
       <c r="E335" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F335" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G335">
         <v>1</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335">
         <v>1</v>
       </c>
       <c r="K335" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L335">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M335">
         <v>3.4</v>
       </c>
       <c r="N335">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O335">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="P335">
         <v>3.75</v>
       </c>
       <c r="Q335">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R335">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S335">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T335">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U335">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V335">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W335">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X335">
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA335">
         <v>-1</v>
       </c>
       <c r="AB335">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC335">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD335">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:30">
@@ -31478,7 +31478,7 @@
         <v>39</v>
       </c>
       <c r="F337" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G337">
         <v>1</v>
@@ -31650,7 +31650,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6994921</v>
+        <v>6808594</v>
       </c>
       <c r="C339" t="s">
         <v>29</v>
@@ -31659,82 +31659,82 @@
         <v>45318.5</v>
       </c>
       <c r="E339" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F339" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>1</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+      <c r="J339">
+        <v>1</v>
+      </c>
+      <c r="K339" t="s">
+        <v>55</v>
+      </c>
+      <c r="L339">
+        <v>2.1</v>
+      </c>
+      <c r="M339">
+        <v>3.25</v>
+      </c>
+      <c r="N339">
+        <v>3.5</v>
+      </c>
+      <c r="O339">
+        <v>2.1</v>
+      </c>
+      <c r="P339">
         <v>3</v>
-      </c>
-      <c r="H339">
-        <v>1</v>
-      </c>
-      <c r="I339">
-        <v>1</v>
-      </c>
-      <c r="J339">
-        <v>0</v>
-      </c>
-      <c r="K339" t="s">
-        <v>56</v>
-      </c>
-      <c r="L339">
-        <v>1.909</v>
-      </c>
-      <c r="M339">
-        <v>3.4</v>
-      </c>
-      <c r="N339">
-        <v>4</v>
-      </c>
-      <c r="O339">
-        <v>1.909</v>
-      </c>
-      <c r="P339">
-        <v>3.5</v>
       </c>
       <c r="Q339">
         <v>4</v>
       </c>
       <c r="R339">
+        <v>-0.25</v>
+      </c>
+      <c r="S339">
+        <v>1.8</v>
+      </c>
+      <c r="T339">
+        <v>2.05</v>
+      </c>
+      <c r="U339">
+        <v>2</v>
+      </c>
+      <c r="V339">
+        <v>1.95</v>
+      </c>
+      <c r="W339">
+        <v>1.9</v>
+      </c>
+      <c r="X339">
+        <v>-1</v>
+      </c>
+      <c r="Y339">
+        <v>2</v>
+      </c>
+      <c r="Z339">
+        <v>-1</v>
+      </c>
+      <c r="AA339">
         <v>-0.5</v>
       </c>
-      <c r="S339">
-        <v>1.975</v>
-      </c>
-      <c r="T339">
-        <v>1.875</v>
-      </c>
-      <c r="U339">
-        <v>2.5</v>
-      </c>
-      <c r="V339">
-        <v>2.025</v>
-      </c>
-      <c r="W339">
-        <v>1.825</v>
-      </c>
-      <c r="X339">
-        <v>0.909</v>
-      </c>
-      <c r="Y339">
-        <v>-1</v>
-      </c>
-      <c r="Z339">
-        <v>-1</v>
-      </c>
-      <c r="AA339">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB339">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC339">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AD339">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:30">
@@ -31742,7 +31742,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6808594</v>
+        <v>6994921</v>
       </c>
       <c r="C340" t="s">
         <v>29</v>
@@ -31751,13 +31751,13 @@
         <v>45318.5</v>
       </c>
       <c r="E340" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F340" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G340">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H340">
         <v>1</v>
@@ -31766,67 +31766,67 @@
         <v>1</v>
       </c>
       <c r="J340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K340" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L340">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="M340">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N340">
+        <v>4</v>
+      </c>
+      <c r="O340">
+        <v>1.909</v>
+      </c>
+      <c r="P340">
         <v>3.5</v>
-      </c>
-      <c r="O340">
-        <v>2.1</v>
-      </c>
-      <c r="P340">
-        <v>3</v>
       </c>
       <c r="Q340">
         <v>4</v>
       </c>
       <c r="R340">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S340">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T340">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U340">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V340">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W340">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X340">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y340">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB340">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC340">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AD340">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341" spans="1:30">
@@ -31938,7 +31938,7 @@
         <v>42</v>
       </c>
       <c r="F342" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G342">
         <v>2</v>
@@ -32122,7 +32122,7 @@
         <v>30</v>
       </c>
       <c r="F344" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G344">
         <v>0</v>
@@ -32211,7 +32211,7 @@
         <v>45324.70833333334</v>
       </c>
       <c r="E345" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F345" t="s">
         <v>40</v>
@@ -32303,7 +32303,7 @@
         <v>45325.5</v>
       </c>
       <c r="E346" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F346" t="s">
         <v>49</v>
@@ -32395,7 +32395,7 @@
         <v>45325.5</v>
       </c>
       <c r="E347" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F347" t="s">
         <v>51</v>
@@ -32754,7 +32754,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6808596</v>
+        <v>7020804</v>
       </c>
       <c r="C351" t="s">
         <v>29</v>
@@ -32763,82 +32763,82 @@
         <v>45325.5</v>
       </c>
       <c r="E351" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F351" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G351">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351">
         <v>0</v>
       </c>
       <c r="J351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K351" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L351">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="M351">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N351">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="O351">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="P351">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q351">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="R351">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S351">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T351">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="U351">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V351">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W351">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X351">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y351">
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA351">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB351">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC351">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD351">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:30">
@@ -32846,7 +32846,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7020804</v>
+        <v>7020805</v>
       </c>
       <c r="C352" t="s">
         <v>29</v>
@@ -32855,82 +32855,82 @@
         <v>45325.5</v>
       </c>
       <c r="E352" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F352" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G352">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352">
         <v>0</v>
       </c>
       <c r="J352">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K352" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L352">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="M352">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N352">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="O352">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="P352">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q352">
-        <v>2.9</v>
+        <v>1.285</v>
       </c>
       <c r="R352">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S352">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T352">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="U352">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V352">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W352">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="X352">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="AA352">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC352">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD352">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="353" spans="1:30">
@@ -33030,7 +33030,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>7020805</v>
+        <v>6808596</v>
       </c>
       <c r="C354" t="s">
         <v>29</v>
@@ -33039,46 +33039,46 @@
         <v>45325.5</v>
       </c>
       <c r="E354" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F354" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G354">
         <v>0</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354">
         <v>0</v>
       </c>
       <c r="J354">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K354" t="s">
         <v>54</v>
       </c>
       <c r="L354">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="M354">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N354">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="O354">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="P354">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q354">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="R354">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S354">
         <v>1.9</v>
@@ -33087,13 +33087,13 @@
         <v>1.95</v>
       </c>
       <c r="U354">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V354">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W354">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X354">
         <v>-1</v>
@@ -33102,7 +33102,7 @@
         <v>-1</v>
       </c>
       <c r="Z354">
-        <v>0.2849999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="AA354">
         <v>-1</v>
@@ -33114,7 +33114,7 @@
         <v>-1</v>
       </c>
       <c r="AD354">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="355" spans="1:30">
@@ -33134,7 +33134,7 @@
         <v>48</v>
       </c>
       <c r="F355" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G355">
         <v>3</v>
@@ -33407,10 +33407,10 @@
         <v>45332.39583333334</v>
       </c>
       <c r="E358" t="s">
+        <v>46</v>
+      </c>
+      <c r="F358" t="s">
         <v>45</v>
-      </c>
-      <c r="F358" t="s">
-        <v>44</v>
       </c>
       <c r="G358">
         <v>2</v>
@@ -33594,7 +33594,7 @@
         <v>33</v>
       </c>
       <c r="F360" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G360">
         <v>1</v>
@@ -33674,7 +33674,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7040121</v>
+        <v>7040113</v>
       </c>
       <c r="C361" t="s">
         <v>29</v>
@@ -33683,64 +33683,64 @@
         <v>45332.5</v>
       </c>
       <c r="E361" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F361" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G361">
         <v>3</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K361" t="s">
         <v>56</v>
       </c>
       <c r="L361">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="M361">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N361">
-        <v>13</v>
+        <v>3.1</v>
       </c>
       <c r="O361">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="P361">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q361">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="R361">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="S361">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="T361">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="U361">
         <v>3</v>
       </c>
       <c r="V361">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W361">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X361">
-        <v>0.1659999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Y361">
         <v>-1</v>
@@ -33749,16 +33749,16 @@
         <v>-1</v>
       </c>
       <c r="AA361">
-        <v>0.8600000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB361">
         <v>-1</v>
       </c>
       <c r="AC361">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AD361">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362" spans="1:30">
@@ -33766,7 +33766,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>7040113</v>
+        <v>7040123</v>
       </c>
       <c r="C362" t="s">
         <v>29</v>
@@ -33775,82 +33775,82 @@
         <v>45332.5</v>
       </c>
       <c r="E362" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F362" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G362">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I362">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J362">
         <v>1</v>
       </c>
       <c r="K362" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L362">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="M362">
         <v>3.5</v>
       </c>
       <c r="N362">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O362">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="P362">
         <v>3.75</v>
       </c>
       <c r="Q362">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R362">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S362">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T362">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U362">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V362">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W362">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X362">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y362">
         <v>-1</v>
       </c>
       <c r="Z362">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA362">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB362">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC362">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AD362">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="363" spans="1:30">
@@ -33858,7 +33858,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>7040123</v>
+        <v>7040121</v>
       </c>
       <c r="C363" t="s">
         <v>29</v>
@@ -33867,82 +33867,82 @@
         <v>45332.5</v>
       </c>
       <c r="E363" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F363" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G363">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K363" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L363">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="M363">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N363">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O363">
-        <v>3.5</v>
+        <v>1.166</v>
       </c>
       <c r="P363">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q363">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="R363">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="S363">
-        <v>1.825</v>
+        <v>1.86</v>
       </c>
       <c r="T363">
-        <v>2.025</v>
+        <v>2.04</v>
       </c>
       <c r="U363">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V363">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W363">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X363">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y363">
         <v>-1</v>
       </c>
       <c r="Z363">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA363">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB363">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC363">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AD363">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:30">
@@ -34143,7 +34143,7 @@
         <v>45332.5</v>
       </c>
       <c r="E366" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F366" t="s">
         <v>31</v>
@@ -34502,7 +34502,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>7088781</v>
+        <v>7091996</v>
       </c>
       <c r="C370" t="s">
         <v>29</v>
@@ -34511,82 +34511,82 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E370" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F370" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H370">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I370">
         <v>0</v>
       </c>
       <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370" t="s">
+        <v>56</v>
+      </c>
+      <c r="L370">
+        <v>2.25</v>
+      </c>
+      <c r="M370">
+        <v>3.5</v>
+      </c>
+      <c r="N370">
         <v>3</v>
       </c>
-      <c r="K370" t="s">
-        <v>54</v>
-      </c>
-      <c r="L370">
-        <v>5.5</v>
-      </c>
-      <c r="M370">
-        <v>4.333</v>
-      </c>
-      <c r="N370">
-        <v>1.533</v>
-      </c>
       <c r="O370">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="P370">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q370">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="R370">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S370">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T370">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U370">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V370">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W370">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="X370">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y370">
         <v>-1</v>
       </c>
       <c r="Z370">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA370">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB370">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC370">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD370">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="371" spans="1:30">
@@ -34594,7 +34594,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7091996</v>
+        <v>7088781</v>
       </c>
       <c r="C371" t="s">
         <v>29</v>
@@ -34603,82 +34603,82 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E371" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F371" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I371">
         <v>0</v>
       </c>
       <c r="J371">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K371" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L371">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="M371">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N371">
+        <v>1.533</v>
+      </c>
+      <c r="O371">
+        <v>5.25</v>
+      </c>
+      <c r="P371">
+        <v>4.5</v>
+      </c>
+      <c r="Q371">
+        <v>1.55</v>
+      </c>
+      <c r="R371">
+        <v>1</v>
+      </c>
+      <c r="S371">
+        <v>1.875</v>
+      </c>
+      <c r="T371">
+        <v>1.975</v>
+      </c>
+      <c r="U371">
         <v>3</v>
       </c>
-      <c r="O371">
-        <v>2.3</v>
-      </c>
-      <c r="P371">
-        <v>3.6</v>
-      </c>
-      <c r="Q371">
-        <v>2.9</v>
-      </c>
-      <c r="R371">
-        <v>-0.25</v>
-      </c>
-      <c r="S371">
-        <v>2.05</v>
-      </c>
-      <c r="T371">
-        <v>1.8</v>
-      </c>
-      <c r="U371">
-        <v>2.75</v>
-      </c>
       <c r="V371">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W371">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="X371">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA371">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB371">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC371">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD371">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:30">
@@ -34698,7 +34698,7 @@
         <v>52</v>
       </c>
       <c r="F372" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G372">
         <v>1</v>
@@ -34790,7 +34790,7 @@
         <v>32</v>
       </c>
       <c r="F373" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G373">
         <v>4</v>
@@ -34879,7 +34879,7 @@
         <v>45335.70833333334</v>
       </c>
       <c r="E374" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F374" t="s">
         <v>43</v>
@@ -34971,7 +34971,7 @@
         <v>45335.70833333334</v>
       </c>
       <c r="E375" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F375" t="s">
         <v>47</v>
@@ -35434,7 +35434,7 @@
         <v>49</v>
       </c>
       <c r="F380" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G380">
         <v>0</v>
@@ -35523,7 +35523,7 @@
         <v>45338.70833333334</v>
       </c>
       <c r="E381" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F381" t="s">
         <v>43</v>
@@ -36078,7 +36078,7 @@
         <v>31</v>
       </c>
       <c r="F387" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G387">
         <v>1</v>
@@ -36158,7 +36158,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7091999</v>
+        <v>7093405</v>
       </c>
       <c r="C388" t="s">
         <v>29</v>
@@ -36167,10 +36167,10 @@
         <v>45339.5</v>
       </c>
       <c r="E388" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F388" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G388">
         <v>0</v>
@@ -36182,46 +36182,46 @@
         <v>0</v>
       </c>
       <c r="J388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K388" t="s">
         <v>54</v>
       </c>
       <c r="L388">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M388">
         <v>3.4</v>
       </c>
       <c r="N388">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="O388">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="P388">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q388">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="R388">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S388">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T388">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U388">
         <v>2.25</v>
       </c>
       <c r="V388">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W388">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X388">
         <v>-1</v>
@@ -36230,19 +36230,19 @@
         <v>-1</v>
       </c>
       <c r="Z388">
-        <v>0.95</v>
+        <v>2.8</v>
       </c>
       <c r="AA388">
         <v>-1</v>
       </c>
       <c r="AB388">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC388">
         <v>-1</v>
       </c>
       <c r="AD388">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="389" spans="1:30">
@@ -36250,7 +36250,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7093405</v>
+        <v>7091997</v>
       </c>
       <c r="C389" t="s">
         <v>29</v>
@@ -36259,13 +36259,13 @@
         <v>45339.5</v>
       </c>
       <c r="E389" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F389" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G389">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H389">
         <v>1</v>
@@ -36277,64 +36277,64 @@
         <v>1</v>
       </c>
       <c r="K389" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L389">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="M389">
         <v>3.4</v>
       </c>
       <c r="N389">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="O389">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="P389">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q389">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="R389">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S389">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T389">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U389">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V389">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W389">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X389">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y389">
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="AA389">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB389">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC389">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD389">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390" spans="1:30">
@@ -36342,7 +36342,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>7091997</v>
+        <v>7091999</v>
       </c>
       <c r="C390" t="s">
         <v>29</v>
@@ -36351,13 +36351,13 @@
         <v>45339.5</v>
       </c>
       <c r="E390" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F390" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G390">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H390">
         <v>1</v>
@@ -36366,67 +36366,67 @@
         <v>0</v>
       </c>
       <c r="J390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K390" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L390">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M390">
         <v>3.4</v>
       </c>
       <c r="N390">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O390">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="P390">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q390">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="R390">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S390">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T390">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U390">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V390">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W390">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X390">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y390">
         <v>-1</v>
       </c>
       <c r="Z390">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA390">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB390">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC390">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD390">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="391" spans="1:30">
@@ -36538,7 +36538,7 @@
         <v>50</v>
       </c>
       <c r="F392" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G392">
         <v>1</v>
@@ -36630,7 +36630,7 @@
         <v>43</v>
       </c>
       <c r="F393" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G393">
         <v>1</v>
@@ -36802,7 +36802,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7700510</v>
+        <v>7682166</v>
       </c>
       <c r="C395" t="s">
         <v>29</v>
@@ -36811,79 +36811,79 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E395" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F395" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G395">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H395">
         <v>3</v>
       </c>
       <c r="I395">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K395" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L395">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="M395">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N395">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="O395">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="P395">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q395">
-        <v>2.15</v>
+        <v>12</v>
       </c>
       <c r="R395">
+        <v>-1.75</v>
+      </c>
+      <c r="S395">
+        <v>2</v>
+      </c>
+      <c r="T395">
+        <v>1.85</v>
+      </c>
+      <c r="U395">
+        <v>2.75</v>
+      </c>
+      <c r="V395">
+        <v>1.825</v>
+      </c>
+      <c r="W395">
+        <v>2.025</v>
+      </c>
+      <c r="X395">
         <v>0.25</v>
       </c>
-      <c r="S395">
-        <v>1.99</v>
-      </c>
-      <c r="T395">
-        <v>1.91</v>
-      </c>
-      <c r="U395">
-        <v>2.5</v>
-      </c>
-      <c r="V395">
-        <v>1.925</v>
-      </c>
-      <c r="W395">
-        <v>1.925</v>
-      </c>
-      <c r="X395">
-        <v>-1</v>
-      </c>
       <c r="Y395">
         <v>-1</v>
       </c>
       <c r="Z395">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA395">
         <v>-1</v>
       </c>
       <c r="AB395">
-        <v>0.9099999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC395">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AD395">
         <v>-1</v>
@@ -36894,7 +36894,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7682166</v>
+        <v>7700510</v>
       </c>
       <c r="C396" t="s">
         <v>29</v>
@@ -36903,79 +36903,79 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E396" t="s">
+        <v>35</v>
+      </c>
+      <c r="F396" t="s">
         <v>45</v>
       </c>
-      <c r="F396" t="s">
-        <v>52</v>
-      </c>
       <c r="G396">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H396">
         <v>3</v>
       </c>
       <c r="I396">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K396" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L396">
-        <v>1.285</v>
+        <v>3.75</v>
       </c>
       <c r="M396">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N396">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="O396">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="P396">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q396">
-        <v>12</v>
+        <v>2.15</v>
       </c>
       <c r="R396">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="S396">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T396">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="U396">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V396">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W396">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X396">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y396">
         <v>-1</v>
       </c>
       <c r="Z396">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA396">
         <v>-1</v>
       </c>
       <c r="AB396">
-        <v>0.8500000000000001</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC396">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AD396">
         <v>-1</v>
@@ -37179,10 +37179,10 @@
         <v>45346.39583333334</v>
       </c>
       <c r="E399" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F399" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G399">
         <v>1</v>
@@ -37547,7 +37547,7 @@
         <v>45346.5</v>
       </c>
       <c r="E403" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F403" t="s">
         <v>51</v>
@@ -37823,7 +37823,7 @@
         <v>45346.5</v>
       </c>
       <c r="E406" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F406" t="s">
         <v>50</v>
@@ -38010,7 +38010,7 @@
         <v>30</v>
       </c>
       <c r="F408" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G408">
         <v>2</v>
@@ -38099,7 +38099,7 @@
         <v>45352.70833333334</v>
       </c>
       <c r="E409" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F409" t="s">
         <v>42</v>
@@ -38283,7 +38283,7 @@
         <v>45353.39583333334</v>
       </c>
       <c r="E411" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F411" t="s">
         <v>47</v>
@@ -38746,7 +38746,7 @@
         <v>48</v>
       </c>
       <c r="F416" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G416">
         <v>0</v>
@@ -38838,7 +38838,7 @@
         <v>49</v>
       </c>
       <c r="F417" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G417">
         <v>1</v>
@@ -38930,7 +38930,7 @@
         <v>35</v>
       </c>
       <c r="F418" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -39194,7 +39194,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7222374</v>
+        <v>7219375</v>
       </c>
       <c r="C421" t="s">
         <v>29</v>
@@ -39203,82 +39203,82 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E421" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F421" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G421">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K421" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L421">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="M421">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N421">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="O421">
-        <v>4.2</v>
+        <v>1.363</v>
       </c>
       <c r="P421">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q421">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="R421">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S421">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T421">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U421">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V421">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W421">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X421">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y421">
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA421">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB421">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC421">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD421">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422" spans="1:30">
@@ -39286,7 +39286,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7219376</v>
+        <v>7222374</v>
       </c>
       <c r="C422" t="s">
         <v>29</v>
@@ -39295,82 +39295,82 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E422" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F422" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H422">
         <v>1</v>
       </c>
       <c r="I422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K422" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L422">
+        <v>4.5</v>
+      </c>
+      <c r="M422">
+        <v>3.75</v>
+      </c>
+      <c r="N422">
+        <v>1.75</v>
+      </c>
+      <c r="O422">
+        <v>4.2</v>
+      </c>
+      <c r="P422">
+        <v>3.8</v>
+      </c>
+      <c r="Q422">
         <v>1.8</v>
       </c>
-      <c r="M422">
-        <v>3.6</v>
-      </c>
-      <c r="N422">
-        <v>4.333</v>
-      </c>
-      <c r="O422">
-        <v>1.65</v>
-      </c>
-      <c r="P422">
-        <v>4</v>
-      </c>
-      <c r="Q422">
-        <v>5.25</v>
-      </c>
       <c r="R422">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S422">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T422">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U422">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V422">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W422">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X422">
         <v>-1</v>
       </c>
       <c r="Y422">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z422">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA422">
         <v>-1</v>
       </c>
       <c r="AB422">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC422">
         <v>-1</v>
       </c>
       <c r="AD422">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:30">
@@ -39378,7 +39378,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7219375</v>
+        <v>7222377</v>
       </c>
       <c r="C423" t="s">
         <v>29</v>
@@ -39387,19 +39387,19 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E423" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F423" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G423">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H423">
         <v>0</v>
       </c>
       <c r="I423">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J423">
         <v>0</v>
@@ -39408,43 +39408,43 @@
         <v>56</v>
       </c>
       <c r="L423">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="M423">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N423">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="O423">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="P423">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q423">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R423">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S423">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T423">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U423">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V423">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W423">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X423">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="Y423">
         <v>-1</v>
@@ -39453,16 +39453,16 @@
         <v>-1</v>
       </c>
       <c r="AA423">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB423">
         <v>-1</v>
       </c>
       <c r="AC423">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD423">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="424" spans="1:30">
@@ -39470,7 +39470,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>7222377</v>
+        <v>7219376</v>
       </c>
       <c r="C424" t="s">
         <v>29</v>
@@ -39479,82 +39479,82 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E424" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F424" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G424">
         <v>1</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J424">
         <v>0</v>
       </c>
       <c r="K424" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L424">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="M424">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N424">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O424">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="P424">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q424">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="R424">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S424">
+        <v>1.825</v>
+      </c>
+      <c r="T424">
+        <v>2.025</v>
+      </c>
+      <c r="U424">
+        <v>2.75</v>
+      </c>
+      <c r="V424">
         <v>1.875</v>
       </c>
-      <c r="T424">
+      <c r="W424">
         <v>1.975</v>
       </c>
-      <c r="U424">
-        <v>2.5</v>
-      </c>
-      <c r="V424">
-        <v>1.925</v>
-      </c>
-      <c r="W424">
-        <v>1.925</v>
-      </c>
       <c r="X424">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y424">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z424">
         <v>-1</v>
       </c>
       <c r="AA424">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB424">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC424">
         <v>-1</v>
       </c>
       <c r="AD424">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="425" spans="1:30">
@@ -39755,10 +39755,10 @@
         <v>45356.70833333334</v>
       </c>
       <c r="E427" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F427" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G427">
         <v>3</v>
@@ -39939,7 +39939,7 @@
         <v>45357.69791666666</v>
       </c>
       <c r="E429" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F429" t="s">
         <v>31</v>
@@ -40126,7 +40126,7 @@
         <v>53</v>
       </c>
       <c r="F431" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G431">
         <v>2</v>
@@ -40310,7 +40310,7 @@
         <v>47</v>
       </c>
       <c r="F433" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G433">
         <v>2</v>
@@ -40491,7 +40491,7 @@
         <v>45360.5</v>
       </c>
       <c r="E435" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F435" t="s">
         <v>39</v>
@@ -40583,7 +40583,7 @@
         <v>45360.5</v>
       </c>
       <c r="E436" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F436" t="s">
         <v>42</v>
@@ -41138,7 +41138,7 @@
         <v>50</v>
       </c>
       <c r="F442" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G442">
         <v>1</v>
@@ -41227,7 +41227,7 @@
         <v>45361.39583333334</v>
       </c>
       <c r="E443" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F443" t="s">
         <v>31</v>
@@ -41506,7 +41506,7 @@
         <v>51</v>
       </c>
       <c r="F446" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G446">
         <v>0</v>
@@ -41687,7 +41687,7 @@
         <v>45367.5</v>
       </c>
       <c r="E448" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F448" t="s">
         <v>30</v>
@@ -41779,10 +41779,10 @@
         <v>45367.5</v>
       </c>
       <c r="E449" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F449" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G449">
         <v>2</v>
@@ -42331,7 +42331,7 @@
         <v>45380.39583333334</v>
       </c>
       <c r="E455" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F455" t="s">
         <v>39</v>
@@ -42426,7 +42426,7 @@
         <v>49</v>
       </c>
       <c r="F456" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G456">
         <v>1</v>
@@ -42506,7 +42506,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>7281209</v>
+        <v>7281208</v>
       </c>
       <c r="C457" t="s">
         <v>29</v>
@@ -42515,61 +42515,61 @@
         <v>45380.5</v>
       </c>
       <c r="E457" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F457" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G457">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I457">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K457" t="s">
         <v>56</v>
       </c>
       <c r="L457">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="M457">
         <v>4.333</v>
       </c>
       <c r="N457">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O457">
         <v>1.5</v>
       </c>
       <c r="P457">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q457">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="R457">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="S457">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="T457">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="U457">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V457">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W457">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X457">
         <v>0.5</v>
@@ -42581,16 +42581,16 @@
         <v>-1</v>
       </c>
       <c r="AA457">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB457">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
       <c r="AC457">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AD457">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:30">
@@ -42598,7 +42598,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>7281210</v>
+        <v>7281209</v>
       </c>
       <c r="C458" t="s">
         <v>29</v>
@@ -42607,19 +42607,19 @@
         <v>45380.5</v>
       </c>
       <c r="E458" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F458" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G458">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J458">
         <v>0</v>
@@ -42628,43 +42628,43 @@
         <v>56</v>
       </c>
       <c r="L458">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="M458">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N458">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="O458">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="P458">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q458">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="R458">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S458">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T458">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U458">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V458">
+        <v>2.05</v>
+      </c>
+      <c r="W458">
         <v>1.8</v>
       </c>
-      <c r="W458">
-        <v>2.05</v>
-      </c>
       <c r="X458">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="Y458">
         <v>-1</v>
@@ -42673,13 +42673,13 @@
         <v>-1</v>
       </c>
       <c r="AA458">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB458">
         <v>-1</v>
       </c>
       <c r="AC458">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AD458">
         <v>-1</v>
@@ -42690,7 +42690,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>7281208</v>
+        <v>7281206</v>
       </c>
       <c r="C459" t="s">
         <v>29</v>
@@ -42699,82 +42699,82 @@
         <v>45380.5</v>
       </c>
       <c r="E459" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F459" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G459">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I459">
         <v>0</v>
       </c>
       <c r="J459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K459" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L459">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="M459">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N459">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="O459">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="P459">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q459">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="R459">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S459">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="T459">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="U459">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V459">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W459">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X459">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y459">
         <v>-1</v>
       </c>
       <c r="Z459">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA459">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB459">
-        <v>0.42</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC459">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:30">
@@ -42782,7 +42782,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>7281206</v>
+        <v>7281210</v>
       </c>
       <c r="C460" t="s">
         <v>29</v>
@@ -42791,16 +42791,16 @@
         <v>45380.5</v>
       </c>
       <c r="E460" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F460" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G460">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I460">
         <v>0</v>
@@ -42809,64 +42809,64 @@
         <v>0</v>
       </c>
       <c r="K460" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L460">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M460">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N460">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="O460">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="P460">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q460">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="R460">
         <v>-0.5</v>
       </c>
       <c r="S460">
-        <v>1.97</v>
+        <v>1.975</v>
       </c>
       <c r="T460">
-        <v>1.93</v>
+        <v>1.875</v>
       </c>
       <c r="U460">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V460">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W460">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X460">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y460">
         <v>-1</v>
       </c>
       <c r="Z460">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA460">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB460">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC460">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD460">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="461" spans="1:30">
@@ -42966,7 +42966,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>7278084</v>
+        <v>7280746</v>
       </c>
       <c r="C462" t="s">
         <v>29</v>
@@ -42975,82 +42975,82 @@
         <v>45380.5</v>
       </c>
       <c r="E462" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F462" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J462">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K462" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L462">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="M462">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N462">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="O462">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="P462">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q462">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="R462">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S462">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T462">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U462">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="V462">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W462">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X462">
         <v>-1</v>
       </c>
       <c r="Y462">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z462">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA462">
         <v>-1</v>
       </c>
       <c r="AB462">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC462">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD462">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="463" spans="1:30">
@@ -43150,7 +43150,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>7280746</v>
+        <v>7278084</v>
       </c>
       <c r="C464" t="s">
         <v>29</v>
@@ -43159,82 +43159,82 @@
         <v>45380.5</v>
       </c>
       <c r="E464" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F464" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J464">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K464" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L464">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="M464">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N464">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O464">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="P464">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q464">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="R464">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S464">
+        <v>1.8</v>
+      </c>
+      <c r="T464">
+        <v>2.05</v>
+      </c>
+      <c r="U464">
+        <v>2</v>
+      </c>
+      <c r="V464">
         <v>1.825</v>
       </c>
-      <c r="T464">
+      <c r="W464">
         <v>2.025</v>
       </c>
-      <c r="U464">
-        <v>3.5</v>
-      </c>
-      <c r="V464">
-        <v>1.975</v>
-      </c>
-      <c r="W464">
-        <v>1.875</v>
-      </c>
       <c r="X464">
         <v>-1</v>
       </c>
       <c r="Y464">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z464">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA464">
         <v>-1</v>
       </c>
       <c r="AB464">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC464">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD464">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:30">
@@ -43254,7 +43254,7 @@
         <v>34</v>
       </c>
       <c r="F465" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G465">
         <v>0</v>
@@ -43343,7 +43343,7 @@
         <v>45380.70833333334</v>
       </c>
       <c r="E466" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F466" t="s">
         <v>40</v>
@@ -43518,7 +43518,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>7293678</v>
+        <v>7293676</v>
       </c>
       <c r="C468" t="s">
         <v>29</v>
@@ -43527,19 +43527,19 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E468" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F468" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G468">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H468">
         <v>0</v>
       </c>
       <c r="I468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J468">
         <v>0</v>
@@ -43548,43 +43548,43 @@
         <v>56</v>
       </c>
       <c r="L468">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="M468">
         <v>3.4</v>
       </c>
       <c r="N468">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O468">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="P468">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q468">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="R468">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S468">
-        <v>2.03</v>
+        <v>1.825</v>
       </c>
       <c r="T468">
-        <v>1.87</v>
+        <v>2.025</v>
       </c>
       <c r="U468">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V468">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W468">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X468">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="Y468">
         <v>-1</v>
@@ -43593,7 +43593,7 @@
         <v>-1</v>
       </c>
       <c r="AA468">
-        <v>1.03</v>
+        <v>0.825</v>
       </c>
       <c r="AB468">
         <v>-1</v>
@@ -43602,7 +43602,7 @@
         <v>-1</v>
       </c>
       <c r="AD468">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:30">
@@ -43610,7 +43610,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>7293680</v>
+        <v>7293678</v>
       </c>
       <c r="C469" t="s">
         <v>29</v>
@@ -43619,19 +43619,19 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E469" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F469" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G469">
         <v>2</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J469">
         <v>0</v>
@@ -43640,25 +43640,25 @@
         <v>56</v>
       </c>
       <c r="L469">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="M469">
         <v>3.4</v>
       </c>
       <c r="N469">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O469">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="P469">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q469">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="R469">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S469">
         <v>2.03</v>
@@ -43667,7 +43667,7 @@
         <v>1.87</v>
       </c>
       <c r="U469">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V469">
         <v>1.825</v>
@@ -43676,7 +43676,7 @@
         <v>2.025</v>
       </c>
       <c r="X469">
-        <v>4.75</v>
+        <v>0.8</v>
       </c>
       <c r="Y469">
         <v>-1</v>
@@ -43691,10 +43691,10 @@
         <v>-1</v>
       </c>
       <c r="AC469">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD469">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="470" spans="1:30">
@@ -43702,7 +43702,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>7293681</v>
+        <v>7293679</v>
       </c>
       <c r="C470" t="s">
         <v>29</v>
@@ -43711,13 +43711,13 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E470" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F470" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H470">
         <v>1</v>
@@ -43726,37 +43726,37 @@
         <v>0</v>
       </c>
       <c r="J470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K470" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L470">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="M470">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N470">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="O470">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="P470">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q470">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="R470">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S470">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T470">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U470">
         <v>2.5</v>
@@ -43771,16 +43771,16 @@
         <v>-1</v>
       </c>
       <c r="Y470">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z470">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="AA470">
         <v>-1</v>
       </c>
       <c r="AB470">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC470">
         <v>-1</v>
@@ -43794,7 +43794,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>7293676</v>
+        <v>7293681</v>
       </c>
       <c r="C471" t="s">
         <v>29</v>
@@ -43803,82 +43803,82 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E471" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F471" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G471">
         <v>1</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I471">
         <v>0</v>
       </c>
       <c r="J471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K471" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L471">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="M471">
         <v>3.4</v>
       </c>
       <c r="N471">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="O471">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="P471">
         <v>3.4</v>
       </c>
       <c r="Q471">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="R471">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S471">
+        <v>2.025</v>
+      </c>
+      <c r="T471">
         <v>1.825</v>
       </c>
-      <c r="T471">
+      <c r="U471">
+        <v>2.5</v>
+      </c>
+      <c r="V471">
         <v>2.025</v>
       </c>
-      <c r="U471">
-        <v>2.25</v>
-      </c>
-      <c r="V471">
-        <v>1.85</v>
-      </c>
       <c r="W471">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X471">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y471">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z471">
         <v>-1</v>
       </c>
       <c r="AA471">
+        <v>-1</v>
+      </c>
+      <c r="AB471">
         <v>0.825</v>
       </c>
-      <c r="AB471">
-        <v>-1</v>
-      </c>
       <c r="AC471">
         <v>-1</v>
       </c>
       <c r="AD471">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="472" spans="1:30">
@@ -43886,7 +43886,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>7297547</v>
+        <v>7293680</v>
       </c>
       <c r="C472" t="s">
         <v>29</v>
@@ -43895,79 +43895,79 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E472" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F472" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G472">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H472">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I472">
         <v>0</v>
       </c>
       <c r="J472">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K472" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L472">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M472">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N472">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="O472">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="P472">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q472">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="R472">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S472">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="T472">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="U472">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V472">
+        <v>1.825</v>
+      </c>
+      <c r="W472">
         <v>2.025</v>
       </c>
-      <c r="W472">
-        <v>1.825</v>
-      </c>
       <c r="X472">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y472">
         <v>-1</v>
       </c>
       <c r="Z472">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA472">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AB472">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC472">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AD472">
         <v>-1</v>
@@ -43978,7 +43978,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>7293679</v>
+        <v>7297547</v>
       </c>
       <c r="C473" t="s">
         <v>29</v>
@@ -43987,52 +43987,52 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E473" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F473" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I473">
         <v>0</v>
       </c>
       <c r="J473">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K473" t="s">
         <v>54</v>
       </c>
       <c r="L473">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="M473">
         <v>3.3</v>
       </c>
       <c r="N473">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="O473">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="P473">
+        <v>3.4</v>
+      </c>
+      <c r="Q473">
         <v>3.3</v>
       </c>
-      <c r="Q473">
-        <v>2.45</v>
-      </c>
       <c r="R473">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S473">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T473">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U473">
         <v>2.5</v>
@@ -44050,19 +44050,19 @@
         <v>-1</v>
       </c>
       <c r="Z473">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="AA473">
         <v>-1</v>
       </c>
       <c r="AB473">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC473">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD473">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474" spans="1:30">
@@ -44171,10 +44171,10 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E475" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F475" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G475">
         <v>2</v>
@@ -44355,7 +44355,7 @@
         <v>45383.5625</v>
       </c>
       <c r="E477" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F477" t="s">
         <v>43</v>
@@ -44450,7 +44450,7 @@
         <v>40</v>
       </c>
       <c r="F478" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G478">
         <v>3</v>
@@ -44634,7 +44634,7 @@
         <v>32</v>
       </c>
       <c r="F480" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G480">
         <v>1</v>
@@ -44910,7 +44910,7 @@
         <v>37</v>
       </c>
       <c r="F483" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G483">
         <v>2</v>
@@ -45002,7 +45002,7 @@
         <v>47</v>
       </c>
       <c r="F484" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G484">
         <v>1</v>
@@ -45278,7 +45278,7 @@
         <v>41</v>
       </c>
       <c r="F487" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G487">
         <v>0</v>
@@ -45367,7 +45367,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E488" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F488" t="s">
         <v>48</v>
@@ -46195,7 +46195,7 @@
         <v>45392.65625</v>
       </c>
       <c r="E497" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F497" t="s">
         <v>34</v>
@@ -46287,10 +46287,10 @@
         <v>45392.65625</v>
       </c>
       <c r="E498" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F498" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G498">
         <v>0</v>
@@ -46471,7 +46471,7 @@
         <v>45392.66666666666</v>
       </c>
       <c r="E500" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F500" t="s">
         <v>52</v>
@@ -46655,7 +46655,7 @@
         <v>45392.66666666666</v>
       </c>
       <c r="E502" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F502" t="s">
         <v>33</v>
@@ -46931,7 +46931,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E505" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F505" t="s">
         <v>33</v>
@@ -47115,7 +47115,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E507" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F507" t="s">
         <v>53</v>
@@ -47207,7 +47207,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E508" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F508" t="s">
         <v>50</v>
@@ -47302,7 +47302,7 @@
         <v>43</v>
       </c>
       <c r="F509" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G509">
         <v>3</v>
@@ -47759,7 +47759,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E514" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F514" t="s">
         <v>41</v>
@@ -47946,7 +47946,7 @@
         <v>39</v>
       </c>
       <c r="F516" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G516">
         <v>2</v>
@@ -48035,10 +48035,10 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E517" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F517" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G517">
         <v>0</v>
@@ -48406,7 +48406,7 @@
         <v>32</v>
       </c>
       <c r="F521" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G521">
         <v>1</v>
@@ -49050,7 +49050,7 @@
         <v>42</v>
       </c>
       <c r="F528" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G528">
         <v>2</v>
@@ -49234,7 +49234,7 @@
         <v>30</v>
       </c>
       <c r="F530" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G530">
         <v>3</v>
@@ -49498,7 +49498,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>7434340</v>
+        <v>7434342</v>
       </c>
       <c r="C533" t="s">
         <v>29</v>
@@ -49507,82 +49507,82 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E533" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F533" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G533">
         <v>1</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533">
         <v>0</v>
       </c>
       <c r="J533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K533" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L533">
-        <v>2.25</v>
+        <v>1.952</v>
       </c>
       <c r="M533">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N533">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O533">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="P533">
         <v>3.4</v>
       </c>
       <c r="Q533">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="R533">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S533">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T533">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U533">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V533">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W533">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X533">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y533">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z533">
         <v>-1</v>
       </c>
       <c r="AA533">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AB533">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC533">
         <v>-1</v>
       </c>
       <c r="AD533">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="534" spans="1:30">
@@ -49590,7 +49590,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>7434342</v>
+        <v>7434340</v>
       </c>
       <c r="C534" t="s">
         <v>29</v>
@@ -49599,82 +49599,82 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E534" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F534" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G534">
         <v>1</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I534">
         <v>0</v>
       </c>
       <c r="J534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K534" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L534">
-        <v>1.952</v>
+        <v>2.25</v>
       </c>
       <c r="M534">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N534">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O534">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="P534">
         <v>3.4</v>
       </c>
       <c r="Q534">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="R534">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S534">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T534">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U534">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V534">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W534">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X534">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y534">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z534">
         <v>-1</v>
       </c>
       <c r="AA534">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AB534">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC534">
         <v>-1</v>
       </c>
       <c r="AD534">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:30">
@@ -49682,7 +49682,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>7434339</v>
+        <v>7434343</v>
       </c>
       <c r="C535" t="s">
         <v>29</v>
@@ -49691,82 +49691,82 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E535" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F535" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G535">
         <v>1</v>
       </c>
       <c r="H535">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I535">
         <v>0</v>
       </c>
       <c r="J535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K535" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L535">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="M535">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N535">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="O535">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="P535">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q535">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="R535">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S535">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T535">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U535">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V535">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W535">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X535">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y535">
         <v>-1</v>
       </c>
       <c r="Z535">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA535">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB535">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC535">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD535">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="536" spans="1:30">
@@ -49774,7 +49774,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>7434338</v>
+        <v>7434339</v>
       </c>
       <c r="C536" t="s">
         <v>29</v>
@@ -49783,16 +49783,16 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E536" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F536" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I536">
         <v>0</v>
@@ -49804,40 +49804,40 @@
         <v>54</v>
       </c>
       <c r="L536">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="M536">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="N536">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="O536">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="P536">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q536">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="R536">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S536">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T536">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U536">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V536">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W536">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X536">
         <v>-1</v>
@@ -49846,19 +49846,19 @@
         <v>-1</v>
       </c>
       <c r="Z536">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="AA536">
         <v>-1</v>
       </c>
       <c r="AB536">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC536">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD536">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537" spans="1:30">
@@ -49866,7 +49866,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>7434343</v>
+        <v>7434338</v>
       </c>
       <c r="C537" t="s">
         <v>29</v>
@@ -49875,82 +49875,82 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E537" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F537" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I537">
         <v>0</v>
       </c>
       <c r="J537">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K537" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L537">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="M537">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="N537">
+        <v>5.5</v>
+      </c>
+      <c r="O537">
+        <v>1.727</v>
+      </c>
+      <c r="P537">
+        <v>4.5</v>
+      </c>
+      <c r="Q537">
+        <v>4</v>
+      </c>
+      <c r="R537">
+        <v>-0.75</v>
+      </c>
+      <c r="S537">
+        <v>1.925</v>
+      </c>
+      <c r="T537">
+        <v>1.925</v>
+      </c>
+      <c r="U537">
         <v>3.25</v>
       </c>
-      <c r="O537">
-        <v>2.375</v>
-      </c>
-      <c r="P537">
-        <v>3.2</v>
-      </c>
-      <c r="Q537">
-        <v>3.1</v>
-      </c>
-      <c r="R537">
-        <v>-0.25</v>
-      </c>
-      <c r="S537">
-        <v>2.05</v>
-      </c>
-      <c r="T537">
-        <v>1.8</v>
-      </c>
-      <c r="U537">
-        <v>2.5</v>
-      </c>
       <c r="V537">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W537">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X537">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y537">
         <v>-1</v>
       </c>
       <c r="Z537">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA537">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB537">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC537">
         <v>-1</v>
       </c>
       <c r="AD537">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="538" spans="1:30">
@@ -49967,7 +49967,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E538" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F538" t="s">
         <v>52</v>
@@ -50059,10 +50059,10 @@
         <v>45409.66666666666</v>
       </c>
       <c r="E539" t="s">
+        <v>44</v>
+      </c>
+      <c r="F539" t="s">
         <v>46</v>
-      </c>
-      <c r="F539" t="s">
-        <v>45</v>
       </c>
       <c r="G539">
         <v>3</v>
@@ -50246,7 +50246,7 @@
         <v>42</v>
       </c>
       <c r="F541" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G541">
         <v>1</v>
@@ -50335,7 +50335,7 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E542" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F542" t="s">
         <v>48</v>
@@ -50522,7 +50522,7 @@
         <v>33</v>
       </c>
       <c r="F544" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G544">
         <v>3</v>
@@ -50887,7 +50887,7 @@
         <v>45416.35416666666</v>
       </c>
       <c r="E548" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F548" t="s">
         <v>50</v>
@@ -51074,7 +51074,7 @@
         <v>37</v>
       </c>
       <c r="F550" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G550">
         <v>4</v>
@@ -51258,7 +51258,7 @@
         <v>35</v>
       </c>
       <c r="F552" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G552">
         <v>1</v>
@@ -51531,7 +51531,7 @@
         <v>45424.42708333334</v>
       </c>
       <c r="E555" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F555" t="s">
         <v>43</v>
@@ -51718,7 +51718,7 @@
         <v>43</v>
       </c>
       <c r="F557" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G557">
         <v>3</v>

--- a/England Championship/England Championship.xlsx
+++ b/England Championship/England Championship.xlsx
@@ -3130,7 +3130,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6808382</v>
+        <v>6808383</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3139,82 +3139,82 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L29">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29">
+        <v>1.75</v>
+      </c>
+      <c r="P29">
+        <v>3.8</v>
+      </c>
+      <c r="Q29">
         <v>4.5</v>
       </c>
-      <c r="N29">
-        <v>7.5</v>
-      </c>
-      <c r="O29">
-        <v>1.5</v>
-      </c>
-      <c r="P29">
-        <v>4.333</v>
-      </c>
-      <c r="Q29">
-        <v>6.5</v>
-      </c>
       <c r="R29">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U29">
         <v>2.75</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X29">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC29">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AD29">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3222,7 +3222,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6808380</v>
+        <v>6808382</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3231,82 +3231,82 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L30">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="M30">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="N30">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="O30">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="P30">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q30">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="R30">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V30">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC30">
+        <v>0.45</v>
+      </c>
+      <c r="AD30">
         <v>-0.5</v>
-      </c>
-      <c r="AD30">
-        <v>0.4</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3314,7 +3314,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6808379</v>
+        <v>6808380</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3323,13 +3323,13 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3338,67 +3338,67 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="s">
         <v>54</v>
       </c>
       <c r="L31">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="M31">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O31">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="P31">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q31">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="R31">
+        <v>-0.25</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>1.85</v>
+      </c>
+      <c r="U31">
+        <v>2.25</v>
+      </c>
+      <c r="V31">
+        <v>2.05</v>
+      </c>
+      <c r="W31">
+        <v>1.8</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
+        <v>2.2</v>
+      </c>
+      <c r="AA31">
+        <v>-1</v>
+      </c>
+      <c r="AB31">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
       </c>
-      <c r="S31">
-        <v>1.85</v>
-      </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
-      <c r="U31">
-        <v>2.75</v>
-      </c>
-      <c r="V31">
-        <v>2</v>
-      </c>
-      <c r="W31">
-        <v>1.85</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>-1</v>
-      </c>
-      <c r="Z31">
-        <v>3.2</v>
-      </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
-      <c r="AB31">
-        <v>1</v>
-      </c>
-      <c r="AC31">
-        <v>0.5</v>
-      </c>
       <c r="AD31">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3406,7 +3406,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6808222</v>
+        <v>6808379</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3415,16 +3415,16 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3436,34 +3436,34 @@
         <v>54</v>
       </c>
       <c r="L32">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="M32">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N32">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="P32">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q32">
+        <v>4.2</v>
+      </c>
+      <c r="R32">
+        <v>-0.5</v>
+      </c>
+      <c r="S32">
+        <v>1.85</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>2.75</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>1.825</v>
-      </c>
-      <c r="T32">
-        <v>2.025</v>
-      </c>
-      <c r="U32">
-        <v>2.25</v>
       </c>
       <c r="V32">
         <v>2</v>
@@ -3478,19 +3478,19 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AD32">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3498,7 +3498,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6808383</v>
+        <v>6808222</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3507,13 +3507,13 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3525,37 +3525,37 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L33">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N33">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="O33">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="P33">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q33">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="R33">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U33">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V33">
         <v>2</v>
@@ -3567,16 +3567,16 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3682,7 +3682,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6808387</v>
+        <v>6808386</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3691,13 +3691,13 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3709,64 +3709,64 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L35">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="M35">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N35">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O35">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="P35">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q35">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="R35">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T35">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U35">
         <v>2.5</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W35">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y35">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3774,7 +3774,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6808386</v>
+        <v>6808387</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3783,13 +3783,13 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3801,64 +3801,64 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L36">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="M36">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N36">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O36">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="P36">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q36">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="R36">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S36">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U36">
         <v>2.5</v>
       </c>
       <c r="V36">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X36">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -4234,7 +4234,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6808395</v>
+        <v>6808393</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
@@ -4243,82 +4243,82 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41">
+        <v>6</v>
+      </c>
+      <c r="M41">
         <v>4</v>
       </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>55</v>
-      </c>
-      <c r="L41">
-        <v>2.2</v>
-      </c>
-      <c r="M41">
-        <v>3.5</v>
-      </c>
       <c r="N41">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O41">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q41">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="R41">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T41">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U41">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X41">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="AA41">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AD41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4326,7 +4326,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6808393</v>
+        <v>6808391</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4335,46 +4335,46 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L42">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N42">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O42">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="P42">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q42">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42">
         <v>1.825</v>
@@ -4383,34 +4383,34 @@
         <v>2.025</v>
       </c>
       <c r="U42">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD42">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4418,7 +4418,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6808391</v>
+        <v>6808389</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4427,82 +4427,82 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L43">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="M43">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N43">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="O43">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q43">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U43">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V43">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W43">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X43">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4510,7 +4510,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6808389</v>
+        <v>6808388</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4519,82 +4519,82 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>56</v>
+      </c>
+      <c r="L44">
+        <v>2.05</v>
+      </c>
+      <c r="M44">
+        <v>3.4</v>
+      </c>
+      <c r="N44">
+        <v>3.5</v>
+      </c>
+      <c r="O44">
+        <v>1.95</v>
+      </c>
+      <c r="P44">
+        <v>3.4</v>
+      </c>
+      <c r="Q44">
         <v>4</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>2</v>
-      </c>
-      <c r="K44" t="s">
-        <v>54</v>
-      </c>
-      <c r="L44">
-        <v>3.4</v>
-      </c>
-      <c r="M44">
-        <v>3.25</v>
-      </c>
-      <c r="N44">
-        <v>2.15</v>
-      </c>
-      <c r="O44">
-        <v>3.5</v>
-      </c>
-      <c r="P44">
-        <v>3.6</v>
-      </c>
-      <c r="Q44">
-        <v>2</v>
-      </c>
       <c r="R44">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U44">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AC44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4602,7 +4602,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6808388</v>
+        <v>6808224</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4611,82 +4611,82 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L45">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="M45">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N45">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O45">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="P45">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q45">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="R45">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>2.03</v>
       </c>
       <c r="T45">
+        <v>1.87</v>
+      </c>
+      <c r="U45">
+        <v>2.75</v>
+      </c>
+      <c r="V45">
+        <v>2</v>
+      </c>
+      <c r="W45">
+        <v>1.85</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
         <v>1.875</v>
       </c>
-      <c r="U45">
-        <v>2.5</v>
-      </c>
-      <c r="V45">
-        <v>1.9</v>
-      </c>
-      <c r="W45">
-        <v>1.95</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>2.4</v>
-      </c>
-      <c r="Z45">
-        <v>-1</v>
-      </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4694,7 +4694,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6808224</v>
+        <v>6808223</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
@@ -4703,79 +4703,79 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L46">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="M46">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N46">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O46">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P46">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q46">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="R46">
         <v>-0.25</v>
       </c>
       <c r="S46">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="T46">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="U46">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB46">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AD46">
         <v>-1</v>
@@ -4786,7 +4786,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6808223</v>
+        <v>6808392</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -4795,10 +4795,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4810,49 +4810,49 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="s">
         <v>55</v>
       </c>
       <c r="L47">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="M47">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O47">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="P47">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q47">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="R47">
         <v>-0.25</v>
       </c>
       <c r="S47">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T47">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U47">
         <v>2.25</v>
       </c>
       <c r="V47">
+        <v>1.9</v>
+      </c>
+      <c r="W47">
         <v>1.95</v>
       </c>
-      <c r="W47">
-        <v>1.9</v>
-      </c>
       <c r="X47">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="Y47">
         <v>-1</v>
@@ -4861,13 +4861,13 @@
         <v>-1</v>
       </c>
       <c r="AA47">
+        <v>1.05</v>
+      </c>
+      <c r="AB47">
+        <v>-1</v>
+      </c>
+      <c r="AC47">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB47">
-        <v>-1</v>
-      </c>
-      <c r="AC47">
-        <v>0.95</v>
       </c>
       <c r="AD47">
         <v>-1</v>
@@ -4878,7 +4878,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6808392</v>
+        <v>6808395</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4887,19 +4887,19 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -4908,43 +4908,43 @@
         <v>55</v>
       </c>
       <c r="L48">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="M48">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N48">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O48">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P48">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q48">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="R48">
         <v>-0.25</v>
       </c>
       <c r="S48">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U48">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V48">
+        <v>1.95</v>
+      </c>
+      <c r="W48">
         <v>1.9</v>
       </c>
-      <c r="W48">
-        <v>1.95</v>
-      </c>
       <c r="X48">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Y48">
         <v>-1</v>
@@ -4953,13 +4953,13 @@
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AD48">
         <v>-1</v>
@@ -45910,7 +45910,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>7375571</v>
+        <v>7375572</v>
       </c>
       <c r="C494" t="s">
         <v>29</v>
@@ -45919,16 +45919,16 @@
         <v>45391.65625</v>
       </c>
       <c r="E494" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F494" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G494">
         <v>1</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I494">
         <v>0</v>
@@ -45937,64 +45937,64 @@
         <v>0</v>
       </c>
       <c r="K494" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L494">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M494">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N494">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O494">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P494">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q494">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="R494">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S494">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T494">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U494">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V494">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W494">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X494">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y494">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z494">
         <v>-1</v>
       </c>
       <c r="AA494">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB494">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC494">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD494">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="495" spans="1:30">
@@ -46002,7 +46002,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>7375572</v>
+        <v>7375571</v>
       </c>
       <c r="C495" t="s">
         <v>29</v>
@@ -46011,16 +46011,16 @@
         <v>45391.65625</v>
       </c>
       <c r="E495" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F495" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G495">
         <v>1</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495">
         <v>0</v>
@@ -46029,64 +46029,64 @@
         <v>0</v>
       </c>
       <c r="K495" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L495">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M495">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N495">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O495">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P495">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q495">
+        <v>1.65</v>
+      </c>
+      <c r="R495">
+        <v>0.75</v>
+      </c>
+      <c r="S495">
+        <v>1.95</v>
+      </c>
+      <c r="T495">
+        <v>1.9</v>
+      </c>
+      <c r="U495">
         <v>2.5</v>
       </c>
-      <c r="R495">
-        <v>0</v>
-      </c>
-      <c r="S495">
-        <v>2.1</v>
-      </c>
-      <c r="T495">
-        <v>1.775</v>
-      </c>
-      <c r="U495">
-        <v>2.25</v>
-      </c>
       <c r="V495">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W495">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X495">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y495">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z495">
         <v>-1</v>
       </c>
       <c r="AA495">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB495">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC495">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD495">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="496" spans="1:30">
